--- a/Examples/Experiment/AlN/results.ref.xlsx
+++ b/Examples/Experiment/AlN/results.ref.xlsx
@@ -834,7 +834,7 @@
         <v>400</v>
       </c>
       <c r="C2">
-        <v>0.7180471286983071</v>
+        <v>0.6353868547930192</v>
       </c>
       <c r="D2">
         <v>0.001904189118313936</v>
@@ -848,7 +848,7 @@
         <v>404</v>
       </c>
       <c r="C3">
-        <v>0.7170603450735058</v>
+        <v>0.6368424049504462</v>
       </c>
       <c r="D3">
         <v>0.001982846553207889</v>
@@ -862,7 +862,7 @@
         <v>408</v>
       </c>
       <c r="C4">
-        <v>0.7159907618199726</v>
+        <v>0.6381402050010673</v>
       </c>
       <c r="D4">
         <v>0.002065073421078889</v>
@@ -876,7 +876,7 @@
         <v>412</v>
       </c>
       <c r="C5">
-        <v>0.7148365434019818</v>
+        <v>0.6392790872346383</v>
       </c>
       <c r="D5">
         <v>0.002151066805056484</v>
@@ -890,7 +890,7 @@
         <v>416</v>
       </c>
       <c r="C6">
-        <v>0.7135955938937567</v>
+        <v>0.6402578228164075</v>
       </c>
       <c r="D6">
         <v>0.002241036967071959</v>
@@ -904,7 +904,7 @@
         <v>420</v>
       </c>
       <c r="C7">
-        <v>0.7122655439208382</v>
+        <v>0.6410751088813179</v>
       </c>
       <c r="D7">
         <v>0.002335208387928157</v>
@@ -918,7 +918,7 @@
         <v>424</v>
       </c>
       <c r="C8">
-        <v>0.7108437372851886</v>
+        <v>0.6417295547337796</v>
       </c>
       <c r="D8">
         <v>0.002433820902572476</v>
@@ -932,7 +932,7 @@
         <v>428</v>
       </c>
       <c r="C9">
-        <v>0.709327217278288</v>
+        <v>0.6422196671085555</v>
       </c>
       <c r="D9">
         <v>0.002537130940528803</v>
@@ -946,10 +946,10 @@
         <v>432</v>
       </c>
       <c r="C10">
-        <v>0.7077127126894169</v>
+        <v>0.642543834448668</v>
       </c>
       <c r="D10">
-        <v>0.002645412882622846</v>
+        <v>0.002645412882622845</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -960,7 +960,7 @@
         <v>436</v>
       </c>
       <c r="C11">
-        <v>0.7059966235210264</v>
+        <v>0.6427003101578641</v>
       </c>
       <c r="D11">
         <v>0.00275896054647055</v>
@@ -974,7 +974,7 @@
         <v>440</v>
       </c>
       <c r="C12">
-        <v>0.7041750064299896</v>
+        <v>0.6426871947884538</v>
       </c>
       <c r="D12">
         <v>0.002878088814716203</v>
@@ -988,7 +988,7 @@
         <v>444</v>
       </c>
       <c r="C13">
-        <v>0.7022435599233006</v>
+        <v>0.6425024171308208</v>
       </c>
       <c r="D13">
         <v>0.00300313542173174</v>
@@ -1002,7 +1002,7 @@
         <v>448</v>
       </c>
       <c r="C14">
-        <v>0.700197609350083</v>
+        <v>0.6421437141791627</v>
       </c>
       <c r="D14">
         <v>0.00313446291645507</v>
@@ -1016,7 +1016,7 @@
         <v>452</v>
       </c>
       <c r="C15">
-        <v>0.6980320917495415</v>
+        <v>0.6416086099599059</v>
       </c>
       <c r="D15">
         <v>0.003272460821291198</v>
@@ -1030,10 +1030,10 @@
         <v>456</v>
       </c>
       <c r="C16">
-        <v>0.6957415406377171</v>
+        <v>0.6408943932256377</v>
       </c>
       <c r="D16">
-        <v>0.003417548009570603</v>
+        <v>0.003417548009570602</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1044,7 +1044,7 @@
         <v>460</v>
       </c>
       <c r="C17">
-        <v>0.6933200708459346</v>
+        <v>0.6399980940396028</v>
       </c>
       <c r="D17">
         <v>0.003570175327009137</v>
@@ -1058,7 +1058,7 @@
         <v>464</v>
       </c>
       <c r="C18">
-        <v>0.690761363562139</v>
+        <v>0.6389164593052379</v>
       </c>
       <c r="D18">
         <v>0.003730828486006513</v>
@@ -1072,7 +1072,7 @@
         <v>468</v>
       </c>
       <c r="C19">
-        <v>0.6880586517747411</v>
+        <v>0.6376459273337146</v>
       </c>
       <c r="D19">
         <v>0.003900031265533586</v>
@@ -1086,7 +1086,7 @@
         <v>472</v>
       </c>
       <c r="C20">
-        <v>0.6852047063793727</v>
+        <v>0.636182601592316</v>
       </c>
       <c r="D20">
         <v>0.004078349053884629</v>
@@ -1100,7 +1100,7 @@
         <v>476</v>
       </c>
       <c r="C21">
-        <v>0.6821918232846906</v>
+        <v>0.6345222238404307</v>
       </c>
       <c r="D21">
         <v>0.00426639277682193</v>
@@ -1114,7 +1114,7 @@
         <v>480</v>
       </c>
       <c r="C22">
-        <v>0.6790118119472845</v>
+        <v>0.6326601469414543</v>
       </c>
       <c r="D22">
         <v>0.004464823259752576</v>
@@ -1128,7 +1128,7 @@
         <v>484</v>
       </c>
       <c r="C23">
-        <v>0.6756559858816681</v>
+        <v>0.6305913077421651</v>
       </c>
       <c r="D23">
         <v>0.00467435607971847</v>
@@ -1142,10 +1142,10 @@
         <v>488</v>
       </c>
       <c r="C24">
-        <v>0.6721151558338908</v>
+        <v>0.6283102005413417</v>
       </c>
       <c r="D24">
-        <v>0.004895766971355915</v>
+        <v>0.004895766971355916</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1156,7 +1156,7 @@
         <v>492</v>
       </c>
       <c r="C25">
-        <v>0.6683796264821468</v>
+        <v>0.6258108518329434</v>
       </c>
       <c r="D25">
         <v>0.005129897860845708</v>
@@ -1170,7 +1170,7 @@
         <v>496</v>
       </c>
       <c r="C26">
-        <v>0.6644391977416314</v>
+        <v>0.6230867972138523</v>
       </c>
       <c r="D26">
         <v>0.005377663613547193</v>
@@ -1184,7 +1184,7 @@
         <v>500</v>
       </c>
       <c r="C27">
-        <v>0.660283172012195</v>
+        <v>0.6201310616017145</v>
       </c>
       <c r="D27">
         <v>0.005640059594891784</v>
@@ -1198,7 +1198,7 @@
         <v>504</v>
       </c>
       <c r="C28">
-        <v>0.6559003690261379</v>
+        <v>0.616936144226645</v>
       </c>
       <c r="D28">
         <v>0.005918170160711786</v>
@@ -1212,7 +1212,7 @@
         <v>508</v>
       </c>
       <c r="C29">
-        <v>0.6512791503424058</v>
+        <v>0.6134940102562608</v>
       </c>
       <c r="D29">
         <v>0.006213178213152475</v>
@@ -1226,7 +1226,7 @@
         <v>512</v>
       </c>
       <c r="C30">
-        <v>0.6464074560079143</v>
+        <v>0.6097960914048387</v>
       </c>
       <c r="D30">
         <v>0.006526375982502559</v>
@@ -1240,7 +1240,7 @@
         <v>516</v>
       </c>
       <c r="C31">
-        <v>0.6412728564862299</v>
+        <v>0.605833298487096</v>
       </c>
       <c r="D31">
         <v>0.006859177224781356</v>
@@ -1254,7 +1254,7 @@
         <v>520</v>
       </c>
       <c r="C32">
-        <v>0.6358626236627963</v>
+        <v>0.6015960496335329</v>
       </c>
       <c r="D32">
         <v>0.007213131061194714</v>
@@ -1268,7 +1268,7 @@
         <v>524</v>
       </c>
       <c r="C33">
-        <v>0.6301638256056027</v>
+        <v>0.5970743188232646</v>
       </c>
       <c r="D33">
         <v>0.00758993773055025</v>
@@ -1282,7 +1282,7 @@
         <v>528</v>
       </c>
       <c r="C34">
-        <v>0.6241634508310603</v>
+        <v>0.5922577105574551</v>
       </c>
       <c r="D34">
         <v>0.007991466582020079</v>
@@ -1296,7 +1296,7 @@
         <v>532</v>
       </c>
       <c r="C35">
-        <v>0.6178485691499024</v>
+        <v>0.5871355679505742</v>
       </c>
       <c r="D35">
         <v>0.008419776706813461</v>
@@ -1310,7 +1310,7 @@
         <v>536</v>
       </c>
       <c r="C36">
-        <v>0.6112065378180064</v>
+        <v>0.5816971233347181</v>
       </c>
       <c r="D36">
         <v>0.008877140698289428</v>
@@ -1324,7 +1324,7 @@
         <v>540</v>
       </c>
       <c r="C37">
-        <v>0.604225263788321</v>
+        <v>0.575931702756475</v>
       </c>
       <c r="D37">
         <v>0.00936607214766701</v>
@@ -1338,7 +1338,7 @@
         <v>544</v>
       </c>
       <c r="C38">
-        <v>0.5968935354857345</v>
+        <v>0.5698289986351498</v>
       </c>
       <c r="D38">
         <v>0.009889357636495526</v>
@@ -1352,7 +1352,7 @@
         <v>548</v>
       </c>
       <c r="C39">
-        <v>0.5892014408948986</v>
+        <v>0.5633794285382666</v>
       </c>
       <c r="D39">
         <v>0.01045009419137254</v>
@@ -1366,7 +1366,7 @@
         <v>552</v>
       </c>
       <c r="C40">
-        <v>0.5811408931323159</v>
+        <v>0.5565746027879926</v>
       </c>
       <c r="D40">
         <v>0.01105173344130485</v>
@@ -1380,7 +1380,7 @@
         <v>556</v>
       </c>
       <c r="C41">
-        <v>0.5727062904658391</v>
+        <v>0.5494079298366091</v>
       </c>
       <c r="D41">
         <v>0.01169813409349606</v>
@@ -1394,7 +1394,7 @@
         <v>560</v>
       </c>
       <c r="C42">
-        <v>0.5638953455408667</v>
+        <v>0.5418753966275457</v>
       </c>
       <c r="D42">
         <v>0.01239362486395143</v>
@@ -1408,7 +1408,7 @@
         <v>564</v>
       </c>
       <c r="C43">
-        <v>0.5547101292768234</v>
+        <v>0.5339765723807626</v>
       </c>
       <c r="D43">
         <v>0.01314308073315952</v>
@@ -1422,7 +1422,7 @@
         <v>568</v>
       </c>
       <c r="C44">
-        <v>0.5451583899085939</v>
+        <v>0.5257158997828545</v>
       </c>
       <c r="D44">
         <v>0.01395201644936195</v>
@@ -1436,7 +1436,7 @@
         <v>572</v>
       </c>
       <c r="C45">
-        <v>0.5352552291665688</v>
+        <v>0.5171043595900847</v>
       </c>
       <c r="D45">
         <v>0.01482670273790264</v>
@@ -1450,7 +1450,7 @@
         <v>576</v>
       </c>
       <c r="C46">
-        <v>0.5250252491345989</v>
+        <v>0.5081616266398461</v>
       </c>
       <c r="D46">
         <v>0.01577431295960761</v>
@@ -1464,7 +1464,7 @@
         <v>580</v>
       </c>
       <c r="C47">
-        <v>0.5145053306140805</v>
+        <v>0.4989188828750487</v>
       </c>
       <c r="D47">
         <v>0.01680311142661032</v>
@@ -1478,7 +1478,7 @@
         <v>584</v>
       </c>
       <c r="C48">
-        <v>0.503748276288588</v>
+        <v>0.4894225255961138</v>
       </c>
       <c r="D48">
         <v>0.01792269995209144</v>
@@ -1492,7 +1492,7 @@
         <v>588</v>
       </c>
       <c r="C49">
-        <v>0.4928276654455498</v>
+        <v>0.4797391225512996</v>
       </c>
       <c r="D49">
         <v>0.01914434771294926</v>
@@ -1506,7 +1506,7 @@
         <v>592</v>
       </c>
       <c r="C50">
-        <v>0.4818444484087794</v>
+        <v>0.4699621466287995</v>
       </c>
       <c r="D50">
         <v>0.0204814432978544</v>
@@ -1520,7 +1520,7 @@
         <v>596</v>
       </c>
       <c r="C51">
-        <v>0.4709361047149043</v>
+        <v>0.4602213185615783</v>
       </c>
       <c r="D51">
         <v>0.02195013077708219</v>
@@ -1534,7 +1534,7 @@
         <v>600</v>
       </c>
       <c r="C52">
-        <v>0.4602896807887671</v>
+        <v>0.45069587811237</v>
       </c>
       <c r="D52">
         <v>0.0235702309594029</v>
@@ -1548,7 +1548,7 @@
         <v>604</v>
       </c>
       <c r="C53">
-        <v>0.4501608533166077</v>
+        <v>0.4416339369131105</v>
       </c>
       <c r="D53">
         <v>0.02536661849215464</v>
@@ -1562,7 +1562,7 @@
         <v>608</v>
       </c>
       <c r="C54">
-        <v>0.440902581751427</v>
+        <v>0.4333814907716024</v>
       </c>
       <c r="D54">
         <v>0.0273713525831467</v>
@@ -1576,7 +1576,7 @@
         <v>612</v>
       </c>
       <c r="C55">
-        <v>0.4330093261976071</v>
+        <v>0.4264271022086876</v>
       </c>
       <c r="D55">
         <v>0.02962710092192117</v>
@@ -1590,7 +1590,7 @@
         <v>616</v>
       </c>
       <c r="C56">
-        <v>0.427186774561377</v>
+        <v>0.4214722829259053</v>
       </c>
       <c r="D56">
         <v>0.03219287709443636</v>
@@ -1604,7 +1604,7 @@
         <v>620</v>
       </c>
       <c r="C57">
-        <v>0.4244627262880795</v>
+        <v>0.4195434378027107</v>
       </c>
       <c r="D57">
         <v>0.03515411710079019</v>
@@ -1618,7 +1618,7 @@
         <v>624</v>
       </c>
       <c r="C58">
-        <v>0.4263586959032525</v>
+        <v>0.4221654694500939</v>
       </c>
       <c r="D58">
         <v>0.03864134958293514</v>
@@ -1632,7 +1632,7 @@
         <v>628</v>
       </c>
       <c r="C59">
-        <v>0.4351194545748509</v>
+        <v>0.4315955836485056</v>
       </c>
       <c r="D59">
         <v>0.04286700520548607</v>
@@ -1646,7 +1646,7 @@
         <v>632</v>
       </c>
       <c r="C60">
-        <v>0.4538191142790398</v>
+        <v>0.450938859944042</v>
       </c>
       <c r="D60">
         <v>0.04820351633006324</v>
@@ -1660,7 +1660,7 @@
         <v>636</v>
       </c>
       <c r="C61">
-        <v>0.4852102231955003</v>
+        <v>0.483015552138837</v>
       </c>
       <c r="D61">
         <v>0.05536430524781841</v>
@@ -1674,7 +1674,7 @@
         <v>640</v>
       </c>
       <c r="C62">
-        <v>0.5242466339804122</v>
+        <v>0.5228879909235105</v>
       </c>
       <c r="D62">
         <v>0.06587043609356048</v>
@@ -1688,7 +1688,7 @@
         <v>644</v>
       </c>
       <c r="C63">
-        <v>0.5335950126314234</v>
+        <v>0.5331817222290176</v>
       </c>
       <c r="D63">
         <v>0.08341417065395597</v>
@@ -1702,7 +1702,7 @@
         <v>648</v>
       </c>
       <c r="C64">
-        <v>0.4458653065230548</v>
+        <v>0.4459429212245428</v>
       </c>
       <c r="D64">
         <v>0.1183268941905935</v>
@@ -1716,7 +1716,7 @@
         <v>652</v>
       </c>
       <c r="C65">
-        <v>0.305802122919086</v>
+        <v>0.3058348742543065</v>
       </c>
       <c r="D65">
         <v>0.1998131916279342</v>
@@ -1730,7 +1730,7 @@
         <v>656</v>
       </c>
       <c r="C66">
-        <v>0.2352746540472186</v>
+        <v>0.2352515930803476</v>
       </c>
       <c r="D66">
         <v>0.3191278506208866</v>
@@ -1744,7 +1744,7 @@
         <v>660</v>
       </c>
       <c r="C67">
-        <v>0.2082723192026778</v>
+        <v>0.2082695759437836</v>
       </c>
       <c r="D67">
         <v>0.2567687596826376</v>
@@ -1758,7 +1758,7 @@
         <v>664</v>
       </c>
       <c r="C68">
-        <v>0.1291539656523428</v>
+        <v>0.1291539654733158</v>
       </c>
       <c r="D68">
         <v>0.1704800914987858</v>
@@ -1772,7 +1772,7 @@
         <v>668</v>
       </c>
       <c r="C69">
-        <v>0.08308789580287147</v>
+        <v>0.08308789649020464</v>
       </c>
       <c r="D69">
         <v>0.1223585605123452</v>
@@ -1786,7 +1786,7 @@
         <v>672</v>
       </c>
       <c r="C70">
-        <v>0.06481037644309209</v>
+        <v>0.06481036588470743</v>
       </c>
       <c r="D70">
         <v>0.1080530641309201</v>
@@ -1800,7 +1800,7 @@
         <v>676</v>
       </c>
       <c r="C71">
-        <v>0.05578223273455098</v>
+        <v>0.0557821373693028</v>
       </c>
       <c r="D71">
         <v>0.1053477863646141</v>
@@ -1814,7 +1814,7 @@
         <v>680</v>
       </c>
       <c r="C72">
-        <v>0.05087820213258349</v>
+        <v>0.0508779627445827</v>
       </c>
       <c r="D72">
         <v>0.107497556246227</v>
@@ -1828,7 +1828,7 @@
         <v>684</v>
       </c>
       <c r="C73">
-        <v>0.04847118099757159</v>
+        <v>0.0484708037925848</v>
       </c>
       <c r="D73">
         <v>0.1121705586819541</v>
@@ -1842,7 +1842,7 @@
         <v>688</v>
       </c>
       <c r="C74">
-        <v>0.04791619168971364</v>
+        <v>0.04791573830131465</v>
       </c>
       <c r="D74">
         <v>0.1183574460544162</v>
@@ -1856,7 +1856,7 @@
         <v>692</v>
       </c>
       <c r="C75">
-        <v>0.04890186149258387</v>
+        <v>0.0489014109606699</v>
       </c>
       <c r="D75">
         <v>0.1255207877198237</v>
@@ -1870,7 +1870,7 @@
         <v>696</v>
       </c>
       <c r="C76">
-        <v>0.05123880955377701</v>
+        <v>0.05123842446744872</v>
       </c>
       <c r="D76">
         <v>0.1333012939469632</v>
@@ -1884,7 +1884,7 @@
         <v>700</v>
       </c>
       <c r="C77">
-        <v>0.05477986790791224</v>
+        <v>0.05477957890649409</v>
       </c>
       <c r="D77">
         <v>0.1413967794832132</v>
@@ -1898,7 +1898,7 @@
         <v>704</v>
       </c>
       <c r="C78">
-        <v>0.05938811112145236</v>
+        <v>0.05938791878208412</v>
       </c>
       <c r="D78">
         <v>0.1495056901324381</v>
@@ -1912,7 +1912,7 @@
         <v>708</v>
       </c>
       <c r="C79">
-        <v>0.06492445509257899</v>
+        <v>0.06492434122425343</v>
       </c>
       <c r="D79">
         <v>0.1573004608393981</v>
@@ -1926,7 +1926,7 @@
         <v>712</v>
       </c>
       <c r="C80">
-        <v>0.07124385176681849</v>
+        <v>0.07124379192096977</v>
       </c>
       <c r="D80">
         <v>0.1644196141678223</v>
@@ -1940,7 +1940,7 @@
         <v>716</v>
       </c>
       <c r="C81">
-        <v>0.07819531499639991</v>
+        <v>0.07819528725004629</v>
       </c>
       <c r="D81">
         <v>0.1704760190596875</v>
@@ -1954,7 +1954,7 @@
         <v>720</v>
       </c>
       <c r="C82">
-        <v>0.08562351763993008</v>
+        <v>0.08562350641104918</v>
       </c>
       <c r="D82">
         <v>0.1750811323958466</v>
@@ -1968,7 +1968,7 @@
         <v>724</v>
       </c>
       <c r="C83">
-        <v>0.09337081179667296</v>
+        <v>0.0933708078893669</v>
       </c>
       <c r="D83">
         <v>0.1778837462884919</v>
@@ -1982,7 +1982,7 @@
         <v>728</v>
       </c>
       <c r="C84">
-        <v>0.1012790597769299</v>
+        <v>0.1012790586314481</v>
       </c>
       <c r="D84">
         <v>0.1786177792059132</v>
@@ -1996,7 +1996,7 @@
         <v>732</v>
       </c>
       <c r="C85">
-        <v>0.1091909381634651</v>
+        <v>0.1091909378880456</v>
       </c>
       <c r="D85">
         <v>0.1771486571504023</v>
@@ -2010,7 +2010,7 @@
         <v>736</v>
       </c>
       <c r="C86">
-        <v>0.1169505204411747</v>
+        <v>0.1169505203887466</v>
       </c>
       <c r="D86">
         <v>0.1735047353204707</v>
@@ -2024,7 +2024,7 @@
         <v>740</v>
       </c>
       <c r="C87">
-        <v>0.1244030098772355</v>
+        <v>0.1244030098696939</v>
       </c>
       <c r="D87">
         <v>0.1678820364780696</v>
@@ -2038,7 +2038,7 @@
         <v>744</v>
       </c>
       <c r="C88">
-        <v>0.1313935053371177</v>
+        <v>0.1313935053363474</v>
       </c>
       <c r="D88">
         <v>0.1606181559448709</v>
@@ -2052,7 +2052,7 @@
         <v>748</v>
       </c>
       <c r="C89">
-        <v>0.1377646423943861</v>
+        <v>0.1377646423943347</v>
       </c>
       <c r="D89">
         <v>0.1521416082715744</v>
@@ -2066,7 +2066,7 @@
         <v>752</v>
       </c>
       <c r="C90">
-        <v>0.1433528495181569</v>
+        <v>0.1433528495181549</v>
       </c>
       <c r="D90">
         <v>0.1429109105734398</v>
@@ -2962,7 +2962,7 @@
         <v>1008</v>
       </c>
       <c r="C154">
-        <v>0.9779771806397809</v>
+        <v>0.9779771806397808</v>
       </c>
       <c r="D154">
         <v>0.009619719813283432</v>
@@ -2976,7 +2976,7 @@
         <v>1012</v>
       </c>
       <c r="C155">
-        <v>0.9775382227155446</v>
+        <v>0.9775382227155367</v>
       </c>
       <c r="D155">
         <v>0.00940092524957133</v>
@@ -2990,7 +2990,7 @@
         <v>1016</v>
       </c>
       <c r="C156">
-        <v>0.9767388716848219</v>
+        <v>0.9767388716845906</v>
       </c>
       <c r="D156">
         <v>0.009197163547156112</v>
@@ -3004,7 +3004,7 @@
         <v>1020</v>
       </c>
       <c r="C157">
-        <v>0.9757149430603163</v>
+        <v>0.9757149430564732</v>
       </c>
       <c r="D157">
         <v>0.00900551507601232</v>
@@ -3018,7 +3018,7 @@
         <v>1024</v>
       </c>
       <c r="C158">
-        <v>0.9745578334803982</v>
+        <v>0.9745578334391046</v>
       </c>
       <c r="D158">
         <v>0.008823987467567299</v>
@@ -3032,7 +3032,7 @@
         <v>1028</v>
       </c>
       <c r="C159">
-        <v>0.9733297633829997</v>
+        <v>0.9733297630685939</v>
       </c>
       <c r="D159">
         <v>0.008651159346083815</v>
@@ -3046,7 +3046,7 @@
         <v>1032</v>
       </c>
       <c r="C160">
-        <v>0.972073365722437</v>
+        <v>0.9720733639072032</v>
       </c>
       <c r="D160">
         <v>0.008485976164261081</v>
@@ -3060,7 +3060,7 @@
         <v>1036</v>
       </c>
       <c r="C161">
-        <v>0.9708178860390151</v>
+        <v>0.9708178776742735</v>
       </c>
       <c r="D161">
         <v>0.008327628018406726</v>
@@ -3074,10 +3074,10 @@
         <v>1040</v>
       </c>
       <c r="C162">
-        <v>0.9695832860010168</v>
+        <v>0.9695832539993309</v>
       </c>
       <c r="D162">
-        <v>0.008175473715034999</v>
+        <v>0.008175473715035001</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3088,7 +3088,7 @@
         <v>1044</v>
       </c>
       <c r="C163">
-        <v>0.9683830139766587</v>
+        <v>0.9683829091471235</v>
       </c>
       <c r="D163">
         <v>0.008028991985702557</v>
@@ -3102,7 +3102,7 @@
         <v>1048</v>
       </c>
       <c r="C164">
-        <v>0.9672259078480242</v>
+        <v>0.9672256065446881</v>
       </c>
       <c r="D164">
         <v>0.007887749199787443</v>
@@ -3116,7 +3116,7 @@
         <v>1052</v>
       </c>
       <c r="C165">
-        <v>0.9661175211581967</v>
+        <v>0.9661167462313793</v>
       </c>
       <c r="D165">
         <v>0.007751377415983025</v>
@@ -3130,7 +3130,7 @@
         <v>1056</v>
       </c>
       <c r="C166">
-        <v>0.9650610590462094</v>
+        <v>0.965059246964128</v>
       </c>
       <c r="D166">
         <v>0.007619559093243469</v>
@@ -3144,10 +3144,10 @@
         <v>1060</v>
       </c>
       <c r="C167">
-        <v>0.964058045899599</v>
+        <v>0.9640541425760147</v>
       </c>
       <c r="D167">
-        <v>0.007492016198928809</v>
+        <v>0.007492016198928808</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3158,7 +3158,7 @@
         <v>1064</v>
       </c>
       <c r="C168">
-        <v>0.963108805941377</v>
+        <v>0.9631009764888838</v>
       </c>
       <c r="D168">
         <v>0.007368502286572543</v>
@@ -3172,7 +3172,7 @@
         <v>1068</v>
       </c>
       <c r="C169">
-        <v>0.9622128117474769</v>
+        <v>0.9621980549713257</v>
       </c>
       <c r="D169">
         <v>0.007248796621010273</v>
@@ -3186,10 +3186,10 @@
         <v>1072</v>
       </c>
       <c r="C170">
-        <v>0.9613689384894335</v>
+        <v>0.9613426046666506</v>
       </c>
       <c r="D170">
-        <v>0.007132699742157716</v>
+        <v>0.007132699742157715</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3200,7 +3200,7 @@
         <v>1076</v>
       </c>
       <c r="C171">
-        <v>0.9605756502233675</v>
+        <v>0.9605308693809</v>
       </c>
       <c r="D171">
         <v>0.007020030057742276</v>
@@ -3214,7 +3214,7 @@
         <v>1080</v>
       </c>
       <c r="C172">
-        <v>0.9598311367769011</v>
+        <v>0.9597581730002688</v>
       </c>
       <c r="D172">
         <v>0.006910621184199335</v>
@@ -3228,7 +3228,7 @@
         <v>1084</v>
       </c>
       <c r="C173">
-        <v>0.9591334144518809</v>
+        <v>0.9590189686182832</v>
       </c>
       <c r="D173">
         <v>0.006804319840063034</v>
@@ -3242,7 +3242,7 @@
         <v>1088</v>
       </c>
       <c r="C174">
-        <v>0.9584804000531482</v>
+        <v>0.9583068880473228</v>
       </c>
       <c r="D174">
         <v>0.006700984153345181</v>
@@ -3256,7 +3256,7 @@
         <v>1092</v>
       </c>
       <c r="C175">
-        <v>0.9578699651466768</v>
+        <v>0.9576148007596219</v>
       </c>
       <c r="D175">
         <v>0.0066004822834334</v>
@@ -3270,7 +3270,7 @@
         <v>1096</v>
       </c>
       <c r="C176">
-        <v>0.9572999755981887</v>
+        <v>0.9569348869848929</v>
       </c>
       <c r="D176">
         <v>0.006502691285085955</v>
@@ -3284,7 +3284,7 @@
         <v>1100</v>
       </c>
       <c r="C177">
-        <v>0.9567683201146753</v>
+        <v>0.9562587262411946</v>
       </c>
       <c r="D177">
         <v>0.006407496161110498</v>
@@ -3298,10 +3298,10 @@
         <v>1104</v>
       </c>
       <c r="C178">
-        <v>0.9562729305497235</v>
+        <v>0.9555774000091209</v>
       </c>
       <c r="D178">
-        <v>0.006314789063851366</v>
+        <v>0.006314789063851365</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3312,7 +3312,7 @@
         <v>1108</v>
       </c>
       <c r="C179">
-        <v>0.9558117960320719</v>
+        <v>0.9548816055351005</v>
       </c>
       <c r="D179">
         <v>0.006224468615371301</v>
@@ -3326,7 +3326,7 @@
         <v>1112</v>
       </c>
       <c r="C180">
-        <v>0.9553829724612751</v>
+        <v>0.9541617767735536</v>
       </c>
       <c r="D180">
         <v>0.006136439323327304</v>
@@ -3340,7 +3340,7 @@
         <v>1116</v>
       </c>
       <c r="C181">
-        <v>0.954984588532885</v>
+        <v>0.9534082081208232</v>
       </c>
       <c r="D181">
         <v>0.006050611074794878</v>
@@ -3354,10 +3354,10 @@
         <v>1120</v>
       </c>
       <c r="C182">
-        <v>0.9546148491715208</v>
+        <v>0.9526111767117287</v>
       </c>
       <c r="D182">
-        <v>0.005966898694207597</v>
+        <v>0.005966898694207596</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3368,10 +3368,10 @@
         <v>1124</v>
       </c>
       <c r="C183">
-        <v>0.9542720370375606</v>
+        <v>0.9517610594996643</v>
       </c>
       <c r="D183">
-        <v>0.005885221554517508</v>
+        <v>0.005885221554517509</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3382,7 +3382,7 @@
         <v>1128</v>
       </c>
       <c r="C184">
-        <v>0.9539545126131167</v>
+        <v>0.9508484419945513</v>
       </c>
       <c r="D184">
         <v>0.005805503232933989</v>
@@ -3396,7 +3396,7 @@
         <v>1132</v>
       </c>
       <c r="C185">
-        <v>0.9536607132519742</v>
+        <v>0.9498642162822937</v>
       </c>
       <c r="D185">
         <v>0.00572767120429512</v>
@@ -3410,7 +3410,7 @@
         <v>1136</v>
       </c>
       <c r="C186">
-        <v>0.9533891514862918</v>
+        <v>0.9487996667111646</v>
       </c>
       <c r="D186">
         <v>0.005651656566479637</v>
@@ -3424,10 +3424,10 @@
         <v>1140</v>
       </c>
       <c r="C187">
-        <v>0.9531384128128757</v>
+        <v>0.9476465423451702</v>
       </c>
       <c r="D187">
-        <v>0.00557739379327745</v>
+        <v>0.005577393793277451</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3438,7 +3438,7 @@
         <v>1144</v>
       </c>
       <c r="C188">
-        <v>0.9529071531283262</v>
+        <v>0.9463971159134276</v>
       </c>
       <c r="D188">
         <v>0.005504820510973444</v>
@@ -3452,7 +3452,7 @@
         <v>1148</v>
       </c>
       <c r="C189">
-        <v>0.9526940959413384</v>
+        <v>0.945044229507245</v>
       </c>
       <c r="D189">
         <v>0.005433877295530034</v>
@@ -3466,7 +3466,7 @@
         <v>1152</v>
       </c>
       <c r="C190">
-        <v>0.9524980294589115</v>
+        <v>0.9435813276859207</v>
       </c>
       <c r="D190">
         <v>0.005364507487782009</v>
@@ -3480,7 +3480,7 @@
         <v>1156</v>
       </c>
       <c r="C191">
-        <v>0.9523178036189489</v>
+        <v>0.942002478951267</v>
       </c>
       <c r="D191">
         <v>0.005296657024463674</v>
@@ -3494,7 +3494,7 @@
         <v>1160</v>
       </c>
       <c r="C192">
-        <v>0.9521523271229687</v>
+        <v>0.940302386749084</v>
       </c>
       <c r="D192">
         <v>0.005230274283228749</v>
@@ -3508,7 +3508,7 @@
         <v>1164</v>
       </c>
       <c r="C193">
-        <v>0.9520005645081292</v>
+        <v>0.9384763912667244</v>
       </c>
       <c r="D193">
         <v>0.005165309940099884</v>
@@ -3522,7 +3522,7 @@
         <v>1168</v>
       </c>
       <c r="C194">
-        <v>0.951861533286503</v>
+        <v>0.9365204633346125</v>
       </c>
       <c r="D194">
         <v>0.005101716838005534</v>
@@ -3536,7 +3536,7 @@
         <v>1172</v>
       </c>
       <c r="C195">
-        <v>0.9517343011707128</v>
+        <v>0.9344311917214015</v>
       </c>
       <c r="D195">
         <v>0.005039449865252091</v>
@@ -3550,7 +3550,7 @@
         <v>1176</v>
       </c>
       <c r="C196">
-        <v>0.9516179833981387</v>
+        <v>0.932205765051757</v>
       </c>
       <c r="D196">
         <v>0.004978465842930819</v>
@@ -3564,7 +3564,7 @@
         <v>1180</v>
       </c>
       <c r="C197">
-        <v>0.9515117401604204</v>
+        <v>0.9298419494853247</v>
       </c>
       <c r="D197">
         <v>0.004918723420395629</v>
@@ -3578,7 +3578,7 @@
         <v>1184</v>
       </c>
       <c r="C198">
-        <v>0.9514147741406143</v>
+        <v>0.9273380631862594</v>
       </c>
       <c r="D198">
         <v>0.004860182978043177</v>
@@ -3592,7 +3592,7 @@
         <v>1188</v>
       </c>
       <c r="C199">
-        <v>0.9513263281568164</v>
+        <v>0.9246929484936621</v>
       </c>
       <c r="D199">
         <v>0.004802806536739953</v>
@@ -3606,7 +3606,7 @@
         <v>1192</v>
       </c>
       <c r="C200">
-        <v>0.9512456829082245</v>
+        <v>0.921905942581531</v>
       </c>
       <c r="D200">
         <v>0.004746557673293979</v>
@@ -3620,7 +3620,7 @@
         <v>1196</v>
       </c>
       <c r="C201">
-        <v>0.9511721548172519</v>
+        <v>0.9189768472776101</v>
       </c>
       <c r="D201">
         <v>0.004691401441459851</v>
@@ -3634,7 +3634,7 @@
         <v>1200</v>
       </c>
       <c r="C202">
-        <v>0.9511050939594481</v>
+        <v>0.9159058985976964</v>
       </c>
       <c r="D202">
         <v>0.004637304298008311</v>
@@ -15758,7 +15758,7 @@
         <v>400</v>
       </c>
       <c r="C2">
-        <v>0.2811480031921679</v>
+        <v>0.1666286370560363</v>
       </c>
       <c r="D2">
         <v>0.2853269068782495</v>
@@ -15772,7 +15772,7 @@
         <v>404</v>
       </c>
       <c r="C3">
-        <v>0.2822392698756074</v>
+        <v>0.1713929509455858</v>
       </c>
       <c r="D3">
         <v>0.2859184538912243</v>
@@ -15786,7 +15786,7 @@
         <v>408</v>
       </c>
       <c r="C4">
-        <v>0.2834019221548078</v>
+        <v>0.1762577484179741</v>
       </c>
       <c r="D4">
         <v>0.2865697386205026</v>
@@ -15800,7 +15800,7 @@
         <v>412</v>
       </c>
       <c r="C5">
-        <v>0.2846387685699167</v>
+        <v>0.1812211125593076</v>
       </c>
       <c r="D5">
         <v>0.28728424177602</v>
@@ -15814,7 +15814,7 @@
         <v>416</v>
       </c>
       <c r="C6">
-        <v>0.2859528245095516</v>
+        <v>0.1862812282109441</v>
       </c>
       <c r="D6">
         <v>0.2880656441153138</v>
@@ -15828,7 +15828,7 @@
         <v>420</v>
       </c>
       <c r="C7">
-        <v>0.2873473256944828</v>
+        <v>0.1914363959472526</v>
       </c>
       <c r="D7">
         <v>0.2889178393511611</v>
@@ -15842,7 +15842,7 @@
         <v>424</v>
       </c>
       <c r="C8">
-        <v>0.2888257421447562</v>
+        <v>0.1966850468214029</v>
       </c>
       <c r="D8">
         <v>0.2898449479547642</v>
@@ -15856,7 +15856,7 @@
         <v>428</v>
       </c>
       <c r="C9">
-        <v>0.2903917926268372</v>
+        <v>0.2020257579340237</v>
       </c>
       <c r="D9">
         <v>0.2908513319158361</v>
@@ -15870,7 +15870,7 @@
         <v>432</v>
       </c>
       <c r="C10">
-        <v>0.292049459572638</v>
+        <v>0.207457268881018</v>
       </c>
       <c r="D10">
         <v>0.2919416105241309</v>
@@ -15884,7 +15884,7 @@
         <v>436</v>
       </c>
       <c r="C11">
-        <v>0.2938030044557597</v>
+        <v>0.2129784991371491</v>
       </c>
       <c r="D11">
         <v>0.2931206772400142</v>
@@ -15898,7 +15898,7 @@
         <v>440</v>
       </c>
       <c r="C12">
-        <v>0.2956569836015229</v>
+        <v>0.2185885664308442</v>
       </c>
       <c r="D12">
         <v>0.2943937177245052</v>
@@ -15912,7 +15912,7 @@
         <v>444</v>
       </c>
       <c r="C13">
-        <v>0.2976162643957324</v>
+        <v>0.2242868061624945</v>
       </c>
       <c r="D13">
         <v>0.2957662291016779</v>
@@ -15926,7 +15926,7 @@
         <v>448</v>
       </c>
       <c r="C14">
-        <v>0.2996860418419661</v>
+        <v>0.2300727919127886</v>
       </c>
       <c r="D14">
         <v>0.2972440405282356</v>
@@ -15940,7 +15940,7 @@
         <v>452</v>
       </c>
       <c r="C15">
-        <v>0.3018718553976234</v>
+        <v>0.2359463570784962</v>
       </c>
       <c r="D15">
         <v>0.2988333351462656</v>
@@ -15954,7 +15954,7 @@
         <v>456</v>
       </c>
       <c r="C16">
-        <v>0.3041796059940069</v>
+        <v>0.2419076176597673</v>
       </c>
       <c r="D16">
         <v>0.3005406734953542</v>
@@ -15968,7 +15968,7 @@
         <v>460</v>
       </c>
       <c r="C17">
-        <v>0.306615573114089</v>
+        <v>0.2479569962041538</v>
       </c>
       <c r="D17">
         <v>0.3023730184590703</v>
@@ -15982,7 +15982,7 @@
         <v>464</v>
       </c>
       <c r="C18">
-        <v>0.3091864317618407</v>
+        <v>0.2540952468868345</v>
       </c>
       <c r="D18">
         <v>0.3043377618178689</v>
@@ -15996,7 +15996,7 @@
         <v>468</v>
       </c>
       <c r="C19">
-        <v>0.3118992691072963</v>
+        <v>0.2603234816721063</v>
       </c>
       <c r="D19">
         <v>0.3064427524752135</v>
@@ -16010,7 +16010,7 @@
         <v>472</v>
       </c>
       <c r="C20">
-        <v>0.3147616005296867</v>
+        <v>0.2666431974558394</v>
       </c>
       <c r="D20">
         <v>0.3086963264154592</v>
@@ -16024,7 +16024,7 @@
         <v>476</v>
       </c>
       <c r="C21">
-        <v>0.3177813847044092</v>
+        <v>0.2730563040295904</v>
       </c>
       <c r="D21">
         <v>0.3111073384399651</v>
@@ -16038,7 +16038,7 @@
         <v>480</v>
       </c>
       <c r="C22">
-        <v>0.3209670372851486</v>
+        <v>0.2795651526309927</v>
       </c>
       <c r="D22">
         <v>0.3136851957109537</v>
@@ -16052,7 +16052,7 @@
         <v>484</v>
       </c>
       <c r="C23">
-        <v>0.3243274426162853</v>
+        <v>0.2861725647477031</v>
       </c>
       <c r="D23">
         <v>0.3164398931094711</v>
@@ -16066,7 +16066,7 @@
         <v>488</v>
       </c>
       <c r="C24">
-        <v>0.3278719627682452</v>
+        <v>0.2928818607184536</v>
       </c>
       <c r="D24">
         <v>0.3193820503827998</v>
@@ -16080,7 +16080,7 @@
         <v>492</v>
       </c>
       <c r="C25">
-        <v>0.3316104430140022</v>
+        <v>0.2996968875181844</v>
       </c>
       <c r="D25">
         <v>0.3225229510157541</v>
@@ -16094,7 +16094,7 @@
         <v>496</v>
       </c>
       <c r="C26">
-        <v>0.3355532126518049</v>
+        <v>0.306622044917047</v>
       </c>
       <c r="D26">
         <v>0.3258745827068675</v>
@@ -16108,7 +16108,7 @@
         <v>500</v>
       </c>
       <c r="C27">
-        <v>0.3397110798189553</v>
+        <v>0.3136623089554358</v>
       </c>
       <c r="D27">
         <v>0.3294496792613295</v>
@@ -16122,7 +16122,7 @@
         <v>504</v>
       </c>
       <c r="C28">
-        <v>0.3440953186240455</v>
+        <v>0.3208232513672646</v>
       </c>
       <c r="D28">
         <v>0.3332617636235886</v>
@@ -16136,7 +16136,7 @@
         <v>508</v>
       </c>
       <c r="C29">
-        <v>0.3487176465377975</v>
+        <v>0.3281110531964405</v>
       </c>
       <c r="D29">
         <v>0.3373251916587132</v>
@@ -16150,7 +16150,7 @@
         <v>512</v>
       </c>
       <c r="C30">
-        <v>0.3535901895100891</v>
+        <v>0.3355325103685722</v>
       </c>
       <c r="D30">
         <v>0.3416551961464956</v>
@@ -16164,7 +16164,7 @@
         <v>516</v>
       </c>
       <c r="C31">
-        <v>0.3587254317033636</v>
+        <v>0.3430950283782729</v>
       </c>
       <c r="D31">
         <v>0.3462679302678344</v>
@@ -16178,7 +16178,7 @@
         <v>520</v>
       </c>
       <c r="C32">
-        <v>0.3641361460259215</v>
+        <v>0.3508066025031943</v>
       </c>
       <c r="D32">
         <v>0.3511805096289493</v>
@@ -16192,7 +16192,7 @@
         <v>524</v>
       </c>
       <c r="C33">
-        <v>0.3698353007812418</v>
+        <v>0.3586757790227</v>
       </c>
       <c r="D33">
         <v>0.356411051572595</v>
@@ -16206,7 +16206,7 @@
         <v>528</v>
       </c>
       <c r="C34">
-        <v>0.3758359366809919</v>
+        <v>0.3667115917554498</v>
       </c>
       <c r="D34">
         <v>0.361978710150239</v>
@@ -16220,7 +16220,7 @@
         <v>532</v>
       </c>
       <c r="C35">
-        <v>0.3821510071466752</v>
+        <v>0.3749234667763183</v>
       </c>
       <c r="D35">
         <v>0.3679037046543134</v>
@@ -16234,7 +16234,7 @@
         <v>536</v>
       </c>
       <c r="C36">
-        <v>0.3887931731770111</v>
+        <v>0.3833210863507381</v>
       </c>
       <c r="D36">
         <v>0.3742073390083124</v>
@@ -16248,7 +16248,7 @@
         <v>540</v>
       </c>
       <c r="C37">
-        <v>0.3957745419889097</v>
+        <v>0.391914200829769</v>
       </c>
       <c r="D37">
         <v>0.380912008550211</v>
@@ -16262,7 +16262,7 @@
         <v>544</v>
       </c>
       <c r="C38">
-        <v>0.4031063360160769</v>
+        <v>0.4007123743410805</v>
       </c>
       <c r="D38">
         <v>0.388041189776647</v>
@@ -16276,7 +16276,7 @@
         <v>548</v>
       </c>
       <c r="C39">
-        <v>0.4107984754826423</v>
+        <v>0.4097246463944939</v>
       </c>
       <c r="D39">
         <v>0.3956194073828636</v>
@@ -16290,7 +16290,7 @@
         <v>552</v>
       </c>
       <c r="C40">
-        <v>0.4188590533891382</v>
+        <v>0.4189590867200789</v>
       </c>
       <c r="D40">
         <v>0.4036721713591962</v>
@@ -16304,7 +16304,7 @@
         <v>556</v>
       </c>
       <c r="C41">
-        <v>0.4272936759571992</v>
+        <v>0.4284222143726729</v>
       </c>
       <c r="D41">
         <v>0.4122258748852743</v>
@@ -16318,7 +16318,7 @@
         <v>560</v>
       </c>
       <c r="C42">
-        <v>0.4361046337837501</v>
+        <v>0.4381182437783844</v>
       </c>
       <c r="D42">
         <v>0.4213076411578359</v>
@@ -16332,7 +16332,7 @@
         <v>564</v>
       </c>
       <c r="C43">
-        <v>0.4452898582513501</v>
+        <v>0.4480481090724643</v>
       </c>
       <c r="D43">
         <v>0.4309451039036925</v>
@@ -16346,7 +16346,7 @@
         <v>568</v>
       </c>
       <c r="C44">
-        <v>0.4548416027301574</v>
+        <v>0.4582082024048394</v>
       </c>
       <c r="D44">
         <v>0.4411661018946757</v>
@@ -16360,7 +16360,7 @@
         <v>572</v>
       </c>
       <c r="C45">
-        <v>0.4647447665875968</v>
+        <v>0.4685887396996256</v>
       </c>
       <c r="D45">
         <v>0.4519982619068866</v>
@@ -16374,7 +16374,7 @@
         <v>576</v>
       </c>
       <c r="C46">
-        <v>0.4749747484755409</v>
+        <v>0.4791716351730742</v>
       </c>
       <c r="D46">
         <v>0.4634684366804222</v>
@@ -16388,7 +16388,7 @@
         <v>580</v>
       </c>
       <c r="C47">
-        <v>0.4854946680750832</v>
+        <v>0.4899277180788269</v>
       </c>
       <c r="D47">
         <v>0.4756019536741038</v>
@@ -16402,7 +16402,7 @@
         <v>584</v>
       </c>
       <c r="C48">
-        <v>0.4962517230118615</v>
+        <v>0.5008130522848273</v>
       </c>
       <c r="D48">
         <v>0.4884216154302214</v>
@@ -16416,7 +16416,7 @@
         <v>588</v>
       </c>
       <c r="C49">
-        <v>0.507172334191814</v>
+        <v>0.5117640056184414</v>
       </c>
       <c r="D49">
         <v>0.5019463710136768</v>
@@ -16430,7 +16430,7 @@
         <v>592</v>
       </c>
       <c r="C50">
-        <v>0.5181555514089354</v>
+        <v>0.5226905344950592</v>
       </c>
       <c r="D50">
         <v>0.5161895466985919</v>
@@ -16444,7 +16444,7 @@
         <v>596</v>
       </c>
       <c r="C51">
-        <v>0.5290638951964073</v>
+        <v>0.5334668534712375</v>
       </c>
       <c r="D51">
         <v>0.5311564767185744</v>
@@ -16458,7 +16458,7 @@
         <v>600</v>
       </c>
       <c r="C52">
-        <v>0.5397103191695467</v>
+        <v>0.5439181671960079</v>
       </c>
       <c r="D52">
         <v>0.5468413005780879</v>
@@ -16472,7 +16472,7 @@
         <v>604</v>
       </c>
       <c r="C53">
-        <v>0.5498391466645004</v>
+        <v>0.5538013096818988</v>
       </c>
       <c r="D53">
         <v>0.5632225720118793</v>
@@ -16486,7 +16486,7 @@
         <v>608</v>
       </c>
       <c r="C54">
-        <v>0.5590974182403342</v>
+        <v>0.5627757119308978</v>
       </c>
       <c r="D54">
         <v>0.5802571174702125</v>
@@ -16500,7 +16500,7 @@
         <v>612</v>
       </c>
       <c r="C55">
-        <v>0.5669906737989423</v>
+        <v>0.570358688150024</v>
       </c>
       <c r="D55">
         <v>0.5978712113061699</v>
@@ -16514,7 +16514,7 @@
         <v>616</v>
       </c>
       <c r="C56">
-        <v>0.5728132254372376</v>
+        <v>0.5758550174878008</v>
       </c>
       <c r="D56">
         <v>0.615947437217813</v>
@@ -16528,7 +16528,7 @@
         <v>620</v>
       </c>
       <c r="C57">
-        <v>0.5755372737113882</v>
+        <v>0.5782449812424144</v>
       </c>
       <c r="D57">
         <v>0.6343042188681094</v>
@@ -16542,7 +16542,7 @@
         <v>624</v>
       </c>
       <c r="C58">
-        <v>0.5736413040965521</v>
+        <v>0.5760108192887392</v>
       </c>
       <c r="D58">
         <v>0.652662076705773</v>
@@ -16556,7 +16556,7 @@
         <v>628</v>
       </c>
       <c r="C59">
-        <v>0.5648805454250806</v>
+        <v>0.5669032473359285</v>
       </c>
       <c r="D59">
         <v>0.6705840707028696</v>
@@ -16570,7 +16570,7 @@
         <v>632</v>
       </c>
       <c r="C60">
-        <v>0.5461808857209375</v>
+        <v>0.5478270027372671</v>
       </c>
       <c r="D60">
         <v>0.6873618636892441</v>
@@ -16584,7 +16584,7 @@
         <v>636</v>
       </c>
       <c r="C61">
-        <v>0.5147897768044926</v>
+        <v>0.5159769124909627</v>
       </c>
       <c r="D61">
         <v>0.7017765426705713</v>
@@ -16598,7 +16598,7 @@
         <v>640</v>
       </c>
       <c r="C62">
-        <v>0.4757533660195858</v>
+        <v>0.4763190271395835</v>
       </c>
       <c r="D62">
         <v>0.7115415010329108</v>
@@ -16612,7 +16612,7 @@
         <v>644</v>
       </c>
       <c r="C63">
-        <v>0.4664049873685761</v>
+        <v>0.4662722994342816</v>
       </c>
       <c r="D63">
         <v>0.7118604298412357</v>
@@ -16626,7 +16626,7 @@
         <v>648</v>
       </c>
       <c r="C64">
-        <v>0.5541346934769451</v>
+        <v>0.5537834433552005</v>
       </c>
       <c r="D64">
         <v>0.6915362556086251</v>
@@ -16640,7 +16640,7 @@
         <v>652</v>
       </c>
       <c r="C65">
-        <v>0.694197877080914</v>
+        <v>0.6940730235064776</v>
       </c>
       <c r="D65">
         <v>0.628337318139385</v>
@@ -16654,7 +16654,7 @@
         <v>656</v>
       </c>
       <c r="C66">
-        <v>0.7647253459527813</v>
+        <v>0.7647261987271814</v>
       </c>
       <c r="D66">
         <v>0.5830182188042203</v>
@@ -16668,7 +16668,7 @@
         <v>660</v>
       </c>
       <c r="C67">
-        <v>0.7917276807973221</v>
+        <v>0.7917293635302267</v>
       </c>
       <c r="D67">
         <v>0.732182524831141</v>
@@ -16682,7 +16682,7 @@
         <v>664</v>
       </c>
       <c r="C68">
-        <v>0.8708460343476572</v>
+        <v>0.8708460337192996</v>
       </c>
       <c r="D68">
         <v>0.829356929975321</v>
@@ -16696,7 +16696,7 @@
         <v>668</v>
       </c>
       <c r="C69">
-        <v>0.9169121041971285</v>
+        <v>0.916912102291318</v>
       </c>
       <c r="D69">
         <v>0.8772832638143062</v>
@@ -16710,7 +16710,7 @@
         <v>672</v>
       </c>
       <c r="C70">
-        <v>0.9351896235569079</v>
+        <v>0.935189622462386</v>
       </c>
       <c r="D70">
         <v>0.8895571731287569</v>
@@ -16724,7 +16724,7 @@
         <v>676</v>
       </c>
       <c r="C71">
-        <v>0.944217767265449</v>
+        <v>0.944217818504081</v>
       </c>
       <c r="D71">
         <v>0.8860129541666171</v>
@@ -16738,7 +16738,7 @@
         <v>680</v>
       </c>
       <c r="C72">
-        <v>0.9491217978674165</v>
+        <v>0.9491219438716614</v>
       </c>
       <c r="D72">
         <v>0.8710128617447103</v>
@@ -16752,7 +16752,7 @@
         <v>684</v>
       </c>
       <c r="C73">
-        <v>0.9515288190024284</v>
+        <v>0.9515290572849664</v>
       </c>
       <c r="D73">
         <v>0.8448625833333424</v>
@@ -16766,7 +16766,7 @@
         <v>688</v>
       </c>
       <c r="C74">
-        <v>0.9520838083102864</v>
+        <v>0.952084098652891</v>
       </c>
       <c r="D74">
         <v>0.8068978038354612</v>
@@ -16780,7 +16780,7 @@
         <v>692</v>
       </c>
       <c r="C75">
-        <v>0.9510981385074161</v>
+        <v>0.9510984286295887</v>
       </c>
       <c r="D75">
         <v>0.7563953898954039</v>
@@ -16794,7 +16794,7 @@
         <v>696</v>
       </c>
       <c r="C76">
-        <v>0.948761190446223</v>
+        <v>0.9487614387773268</v>
       </c>
       <c r="D76">
         <v>0.6930205941510597</v>
@@ -16808,7 +16808,7 @@
         <v>700</v>
       </c>
       <c r="C77">
-        <v>0.9452201320920878</v>
+        <v>0.9452203182311503</v>
       </c>
       <c r="D77">
         <v>0.6171717073289572</v>
@@ -16822,7 +16822,7 @@
         <v>704</v>
       </c>
       <c r="C78">
-        <v>0.9406118888785476</v>
+        <v>0.9406120123634122</v>
       </c>
       <c r="D78">
         <v>0.530296302416845</v>
@@ -16836,7 +16836,7 @@
         <v>708</v>
       </c>
       <c r="C79">
-        <v>0.9350755449074211</v>
+        <v>0.9350756176636771</v>
       </c>
       <c r="D79">
         <v>0.4351628596160386</v>
@@ -16850,7 +16850,7 @@
         <v>712</v>
       </c>
       <c r="C80">
-        <v>0.9287561482331815</v>
+        <v>0.928756186240224</v>
       </c>
       <c r="D80">
         <v>0.3360248480135473</v>
@@ -16864,7 +16864,7 @@
         <v>716</v>
       </c>
       <c r="C81">
-        <v>0.9218046850036001</v>
+        <v>0.9218047025005129</v>
       </c>
       <c r="D81">
         <v>0.2385859960802617</v>
@@ -16878,7 +16878,7 @@
         <v>720</v>
       </c>
       <c r="C82">
-        <v>0.91437648236007</v>
+        <v>0.914376489386295</v>
       </c>
       <c r="D82">
         <v>0.149672855721576</v>
@@ -16892,7 +16892,7 @@
         <v>724</v>
       </c>
       <c r="C83">
-        <v>0.9066291882033271</v>
+        <v>0.9066291906287141</v>
       </c>
       <c r="D83">
         <v>0.0765611141292334</v>
@@ -16906,7 +16906,7 @@
         <v>728</v>
       </c>
       <c r="C84">
-        <v>0.8987209402230701</v>
+        <v>0.8987209409286513</v>
       </c>
       <c r="D84">
         <v>0.02599575580917286</v>
@@ -16920,7 +16920,7 @@
         <v>732</v>
       </c>
       <c r="C85">
-        <v>0.8908090618365349</v>
+        <v>0.8908090620050697</v>
       </c>
       <c r="D85">
         <v>0.003075461328831261</v>
@@ -16934,7 +16934,7 @@
         <v>736</v>
       </c>
       <c r="C86">
-        <v>0.8830494795588253</v>
+        <v>0.8830494795907663</v>
       </c>
       <c r="D86">
         <v>0.01028372326164407</v>
@@ -16948,7 +16948,7 @@
         <v>740</v>
       </c>
       <c r="C87">
-        <v>0.8755969901227645</v>
+        <v>0.8755969901273556</v>
       </c>
       <c r="D87">
         <v>0.04696857125349682</v>
@@ -16962,7 +16962,7 @@
         <v>744</v>
       </c>
       <c r="C88">
-        <v>0.8686064946628822</v>
+        <v>0.8686064946633535</v>
       </c>
       <c r="D88">
         <v>0.1094568768743256</v>
@@ -16976,7 +16976,7 @@
         <v>748</v>
       </c>
       <c r="C89">
-        <v>0.862235357605614</v>
+        <v>0.8622353576056457</v>
       </c>
       <c r="D89">
         <v>0.1917748960886926</v>
@@ -16990,7 +16990,7 @@
         <v>752</v>
       </c>
       <c r="C90">
-        <v>0.856647150481843</v>
+        <v>0.8566471504818444</v>
       </c>
       <c r="D90">
         <v>0.2867411118396636</v>
@@ -17900,7 +17900,7 @@
         <v>1012</v>
       </c>
       <c r="C155">
-        <v>0.02246177728445542</v>
+        <v>0.02246177728445526</v>
       </c>
       <c r="D155">
         <v>0.2470737521466733</v>
@@ -17914,7 +17914,7 @@
         <v>1016</v>
       </c>
       <c r="C156">
-        <v>0.02326112831517812</v>
+        <v>0.02326112831517216</v>
       </c>
       <c r="D156">
         <v>0.2408796964206383</v>
@@ -17928,7 +17928,7 @@
         <v>1020</v>
       </c>
       <c r="C157">
-        <v>0.02428505693968372</v>
+        <v>0.02428505693956323</v>
       </c>
       <c r="D157">
         <v>0.2348276547064463</v>
@@ -17942,7 +17942,7 @@
         <v>1024</v>
       </c>
       <c r="C158">
-        <v>0.02544216651960183</v>
+        <v>0.02544216651807839</v>
       </c>
       <c r="D158">
         <v>0.22891442585427</v>
@@ -17956,7 +17956,7 @@
         <v>1028</v>
       </c>
       <c r="C159">
-        <v>0.02667023661700033</v>
+        <v>0.0266702366036852</v>
       </c>
       <c r="D159">
         <v>0.2231364586824552</v>
@@ -17970,7 +17970,7 @@
         <v>1032</v>
       </c>
       <c r="C160">
-        <v>0.02792663427756302</v>
+        <v>0.02792663419098012</v>
       </c>
       <c r="D160">
         <v>0.2174900452106181</v>
@@ -17984,7 +17984,7 @@
         <v>1036</v>
       </c>
       <c r="C161">
-        <v>0.02918211396098489</v>
+        <v>0.02918211351840104</v>
       </c>
       <c r="D161">
         <v>0.2119714363575244</v>
@@ -17998,7 +17998,7 @@
         <v>1040</v>
       </c>
       <c r="C162">
-        <v>0.03041671399898313</v>
+        <v>0.03041671214397715</v>
       </c>
       <c r="D162">
         <v>0.2065769125365521</v>
@@ -18012,7 +18012,7 @@
         <v>1044</v>
       </c>
       <c r="C163">
-        <v>0.03161698602334134</v>
+        <v>0.03161697943531838</v>
       </c>
       <c r="D163">
         <v>0.2013028270634428</v>
@@ -18026,7 +18026,7 @@
         <v>1048</v>
       </c>
       <c r="C164">
-        <v>0.03277409215197583</v>
+        <v>0.03277407180392656</v>
       </c>
       <c r="D164">
         <v>0.1961456326794395</v>
@@ -18040,7 +18040,7 @@
         <v>1052</v>
       </c>
       <c r="C165">
-        <v>0.03388247884180331</v>
+        <v>0.03388242303213164</v>
       </c>
       <c r="D165">
         <v>0.1911018973271479</v>
@@ -18054,7 +18054,7 @@
         <v>1056</v>
       </c>
       <c r="C166">
-        <v>0.03493894095379057</v>
+        <v>0.03493880270310336</v>
       </c>
       <c r="D166">
         <v>0.1861683129490398</v>
@@ -18068,7 +18068,7 @@
         <v>1060</v>
       </c>
       <c r="C167">
-        <v>0.03594195410040098</v>
+        <v>0.03594164046593395</v>
       </c>
       <c r="D167">
         <v>0.1813416996875176</v>
@@ -18082,7 +18082,7 @@
         <v>1064</v>
       </c>
       <c r="C168">
-        <v>0.03689119405862297</v>
+        <v>0.03689053493543962</v>
       </c>
       <c r="D168">
         <v>0.1766190070235634</v>
@@ -18096,7 +18096,7 @@
         <v>1068</v>
       </c>
       <c r="C169">
-        <v>0.03778718825252309</v>
+        <v>0.03778589269196054</v>
       </c>
       <c r="D169">
         <v>0.171997312867725</v>
@@ -18110,7 +18110,7 @@
         <v>1072</v>
       </c>
       <c r="C170">
-        <v>0.03863106151056653</v>
+        <v>0.03862866048491086</v>
       </c>
       <c r="D170">
         <v>0.1674738212841062</v>
@@ -18124,7 +18124,7 @@
         <v>1076</v>
       </c>
       <c r="C171">
-        <v>0.03942434977663247</v>
+        <v>0.03942012555183406</v>
       </c>
       <c r="D171">
         <v>0.1630458593113966</v>
@@ -18138,7 +18138,7 @@
         <v>1080</v>
       </c>
       <c r="C172">
-        <v>0.04016886322309888</v>
+        <v>0.04016176689987621</v>
       </c>
       <c r="D172">
         <v>0.1587108732013337</v>
@@ -18152,7 +18152,7 @@
         <v>1084</v>
       </c>
       <c r="C173">
-        <v>0.04086658554811901</v>
+        <v>0.04085514570363336</v>
       </c>
       <c r="D173">
         <v>0.1544664242980488</v>
@@ -18166,7 +18166,7 @@
         <v>1088</v>
       </c>
       <c r="C174">
-        <v>0.04151959994685188</v>
+        <v>0.04150182647820185</v>
       </c>
       <c r="D174">
         <v>0.1503101847153122</v>
@@ -18180,7 +18180,7 @@
         <v>1092</v>
       </c>
       <c r="C175">
-        <v>0.04213003485332324</v>
+        <v>0.04210332295943522</v>
       </c>
       <c r="D175">
         <v>0.1462399329224968</v>
@@ -18194,7 +18194,7 @@
         <v>1096</v>
       </c>
       <c r="C176">
-        <v>0.04270002440181128</v>
+        <v>0.04266106406971164</v>
       </c>
       <c r="D176">
         <v>0.1422535493175708</v>
@@ -18208,7 +18208,7 @@
         <v>1100</v>
       </c>
       <c r="C177">
-        <v>0.04323167988532471</v>
+        <v>0.04317637625684639</v>
       </c>
       <c r="D177">
         <v>0.1383490118422936</v>
@@ -18222,7 +18222,7 @@
         <v>1104</v>
       </c>
       <c r="C178">
-        <v>0.0437270694502765</v>
+        <v>0.04365047907152666</v>
       </c>
       <c r="D178">
         <v>0.1345243916781716</v>
@@ -18236,7 +18236,7 @@
         <v>1108</v>
       </c>
       <c r="C179">
-        <v>0.04418820396792808</v>
+        <v>0.04408449123605591</v>
       </c>
       <c r="D179">
         <v>0.1307778490496951</v>
@@ -18250,7 +18250,7 @@
         <v>1112</v>
       </c>
       <c r="C180">
-        <v>0.04461702753872479</v>
+        <v>0.04447944474685324</v>
       </c>
       <c r="D180">
         <v>0.1271076291526205</v>
@@ -18264,7 +18264,7 @@
         <v>1116</v>
       </c>
       <c r="C181">
-        <v>0.04501541146711462</v>
+        <v>0.04483630480146011</v>
       </c>
       <c r="D181">
         <v>0.1235120582186421</v>
@@ -18278,7 +18278,7 @@
         <v>1120</v>
       </c>
       <c r="C182">
-        <v>0.0453851508284778</v>
+        <v>0.04515599357838983</v>
       </c>
       <c r="D182">
         <v>0.1199895397230921</v>
@@ -18292,7 +18292,7 @@
         <v>1124</v>
       </c>
       <c r="C183">
-        <v>0.04572796296243439</v>
+        <v>0.04543941613817457</v>
       </c>
       <c r="D183">
         <v>0.1165385507388599</v>
@@ -18306,7 +18306,7 @@
         <v>1128</v>
       </c>
       <c r="C184">
-        <v>0.04604548738686618</v>
+        <v>0.04568748695890117</v>
       </c>
       <c r="D184">
         <v>0.1131576384371829</v>
@@ -18320,7 +18320,7 @@
         <v>1132</v>
       </c>
       <c r="C185">
-        <v>0.04633928674797141</v>
+        <v>0.04590115586572137</v>
       </c>
       <c r="D185">
         <v>0.1098454167341276</v>
@@ -18334,7 +18334,7 @@
         <v>1136</v>
       </c>
       <c r="C186">
-        <v>0.04661084851354624</v>
+        <v>0.04608143235520818</v>
       </c>
       <c r="D186">
         <v>0.1066005630802393</v>
@@ -18348,7 +18348,7 @@
         <v>1140</v>
       </c>
       <c r="C187">
-        <v>0.04686158718666918</v>
+        <v>0.04622940754539242</v>
       </c>
       <c r="D187">
         <v>0.1034218153899052</v>
@@ -18362,7 +18362,7 @@
         <v>1144</v>
       </c>
       <c r="C188">
-        <v>0.04709284687046377</v>
+        <v>0.04634627319517535</v>
       </c>
       <c r="D188">
         <v>0.1003079691063118</v>
@@ -18376,7 +18376,7 @@
         <v>1148</v>
       </c>
       <c r="C189">
-        <v>0.04730590405560544</v>
+        <v>0.04643333742828463</v>
       </c>
       <c r="D189">
         <v>0.09725787439744978</v>
@@ -18390,7 +18390,7 @@
         <v>1152</v>
       </c>
       <c r="C190">
-        <v>0.04750197053372804</v>
+        <v>0.04649203696438069</v>
       </c>
       <c r="D190">
         <v>0.09427043347834377</v>
@@ -18404,7 +18404,7 @@
         <v>1156</v>
       </c>
       <c r="C191">
-        <v>0.04768219636409222</v>
+        <v>0.04652394580215095</v>
       </c>
       <c r="D191">
         <v>0.09134459805454045</v>
@@ -18418,7 +18418,7 @@
         <v>1160</v>
       </c>
       <c r="C192">
-        <v>0.04784767283953809</v>
+        <v>0.04653078041641943</v>
       </c>
       <c r="D192">
         <v>0.08847936688184092</v>
@@ -18432,7 +18432,7 @@
         <v>1164</v>
       </c>
       <c r="C193">
-        <v>0.04799943541211338</v>
+        <v>0.0465144016245322</v>
       </c>
       <c r="D193">
         <v>0.08567378343727386</v>
@@ -18446,7 +18446,7 @@
         <v>1168</v>
       </c>
       <c r="C194">
-        <v>0.04813846654983572</v>
+        <v>0.0464768133483846</v>
       </c>
       <c r="D194">
         <v>0.08292693369638399</v>
@@ -18460,7 +18460,7 @@
         <v>1172</v>
       </c>
       <c r="C195">
-        <v>0.04826569850458699</v>
+        <v>0.04642015854972339</v>
       </c>
       <c r="D195">
         <v>0.08023794401201383</v>
@@ -18474,7 +18474,7 @@
         <v>1176</v>
       </c>
       <c r="C196">
-        <v>0.0483820159776898</v>
+        <v>0.04634671265024499</v>
       </c>
       <c r="D196">
         <v>0.07760597908989589</v>
@@ -18488,7 +18488,7 @@
         <v>1180</v>
       </c>
       <c r="C197">
-        <v>0.0484882586747559</v>
+        <v>0.0462588747671103</v>
       </c>
       <c r="D197">
         <v>0.07503024005652148</v>
@@ -18502,7 +18502,7 @@
         <v>1184</v>
       </c>
       <c r="C198">
-        <v>0.04858522374523924</v>
+        <v>0.04615915710127556</v>
       </c>
       <c r="D198">
         <v>0.07250996261492884</v>
@@ -18516,7 +18516,7 @@
         <v>1188</v>
       </c>
       <c r="C199">
-        <v>0.04867366810507158</v>
+        <v>0.04605017281287744</v>
       </c>
       <c r="D199">
         <v>0.07004441528421557</v>
@@ -18530,7 +18530,7 @@
         <v>1192</v>
       </c>
       <c r="C200">
-        <v>0.04875431064294377</v>
+        <v>0.04593462270688354</v>
       </c>
       <c r="D200">
         <v>0.06763289771877216</v>
@@ -18544,7 +18544,7 @@
         <v>1196</v>
       </c>
       <c r="C201">
-        <v>0.04882783431246562</v>
+        <v>0.04581528103532027</v>
       </c>
       <c r="D201">
         <v>0.06527473910340117</v>
@@ -18558,7 +18558,7 @@
         <v>1200</v>
       </c>
       <c r="C202">
-        <v>0.048894888113615</v>
+        <v>0.04569498070117828</v>
       </c>
       <c r="D202">
         <v>0.06296929662067247</v>
@@ -18596,7 +18596,7 @@
         <v>400</v>
       </c>
       <c r="C2">
-        <v>0.2866377086374666</v>
+        <v>0.1704716097734961</v>
       </c>
       <c r="D2">
         <v>0.2908302903422795</v>
@@ -18610,7 +18610,7 @@
         <v>404</v>
       </c>
       <c r="C3">
-        <v>0.2877334900879974</v>
+        <v>0.1753114067534706</v>
       </c>
       <c r="D3">
         <v>0.2914248050869335</v>
@@ -18624,7 +18624,7 @@
         <v>408</v>
       </c>
       <c r="C4">
-        <v>0.2889009831747001</v>
+        <v>0.1802515857269169</v>
       </c>
       <c r="D4">
         <v>0.2920793045032836</v>
@@ -18638,7 +18638,7 @@
         <v>412</v>
       </c>
       <c r="C5">
-        <v>0.2901429915110369</v>
+        <v>0.1852901004656573</v>
       </c>
       <c r="D5">
         <v>0.2927972774278877</v>
@@ -18652,7 +18652,7 @@
         <v>416</v>
       </c>
       <c r="C6">
-        <v>0.291462525140031</v>
+        <v>0.1904250089982351</v>
       </c>
       <c r="D6">
         <v>0.293582412513033</v>
@@ -18666,7 +18666,7 @@
         <v>420</v>
       </c>
       <c r="C7">
-        <v>0.2928628139353192</v>
+        <v>0.1956544876933418</v>
       </c>
       <c r="D7">
         <v>0.2944386110507012</v>
@@ -18680,7 +18680,7 @@
         <v>424</v>
       </c>
       <c r="C8">
-        <v>0.2943473214683444</v>
+        <v>0.2009768460857248</v>
       </c>
       <c r="D8">
         <v>0.2953700006790601</v>
@@ -18694,7 +18694,7 @@
         <v>428</v>
       </c>
       <c r="C9">
-        <v>0.2959197593362123</v>
+        <v>0.20639054249833</v>
       </c>
       <c r="D9">
         <v>0.296380950031032</v>
@@ -18708,7 +18708,7 @@
         <v>432</v>
       </c>
       <c r="C10">
-        <v>0.2975841019398559</v>
+        <v>0.2118942005158706</v>
       </c>
       <c r="D10">
         <v>0.2974760843874588</v>
@@ -18722,7 +18722,7 @@
         <v>436</v>
       </c>
       <c r="C11">
-        <v>0.299344601695442</v>
+        <v>0.2174866263652818</v>
       </c>
       <c r="D11">
         <v>0.2986603024001596</v>
@@ -18736,7 +18736,7 @@
         <v>440</v>
       </c>
       <c r="C12">
-        <v>0.3012058046529828</v>
+        <v>0.2231668272572803</v>
       </c>
       <c r="D12">
         <v>0.2999387939527052</v>
@@ -18750,7 +18750,7 @@
         <v>444</v>
       </c>
       <c r="C13">
-        <v>0.3031725664842763</v>
+        <v>0.2289340307400007</v>
       </c>
       <c r="D13">
         <v>0.3013170592288471</v>
@@ -18764,7 +18764,7 @@
         <v>448</v>
       </c>
       <c r="C14">
-        <v>0.3052500687869174</v>
+        <v>0.2347877051098315</v>
       </c>
       <c r="D14">
         <v>0.3028009290600809</v>
@@ -18778,7 +18778,7 @@
         <v>452</v>
       </c>
       <c r="C15">
-        <v>0.3074438356313212</v>
+        <v>0.240727580915347</v>
       </c>
       <c r="D15">
         <v>0.3043965866245733</v>
@@ -18792,7 +18792,7 @@
         <v>456</v>
       </c>
       <c r="C16">
-        <v>0.3097597502524913</v>
+        <v>0.2467536735767269</v>
       </c>
       <c r="D16">
         <v>0.3061105905693663</v>
@@ -18806,7 +18806,7 @@
         <v>460</v>
       </c>
       <c r="C17">
-        <v>0.3122040717564037</v>
+        <v>0.2528663071240861</v>
       </c>
       <c r="D17">
         <v>0.3079498996260549</v>
@@ -18820,7 +18820,7 @@
         <v>464</v>
       </c>
       <c r="C18">
-        <v>0.3147834516708531</v>
+        <v>0.259066139032243</v>
       </c>
       <c r="D18">
         <v>0.309921898786554</v>
@@ -18834,7 +18834,7 @@
         <v>468</v>
       </c>
       <c r="C19">
-        <v>0.317504950120701</v>
+        <v>0.2653541860949007</v>
       </c>
       <c r="D19">
         <v>0.3120344270996362</v>
@@ -18848,7 +18848,7 @@
         <v>472</v>
       </c>
       <c r="C20">
-        <v>0.3203760513454479</v>
+        <v>0.2717318512357395</v>
       </c>
       <c r="D20">
         <v>0.3142958071399033</v>
@@ -18862,7 +18862,7 @@
         <v>476</v>
       </c>
       <c r="C21">
-        <v>0.3234046782003834</v>
+        <v>0.2782009510947985</v>
       </c>
       <c r="D21">
         <v>0.3167148761879323</v>
@@ -18876,7 +18876,7 @@
         <v>480</v>
       </c>
       <c r="C22">
-        <v>0.32659920518812</v>
+        <v>0.2847637441524346</v>
       </c>
       <c r="D22">
         <v>0.3193010191424656</v>
@@ -18890,7 +18890,7 @@
         <v>484</v>
       </c>
       <c r="C23">
-        <v>0.3299684694512913</v>
+        <v>0.2914229590558454</v>
       </c>
       <c r="D23">
         <v>0.3220642031613336</v>
@@ -18904,7 +18904,7 @@
         <v>488</v>
       </c>
       <c r="C24">
-        <v>0.3335217790150776</v>
+        <v>0.2981818226895934</v>
       </c>
       <c r="D24">
         <v>0.3250150139957002</v>
@@ -18918,7 +18918,7 @@
         <v>492</v>
       </c>
       <c r="C25">
-        <v>0.3372689173944541</v>
+        <v>0.3050440873753751</v>
       </c>
       <c r="D25">
         <v>0.3281646939401237</v>
@@ -18932,7 +18932,7 @@
         <v>496</v>
       </c>
       <c r="C26">
-        <v>0.3412201434689677</v>
+        <v>0.31201405638971</v>
       </c>
       <c r="D26">
         <v>0.3315251812662726</v>
@@ -18946,7 +18946,7 @@
         <v>500</v>
       </c>
       <c r="C27">
-        <v>0.3453861852692375</v>
+        <v>0.3190966067416343</v>
       </c>
       <c r="D27">
         <v>0.3351091509376929</v>
@@ -18960,7 +18960,7 @@
         <v>504</v>
       </c>
       <c r="C28">
-        <v>0.3497782260042474</v>
+        <v>0.3262972078440144</v>
       </c>
       <c r="D28">
         <v>0.3389300563127983</v>
@@ -18974,7 +18974,7 @@
         <v>508</v>
       </c>
       <c r="C29">
-        <v>0.3544078802745322</v>
+        <v>0.3336219343270823</v>
       </c>
       <c r="D29">
         <v>0.3430021714281765</v>
@@ -18988,7 +18988,7 @@
         <v>512</v>
       </c>
       <c r="C30">
-        <v>0.3592871579482692</v>
+        <v>0.3410774707629821</v>
       </c>
       <c r="D30">
         <v>0.3473406333080772</v>
@@ -19002,7 +19002,7 @@
         <v>516</v>
       </c>
       <c r="C31">
-        <v>0.3644284126060137</v>
+        <v>0.3486711054728518</v>
       </c>
       <c r="D31">
         <v>0.35196148356059</v>
@@ -19016,7 +19016,7 @@
         <v>520</v>
       </c>
       <c r="C32">
-        <v>0.3698442707612357</v>
+        <v>0.3564107098447468</v>
       </c>
       <c r="D32">
         <v>0.3568817082865248</v>
@@ -19030,7 +19030,7 @@
         <v>524</v>
       </c>
       <c r="C33">
-        <v>0.3755475372072543</v>
+        <v>0.3643046986657289</v>
       </c>
       <c r="D33">
         <v>0.3621192750306825</v>
@@ -19044,7 +19044,7 @@
         <v>528</v>
       </c>
       <c r="C34">
-        <v>0.3815510707867985</v>
+        <v>0.3723619658188981</v>
       </c>
       <c r="D34">
         <v>0.3676931651309708</v>
@@ -19058,7 +19058,7 @@
         <v>532</v>
       </c>
       <c r="C35">
-        <v>0.387867623576108</v>
+        <v>0.3805917882571789</v>
       </c>
       <c r="D35">
         <v>0.3736233993481705</v>
@@ -19072,7 +19072,7 @@
         <v>536</v>
       </c>
       <c r="C36">
-        <v>0.3945096348514487</v>
+        <v>0.389003689363167</v>
       </c>
       <c r="D36">
         <v>0.379931054061891</v>
@@ -19086,7 +19086,7 @@
         <v>540</v>
       </c>
       <c r="C37">
-        <v>0.4014889691673547</v>
+        <v>0.3976072505358376</v>
       </c>
       <c r="D37">
         <v>0.3866382645625251</v>
@@ -19100,7 +19100,7 @@
         <v>544</v>
       </c>
       <c r="C38">
-        <v>0.4088165852914021</v>
+        <v>0.4064118569714729</v>
       </c>
       <c r="D38">
         <v>0.3937682110110863</v>
@@ -19114,7 +19114,7 @@
         <v>548</v>
       </c>
       <c r="C39">
-        <v>0.4165021194240385</v>
+        <v>0.4154263599352911</v>
       </c>
       <c r="D39">
         <v>0.4013450814212951</v>
@@ -19128,7 +19128,7 @@
         <v>552</v>
       </c>
       <c r="C40">
-        <v>0.4245533618162192</v>
+        <v>0.4246586330795309</v>
       </c>
       <c r="D40">
         <v>0.4093940044655716</v>
@@ -19142,7 +19142,7 @@
         <v>556</v>
       </c>
       <c r="C41">
-        <v>0.4329756001889301</v>
+        <v>0.4341149941583083</v>
       </c>
       <c r="D41">
         <v>0.4179409429174258</v>
@@ -19156,7 +19156,7 @@
         <v>560</v>
       </c>
       <c r="C42">
-        <v>0.4417707956684818</v>
+        <v>0.443799455234535</v>
       </c>
       <c r="D42">
         <v>0.4270125359799749</v>
@@ -19170,7 +19170,7 @@
         <v>564</v>
       </c>
       <c r="C43">
-        <v>0.4509365463833819</v>
+        <v>0.4537127532841811</v>
       </c>
       <c r="D43">
         <v>0.4366358754248568</v>
@@ -19184,7 +19184,7 @@
         <v>568</v>
       </c>
       <c r="C44">
-        <v>0.4604647790340974</v>
+        <v>0.4638510976102292</v>
       </c>
       <c r="D44">
         <v>0.4468381961119708</v>
@@ -19198,7 +19198,7 @@
         <v>572</v>
       </c>
       <c r="C45">
-        <v>0.4703400874605461</v>
+        <v>0.4742045485294932</v>
       </c>
       <c r="D45">
         <v>0.4576464556968271</v>
@@ -19212,7 +19212,7 @@
         <v>576</v>
       </c>
       <c r="C46">
-        <v>0.4805376059974976</v>
+        <v>0.4847549099387852</v>
       </c>
       <c r="D46">
         <v>0.4690867705974859</v>
@@ -19226,7 +19226,7 @@
         <v>580</v>
       </c>
       <c r="C47">
-        <v>0.4910202585442613</v>
+        <v>0.4954729709776352</v>
       </c>
       <c r="D47">
         <v>0.4811836647384906</v>
@@ -19240,7 +19240,7 @@
         <v>584</v>
       </c>
       <c r="C48">
-        <v>0.5017351524034066</v>
+        <v>0.5063148597637896</v>
       </c>
       <c r="D48">
         <v>0.4939590728937805</v>
@@ -19254,7 +19254,7 @@
         <v>588</v>
       </c>
       <c r="C49">
-        <v>0.51260877333346</v>
+        <v>0.517217159399269</v>
       </c>
       <c r="D49">
         <v>0.5074310194926447</v>
@@ -19268,7 +19268,7 @@
         <v>592</v>
       </c>
       <c r="C50">
-        <v>0.52354045811296</v>
+        <v>0.5280902563177131</v>
       </c>
       <c r="D50">
         <v>0.5216118630108206</v>
@@ -19282,7 +19282,7 @@
         <v>596</v>
       </c>
       <c r="C51">
-        <v>0.5343933268990939</v>
+        <v>0.5388090970845327</v>
       </c>
       <c r="D51">
         <v>0.5365059494942187</v>
@@ -19296,7 +19296,7 @@
         <v>600</v>
       </c>
       <c r="C52">
-        <v>0.5449813687465828</v>
+        <v>0.5492000404498087</v>
       </c>
       <c r="D52">
         <v>0.5521064455866417</v>
@@ -19310,7 +19310,7 @@
         <v>604</v>
       </c>
       <c r="C53">
-        <v>0.5550505473765366</v>
+        <v>0.5590216631152025</v>
       </c>
       <c r="D53">
         <v>0.568391001749235</v>
@@ -19324,7 +19324,7 @@
         <v>608</v>
       </c>
       <c r="C54">
-        <v>0.5642503829283229</v>
+        <v>0.5679359596944663</v>
       </c>
       <c r="D54">
         <v>0.5853156918767556</v>
@@ -19338,7 +19338,7 @@
         <v>612</v>
       </c>
       <c r="C55">
-        <v>0.5720900596360388</v>
+        <v>0.5754639535402475</v>
       </c>
       <c r="D55">
         <v>0.6028063093531965</v>
@@ -19352,7 +19352,7 @@
         <v>616</v>
       </c>
       <c r="C56">
-        <v>0.5778691451959009</v>
+        <v>0.5809157250942036</v>
       </c>
       <c r="D56">
         <v>0.620745409994037</v>
@@ -19366,7 +19366,7 @@
         <v>620</v>
       </c>
       <c r="C57">
-        <v>0.5805672837478836</v>
+        <v>0.5832790263914535</v>
       </c>
       <c r="D57">
         <v>0.6389521208583989</v>
@@ -19380,7 +19380,7 @@
         <v>624</v>
       </c>
       <c r="C58">
-        <v>0.5786731885712346</v>
+        <v>0.5810463320466792</v>
       </c>
       <c r="D58">
         <v>0.6571488387026655</v>
@@ -19394,7 +19394,7 @@
         <v>628</v>
       </c>
       <c r="C59">
-        <v>0.5699551248663861</v>
+        <v>0.5719813667371078</v>
       </c>
       <c r="D59">
         <v>0.6749024111515675</v>
@@ -19408,7 +19408,7 @@
         <v>632</v>
       </c>
       <c r="C60">
-        <v>0.5513520428289203</v>
+        <v>0.5530018070654849</v>
       </c>
       <c r="D60">
         <v>0.6915115238089322</v>
@@ -19422,7 +19422,7 @@
         <v>636</v>
       </c>
       <c r="C61">
-        <v>0.5201122495145906</v>
+        <v>0.5213029161541337</v>
       </c>
       <c r="D61">
         <v>0.7057701063225414</v>
@@ -19436,7 +19436,7 @@
         <v>640</v>
       </c>
       <c r="C62">
-        <v>0.4812381363942909</v>
+        <v>0.4818059608446518</v>
       </c>
       <c r="D62">
         <v>0.7154157530100828</v>
@@ -19450,7 +19450,7 @@
         <v>644</v>
       </c>
       <c r="C63">
-        <v>0.4719279230924094</v>
+        <v>0.4717946432985708</v>
       </c>
       <c r="D63">
         <v>0.71570048533171</v>
@@ -19464,7 +19464,7 @@
         <v>648</v>
       </c>
       <c r="C64">
-        <v>0.5592261424850377</v>
+        <v>0.5588742821269838</v>
       </c>
       <c r="D64">
         <v>0.6955269654926156</v>
@@ -19478,7 +19478,7 @@
         <v>652</v>
       </c>
       <c r="C65">
-        <v>0.6981815257700114</v>
+        <v>0.698056885670715</v>
       </c>
       <c r="D65">
         <v>0.6328056474825572</v>
@@ -19492,7 +19492,7 @@
         <v>656</v>
       </c>
       <c r="C66">
-        <v>0.7679639601953984</v>
+        <v>0.7679648076734794</v>
       </c>
       <c r="D66">
         <v>0.5878063513942102</v>
@@ -19506,7 +19506,7 @@
         <v>660</v>
       </c>
       <c r="C67">
-        <v>0.7946356674701527</v>
+        <v>0.7946373437499958</v>
       </c>
       <c r="D67">
         <v>0.7356879571122947</v>
@@ -19520,7 +19520,7 @@
         <v>664</v>
       </c>
       <c r="C68">
-        <v>0.8727418155889646</v>
+        <v>0.872741814963745</v>
       </c>
       <c r="D68">
         <v>0.8317273882873253</v>
@@ -19534,7 +19534,7 @@
         <v>668</v>
       </c>
       <c r="C69">
-        <v>0.9181669757000739</v>
+        <v>0.9181669738057134</v>
       </c>
       <c r="D69">
         <v>0.8790200424546765</v>
@@ -19548,7 +19548,7 @@
         <v>672</v>
       </c>
       <c r="C70">
-        <v>0.9361811456190364</v>
+        <v>0.9361811445437355</v>
       </c>
       <c r="D70">
         <v>0.8911111364763497</v>
@@ -19562,7 +19562,7 @@
         <v>676</v>
       </c>
       <c r="C71">
-        <v>0.9450778562279781</v>
+        <v>0.9450779071741238</v>
       </c>
       <c r="D71">
         <v>0.8875878781791413</v>
@@ -19576,7 +19576,7 @@
         <v>680</v>
       </c>
       <c r="C72">
-        <v>0.9499104598053544</v>
+        <v>0.949910604932895</v>
       </c>
       <c r="D72">
         <v>0.8727427984376793</v>
@@ -19590,7 +19590,7 @@
         <v>684</v>
       </c>
       <c r="C73">
-        <v>0.9522827014727341</v>
+        <v>0.9522829383191866</v>
       </c>
       <c r="D73">
         <v>0.8468536861497759</v>
@@ -19604,7 +19604,7 @@
         <v>688</v>
       </c>
       <c r="C74">
-        <v>0.9528300140216533</v>
+        <v>0.9528303026393131</v>
       </c>
       <c r="D74">
         <v>0.8092271252420916</v>
@@ -19618,7 +19618,7 @@
         <v>692</v>
       </c>
       <c r="C75">
-        <v>0.9518588662264282</v>
+        <v>0.9518591546694297</v>
       </c>
       <c r="D75">
         <v>0.7590959333296127</v>
@@ -19632,7 +19632,7 @@
         <v>696</v>
       </c>
       <c r="C76">
-        <v>0.9495553729438044</v>
+        <v>0.949555619887991</v>
       </c>
       <c r="D76">
         <v>0.696062092501591</v>
@@ -19646,7 +19646,7 @@
         <v>700</v>
       </c>
       <c r="C77">
-        <v>0.9460639683437909</v>
+        <v>0.9460641534882253</v>
       </c>
       <c r="D77">
         <v>0.620444232209975</v>
@@ -19660,7 +19660,7 @@
         <v>704</v>
       </c>
       <c r="C78">
-        <v>0.9415189668864075</v>
+        <v>0.941519089745</v>
       </c>
       <c r="D78">
         <v>0.5336049950057279</v>
@@ -19674,7 +19674,7 @@
         <v>708</v>
       </c>
       <c r="C79">
-        <v>0.9360568398426882</v>
+        <v>0.9360569122514117</v>
       </c>
       <c r="D79">
         <v>0.4382428357613097</v>
@@ -19688,7 +19688,7 @@
         <v>712</v>
       </c>
       <c r="C80">
-        <v>0.9298200167002127</v>
+        <v>0.9298200545375446</v>
       </c>
       <c r="D80">
         <v>0.3385830511192511</v>
@@ -19702,7 +19702,7 @@
         <v>716</v>
       </c>
       <c r="C81">
-        <v>0.9229569030976518</v>
+        <v>0.9229569205220578</v>
       </c>
       <c r="D81">
         <v>0.2403694110153742</v>
@@ -19716,7 +19716,7 @@
         <v>720</v>
       </c>
       <c r="C82">
-        <v>0.9156203399047075</v>
+        <v>0.9156203469040956</v>
       </c>
       <c r="D82">
         <v>0.1505500347330103</v>
@@ -19730,7 +19730,7 @@
         <v>724</v>
       </c>
       <c r="C83">
-        <v>0.907965633997279</v>
+        <v>0.9079656364141798</v>
       </c>
       <c r="D83">
         <v>0.07659046900304538</v>
@@ -19744,7 +19744,7 @@
         <v>728</v>
       </c>
       <c r="C84">
-        <v>0.9001487647609224</v>
+        <v>0.9001487654642532</v>
       </c>
       <c r="D84">
         <v>0.02544804745564054</v>
@@ -19758,7 +19758,7 @@
         <v>732</v>
       </c>
       <c r="C85">
-        <v>0.8923251006898094</v>
+        <v>0.8923251008578557</v>
       </c>
       <c r="D85">
         <v>0.002388175891475339</v>
@@ -19772,7 +19772,7 @@
         <v>736</v>
       </c>
       <c r="C86">
-        <v>0.8846488201495455</v>
+        <v>0.8846488201814022</v>
       </c>
       <c r="D86">
         <v>0.009952395607397316</v>
@@ -19786,7 +19786,7 @@
         <v>740</v>
       </c>
       <c r="C87">
-        <v>0.8772731655569096</v>
+        <v>0.8772731655614897</v>
       </c>
       <c r="D87">
         <v>0.04741183218026831</v>
@@ -19800,7 +19800,7 @@
         <v>744</v>
       </c>
       <c r="C88">
-        <v>0.8703516495894953</v>
+        <v>0.8703516495899655</v>
       </c>
       <c r="D88">
         <v>0.1109075709277349</v>
@@ -19814,7 +19814,7 @@
         <v>748</v>
       </c>
       <c r="C89">
-        <v>0.8640403718908319</v>
+        <v>0.8640403718908637</v>
       </c>
       <c r="D89">
         <v>0.1942370878393476</v>
@@ -19828,7 +19828,7 @@
         <v>752</v>
       </c>
       <c r="C90">
-        <v>0.858501706011051</v>
+        <v>0.8585017060110524</v>
       </c>
       <c r="D90">
         <v>0.2900201796377162</v>
@@ -20738,7 +20738,7 @@
         <v>1012</v>
       </c>
       <c r="C155">
-        <v>0.02350485658941277</v>
+        <v>0.0235048565894126</v>
       </c>
       <c r="D155">
         <v>0.2516166873424046</v>
@@ -20752,7 +20752,7 @@
         <v>1016</v>
       </c>
       <c r="C156">
-        <v>0.02434221013941322</v>
+        <v>0.02434221013940684</v>
       </c>
       <c r="D156">
         <v>0.2452881488720108</v>
@@ -20766,7 +20766,7 @@
         <v>1020</v>
       </c>
       <c r="C157">
-        <v>0.02541283220946937</v>
+        <v>0.02541283220934066</v>
       </c>
       <c r="D157">
         <v>0.2391122703490948</v>
@@ -20780,7 +20780,7 @@
         <v>1024</v>
       </c>
       <c r="C158">
-        <v>0.0266206583602564</v>
+        <v>0.0266206583586339</v>
       </c>
       <c r="D158">
         <v>0.2330836739282821</v>
@@ -20794,7 +20794,7 @@
         <v>1028</v>
       </c>
       <c r="C159">
-        <v>0.02790063366608094</v>
+        <v>0.02790063365193714</v>
       </c>
       <c r="D159">
         <v>0.2271972468246722</v>
@@ -20808,7 +20808,7 @@
         <v>1032</v>
       </c>
       <c r="C160">
-        <v>0.02920840871106728</v>
+        <v>0.02920840861930975</v>
       </c>
       <c r="D160">
         <v>0.2214481283849455</v>
@@ -20822,7 +20822,7 @@
         <v>1036</v>
       </c>
       <c r="C161">
-        <v>0.03051371597996109</v>
+        <v>0.03051371551189733</v>
       </c>
       <c r="D161">
         <v>0.2158316976791053</v>
@@ -20836,7 +20836,7 @@
         <v>1040</v>
       </c>
       <c r="C162">
-        <v>0.03179600892953449</v>
+        <v>0.03179600697136634</v>
       </c>
       <c r="D162">
         <v>0.2103435616163656</v>
@@ -20850,7 +20850,7 @@
         <v>1044</v>
       </c>
       <c r="C163">
-        <v>0.03304153159950191</v>
+        <v>0.033041524656662</v>
       </c>
       <c r="D163">
         <v>0.204979543582849</v>
@@ -20864,7 +20864,7 @@
         <v>1048</v>
       </c>
       <c r="C164">
-        <v>0.03424131479711209</v>
+        <v>0.0342412933853056</v>
       </c>
       <c r="D164">
         <v>0.1997356725942054</v>
@@ -20878,7 +20878,7 @@
         <v>1052</v>
       </c>
       <c r="C165">
-        <v>0.03538978520841193</v>
+        <v>0.0353897265608111</v>
       </c>
       <c r="D165">
         <v>0.1946081729527424</v>
@@ -20892,7 +20892,7 @@
         <v>1056</v>
       </c>
       <c r="C166">
-        <v>0.03648378751080004</v>
+        <v>0.03648364240919648</v>
       </c>
       <c r="D166">
         <v>0.1895934543960076</v>
@@ -20906,7 +20906,7 @@
         <v>1060</v>
       </c>
       <c r="C167">
-        <v>0.03752188932862176</v>
+        <v>0.03752156052241827</v>
       </c>
       <c r="D167">
         <v>0.1846881027218039</v>
@@ -20920,7 +20920,7 @@
         <v>1064</v>
       </c>
       <c r="C168">
-        <v>0.03850388268827372</v>
+        <v>0.03850319239191616</v>
       </c>
       <c r="D168">
         <v>0.1798888708732262</v>
@@ -20934,7 +20934,7 @@
         <v>1068</v>
       </c>
       <c r="C169">
-        <v>0.03943042372655656</v>
+        <v>0.03942906817486662</v>
       </c>
       <c r="D169">
         <v>0.1751926704663909</v>
@@ -20948,7 +20948,7 @@
         <v>1072</v>
       </c>
       <c r="C170">
-        <v>0.04030277076530146</v>
+        <v>0.04030026074668033</v>
       </c>
       <c r="D170">
         <v>0.1705965637429578</v>
@@ -20962,7 +20962,7 @@
         <v>1076</v>
       </c>
       <c r="C171">
-        <v>0.04112259306629471</v>
+        <v>0.04111818063707155</v>
       </c>
       <c r="D171">
         <v>0.166097755929292</v>
@@ -20976,7 +20976,7 @@
         <v>1080</v>
       </c>
       <c r="C172">
-        <v>0.04189183081410405</v>
+        <v>0.04188442384725821</v>
       </c>
       <c r="D172">
         <v>0.1616935879840876</v>
@@ -20990,7 +20990,7 @@
         <v>1084</v>
       </c>
       <c r="C173">
-        <v>0.04261259250851757</v>
+        <v>0.04260066014691175</v>
       </c>
       <c r="D173">
         <v>0.1573815297164313</v>
@@ -21004,7 +21004,7 @@
         <v>1088</v>
       </c>
       <c r="C174">
-        <v>0.04328707985282072</v>
+        <v>0.04326855313923062</v>
       </c>
       <c r="D174">
         <v>0.1531591732565928</v>
@@ -21018,7 +21018,7 @@
         <v>1092</v>
       </c>
       <c r="C175">
-        <v>0.04391753296154674</v>
+        <v>0.04388970577090193</v>
       </c>
       <c r="D175">
         <v>0.1490242268622429</v>
@@ -21032,7 +21032,7 @@
         <v>1096</v>
       </c>
       <c r="C176">
-        <v>0.04450619065089156</v>
+        <v>0.04446562648125166</v>
       </c>
       <c r="D176">
         <v>0.1449745090432964</v>
@@ -21046,7 +21046,7 @@
         <v>1100</v>
       </c>
       <c r="C177">
-        <v>0.04505526196265633</v>
+        <v>0.04499771213838032</v>
       </c>
       <c r="D177">
         <v>0.1410079429891384</v>
@@ -21060,7 +21060,7 @@
         <v>1104</v>
       </c>
       <c r="C178">
-        <v>0.04556690607424564</v>
+        <v>0.04548724451586283</v>
       </c>
       <c r="D178">
         <v>0.1371225512825905</v>
@@ -21074,7 +21074,7 @@
         <v>1108</v>
       </c>
       <c r="C179">
-        <v>0.04604321847619375</v>
+        <v>0.04593539746991795</v>
       </c>
       <c r="D179">
         <v>0.1333164508855984</v>
@@ -21088,7 +21088,7 @@
         <v>1112</v>
       </c>
       <c r="C180">
-        <v>0.04648622183315052</v>
+        <v>0.04634325228068437</v>
       </c>
       <c r="D180">
         <v>0.1295878483822661</v>
@@ -21102,7 +21102,7 @@
         <v>1116</v>
       </c>
       <c r="C181">
-        <v>0.04689786033879072</v>
+        <v>0.04671181888121691</v>
       </c>
       <c r="D181">
         <v>0.1259350354655089</v>
@@ -21116,7 +21116,7 @@
         <v>1120</v>
       </c>
       <c r="C182">
-        <v>0.04727999666818197</v>
+        <v>0.0470420609459225</v>
       </c>
       <c r="D182">
         <v>0.1223563846542407</v>
@@ -21130,7 +21130,7 @@
         <v>1124</v>
       </c>
       <c r="C183">
-        <v>0.04763441085007344</v>
+        <v>0.04733492306013014</v>
       </c>
       <c r="D183">
         <v>0.1188503452286448</v>
@@ -21144,7 +21144,7 @@
         <v>1128</v>
       </c>
       <c r="C184">
-        <v>0.04796280054595086</v>
+        <v>0.04759135844686063</v>
       </c>
       <c r="D184">
         <v>0.1154154393717064</v>
@@ -21158,7 +21158,7 @@
         <v>1132</v>
       </c>
       <c r="C185">
-        <v>0.04826678234670763</v>
+        <v>0.04781235598199042</v>
       </c>
       <c r="D185">
         <v>0.1120502585057878</v>
@@ -21172,7 +21172,7 @@
         <v>1136</v>
       </c>
       <c r="C186">
-        <v>0.04854789379169216</v>
+        <v>0.04799896547857619</v>
       </c>
       <c r="D186">
         <v>0.1087534598136146</v>
@@ -21186,7 +21186,7 @@
         <v>1140</v>
       </c>
       <c r="C187">
-        <v>0.04880759588627824</v>
+        <v>0.0481523204584303</v>
       </c>
       <c r="D187">
         <v>0.1055237629336134</v>
@@ -21200,7 +21200,7 @@
         <v>1144</v>
       </c>
       <c r="C188">
-        <v>0.04904727594854305</v>
+        <v>0.04827365784830338</v>
       </c>
       <c r="D188">
         <v>0.1023599468200806</v>
@@ -21214,7 +21214,7 @@
         <v>1148</v>
       </c>
       <c r="C189">
-        <v>0.04926825065722524</v>
+        <v>0.0483643342348791</v>
       </c>
       <c r="D189">
         <v>0.09926084675918991</v>
@@ -21228,7 +21228,7 @@
         <v>1152</v>
       </c>
       <c r="C190">
-        <v>0.04947176920502223</v>
+        <v>0.04842583848462551</v>
       </c>
       <c r="D190">
         <v>0.09622535153234044</v>
@@ -21242,7 +21242,7 @@
         <v>1156</v>
       </c>
       <c r="C191">
-        <v>0.04965901648571079</v>
+        <v>0.04845980068019597</v>
       </c>
       <c r="D191">
         <v>0.09325240071883048</v>
@@ -21256,7 +21256,7 @@
         <v>1160</v>
       </c>
       <c r="C192">
-        <v>0.04983111626235977</v>
+        <v>0.04846799744481556</v>
       </c>
       <c r="D192">
         <v>0.0903409821302853</v>
@@ -21270,7 +21270,7 @@
         <v>1164</v>
       </c>
       <c r="C193">
-        <v>0.04998913427831052</v>
+        <v>0.04845235382107962</v>
       </c>
       <c r="D193">
         <v>0.08749012936970768</v>
@@ -21284,7 +21284,7 @@
         <v>1168</v>
       </c>
       <c r="C194">
-        <v>0.05013408128367392</v>
+        <v>0.04841494194280201</v>
       </c>
       <c r="D194">
         <v>0.08469891950842498</v>
@@ -21298,7 +21298,7 @@
         <v>1172</v>
       </c>
       <c r="C195">
-        <v>0.05026691595858417</v>
+        <v>0.04835797679033926</v>
       </c>
       <c r="D195">
         <v>0.08196647087458837</v>
@@ -21312,7 +21312,7 @@
         <v>1176</v>
       </c>
       <c r="C196">
-        <v>0.05038854772095691</v>
+        <v>0.04828380935379881</v>
       </c>
       <c r="D196">
         <v>0.07929194094725522</v>
@@ -21326,7 +21326,7 @@
         <v>1180</v>
       </c>
       <c r="C197">
-        <v>0.05049983941146128</v>
+        <v>0.04819491754735621</v>
       </c>
       <c r="D197">
         <v>0.07667452435042506</v>
@@ -21340,7 +21340,7 @@
         <v>1184</v>
       </c>
       <c r="C198">
-        <v>0.05060160985219905</v>
+        <v>0.04809389522416204</v>
       </c>
       <c r="D198">
         <v>0.07411345094173</v>
@@ -21354,7 +21354,7 @@
         <v>1188</v>
       </c>
       <c r="C199">
-        <v>0.05069463627843487</v>
+        <v>0.04798343963741204</v>
       </c>
       <c r="D199">
         <v>0.07160798399078663</v>
@@ -21368,7 +21368,7 @@
         <v>1192</v>
       </c>
       <c r="C200">
-        <v>0.05077965664485599</v>
+        <v>0.04786633768129805</v>
       </c>
       <c r="D200">
         <v>0.06915741844251272</v>
@@ -21382,7 +21382,7 @@
         <v>1196</v>
       </c>
       <c r="C201">
-        <v>0.05085737180942215</v>
+        <v>0.04774545122771796</v>
       </c>
       <c r="D201">
         <v>0.06676107926097871</v>
@@ -21396,7 +21396,7 @@
         <v>1200</v>
       </c>
       <c r="C202">
-        <v>0.05092844759897822</v>
+        <v>0.04762370185245689</v>
       </c>
       <c r="D202">
         <v>0.06441831984963088</v>
@@ -21434,7 +21434,7 @@
         <v>400</v>
       </c>
       <c r="C2">
-        <v>0.0008048681095249954</v>
+        <v>0.1979845081509446</v>
       </c>
       <c r="D2">
         <v>0.7127689040034366</v>
@@ -21448,7 +21448,7 @@
         <v>404</v>
       </c>
       <c r="C3">
-        <v>0.000700385050886834</v>
+        <v>0.1917646441039679</v>
       </c>
       <c r="D3">
         <v>0.7120986995555678</v>
@@ -21462,7 +21462,7 @@
         <v>408</v>
       </c>
       <c r="C4">
-        <v>0.0006073160252196178</v>
+        <v>0.1856020465809586</v>
       </c>
       <c r="D4">
         <v>0.7113651879584185</v>
@@ -21476,7 +21476,7 @@
         <v>412</v>
       </c>
       <c r="C5">
-        <v>0.0005246880281016255</v>
+        <v>0.1794998002060541</v>
       </c>
       <c r="D5">
         <v>0.7105646914189235</v>
@@ -21490,7 +21490,7 @@
         <v>416</v>
       </c>
       <c r="C6">
-        <v>0.0004515815966917349</v>
+        <v>0.1734609489726484</v>
       </c>
       <c r="D6">
         <v>0.7096933189176142</v>
@@ -21504,7 +21504,7 @@
         <v>420</v>
       </c>
       <c r="C7">
-        <v>0.0003871303846790166</v>
+        <v>0.1674884951714295</v>
       </c>
       <c r="D7">
         <v>0.7087469522609108</v>
@@ -21518,7 +21518,7 @@
         <v>424</v>
       </c>
       <c r="C8">
-        <v>0.0003305205700552037</v>
+        <v>0.1615853984448175</v>
       </c>
       <c r="D8">
         <v>0.7077212311426634</v>
@@ -21532,7 +21532,7 @@
         <v>428</v>
       </c>
       <c r="C9">
-        <v>0.0002809900948748597</v>
+        <v>0.1557545749574208</v>
       </c>
       <c r="D9">
         <v>0.706611537143635</v>
@@ -21546,7 +21546,7 @@
         <v>432</v>
       </c>
       <c r="C10">
-        <v>0.0002378277379449977</v>
+        <v>0.1499988966703139</v>
       </c>
       <c r="D10">
         <v>0.7054129765932462</v>
@@ -21560,7 +21560,7 @@
         <v>436</v>
       </c>
       <c r="C11">
-        <v>0.0002003720232138677</v>
+        <v>0.1443211907049868</v>
       </c>
       <c r="D11">
         <v>0.7041203622135153</v>
@@ -21574,7 +21574,7 @@
         <v>440</v>
       </c>
       <c r="C12">
-        <v>0.0001680099684873468</v>
+        <v>0.138724238780702</v>
       </c>
       <c r="D12">
         <v>0.7027281934607786</v>
@@ -21588,7 +21588,7 @@
         <v>444</v>
       </c>
       <c r="C13">
-        <v>0.0001401756809670459</v>
+        <v>0.1332107767066847</v>
       </c>
       <c r="D13">
         <v>0.7012306354765904</v>
@@ -21602,7 +21602,7 @@
         <v>448</v>
       </c>
       <c r="C14">
-        <v>0.0001163488079508586</v>
+        <v>0.1277834939080487</v>
       </c>
       <c r="D14">
         <v>0.6996214965553094</v>
@@ -21616,7 +21616,7 @@
         <v>452</v>
       </c>
       <c r="C15">
-        <v>9.6052852835057E-05</v>
+        <v>0.1224450329615979</v>
       </c>
       <c r="D15">
         <v>0.6978942040324433</v>
@@ -21630,7 +21630,7 @@
         <v>456</v>
       </c>
       <c r="C16">
-        <v>7.885336827603506E-05</v>
+        <v>0.117197989114595</v>
       </c>
       <c r="D16">
         <v>0.6960417784950751</v>
@@ -21644,7 +21644,7 @@
         <v>460</v>
       </c>
       <c r="C17">
-        <v>6.435603997640572E-05</v>
+        <v>0.1120449097562434</v>
       </c>
       <c r="D17">
         <v>0.6940568062139206</v>
@@ -21658,7 +21658,7 @@
         <v>464</v>
       </c>
       <c r="C18">
-        <v>5.220467602033866E-05</v>
+        <v>0.1069882938079276</v>
       </c>
       <c r="D18">
         <v>0.6919314096961247</v>
@@ -21672,7 +21672,7 @@
         <v>468</v>
       </c>
       <c r="C19">
-        <v>4.207911796254048E-05</v>
+        <v>0.1020305909941791</v>
       </c>
       <c r="D19">
         <v>0.6896572162592529</v>
@@ -21686,7 +21686,7 @@
         <v>472</v>
       </c>
       <c r="C20">
-        <v>3.369309094063479E-05</v>
+        <v>0.09717420095184463</v>
       </c>
       <c r="D20">
         <v>0.6872253245306562</v>
@@ -21700,7 +21700,7 @@
         <v>476</v>
       </c>
       <c r="C21">
-        <v>2.679201090019943E-05</v>
+        <v>0.09242147212997893</v>
       </c>
       <c r="D21">
         <v>0.684626268783213</v>
@@ -21714,7 +21714,7 @@
         <v>480</v>
       </c>
       <c r="C22">
-        <v>2.115076756688112E-05</v>
+        <v>0.08777470042755295</v>
       </c>
       <c r="D22">
         <v>0.6818499810292937</v>
@@ -21728,7 +21728,7 @@
         <v>484</v>
       </c>
       <c r="C23">
-        <v>1.657150204656648E-05</v>
+        <v>0.08323612751013178</v>
       </c>
       <c r="D23">
         <v>0.6788857508108105</v>
@@ -21742,7 +21742,7 @@
         <v>488</v>
       </c>
       <c r="C24">
-        <v>1.288139786401388E-05</v>
+        <v>0.07880793874020482</v>
       </c>
       <c r="D24">
         <v>0.6757221826458443</v>
@@ -21756,7 +21756,7 @@
         <v>492</v>
       </c>
       <c r="C25">
-        <v>9.93050385103822E-06</v>
+        <v>0.07449226064887221</v>
       </c>
       <c r="D25">
         <v>0.6723471511234003</v>
@@ -21770,7 +21770,7 @@
         <v>496</v>
       </c>
       <c r="C26">
-        <v>7.589606563715395E-06</v>
+        <v>0.07029115786910067</v>
       </c>
       <c r="D26">
         <v>0.6687477536795853</v>
@@ -21784,7 +21784,7 @@
         <v>500</v>
       </c>
       <c r="C27">
-        <v>5.74816884967008E-06</v>
+        <v>0.06620662944284973</v>
       </c>
       <c r="D27">
         <v>0.6649102611437787</v>
@@ -21798,7 +21798,7 @@
         <v>504</v>
       </c>
       <c r="C28">
-        <v>4.312349816557518E-06</v>
+        <v>0.06224060440609044</v>
       </c>
       <c r="D28">
         <v>0.6608200662156997</v>
@@ -21812,7 +21812,7 @@
         <v>508</v>
       </c>
       <c r="C29">
-        <v>3.203119796778081E-06</v>
+        <v>0.05839493654729871</v>
       </c>
       <c r="D29">
         <v>0.6564616301281344</v>
@@ -21826,7 +21826,7 @@
         <v>512</v>
       </c>
       <c r="C30">
-        <v>2.354481996726083E-06</v>
+        <v>0.05467139822658917</v>
       </c>
       <c r="D30">
         <v>0.6518184278710019</v>
@@ -21840,7 +21840,7 @@
         <v>516</v>
       </c>
       <c r="C31">
-        <v>1.711810406557082E-06</v>
+        <v>0.05107167313463114</v>
       </c>
       <c r="D31">
         <v>0.6468728925073842</v>
@@ -21854,7 +21854,7 @@
         <v>520</v>
       </c>
       <c r="C32">
-        <v>1.230311282170358E-06</v>
+        <v>0.04759734786327283</v>
       </c>
       <c r="D32">
         <v>0.641606359309856</v>
@@ -21868,7 +21868,7 @@
         <v>524</v>
       </c>
       <c r="C33">
-        <v>8.736131555001488E-07</v>
+        <v>0.04424990215403537</v>
       </c>
       <c r="D33">
         <v>0.6359990106968547</v>
@@ -21882,7 +21882,7 @@
         <v>528</v>
       </c>
       <c r="C34">
-        <v>6.124879478987483E-07</v>
+        <v>0.04103069768709506</v>
       </c>
       <c r="D34">
         <v>0.6300298232677409</v>
@@ -21896,7 +21896,7 @@
         <v>532</v>
       </c>
       <c r="C35">
-        <v>4.237034224893877E-07</v>
+        <v>0.03794096527310747</v>
       </c>
       <c r="D35">
         <v>0.6236765186388732</v>
@@ -21910,7 +21910,7 @@
         <v>536</v>
       </c>
       <c r="C36">
-        <v>2.890049826163365E-07</v>
+        <v>0.03498179031454372</v>
       </c>
       <c r="D36">
         <v>0.6169155202933982</v>
@@ -21924,7 +21924,7 @@
         <v>540</v>
       </c>
       <c r="C37">
-        <v>1.942227692809005E-07</v>
+        <v>0.03215409641375602</v>
       </c>
       <c r="D37">
         <v>0.6097219193021219</v>
@@ -21938,7 +21938,7 @@
         <v>544</v>
       </c>
       <c r="C38">
-        <v>1.284981885884179E-07</v>
+        <v>0.02945862702376978</v>
       </c>
       <c r="D38">
         <v>0.6020694525868574</v>
@@ -21952,7 +21952,7 @@
         <v>548</v>
       </c>
       <c r="C39">
-        <v>8.362245918466515E-08</v>
+        <v>0.02689592506723951</v>
       </c>
       <c r="D39">
         <v>0.5939304984257638</v>
@@ -21966,7 +21966,7 @@
         <v>552</v>
       </c>
       <c r="C40">
-        <v>5.347854588258428E-08</v>
+        <v>0.02446631049192845</v>
       </c>
       <c r="D40">
         <v>0.585276095199499</v>
@@ -21980,7 +21980,7 @@
         <v>556</v>
       </c>
       <c r="C41">
-        <v>3.357696164899633E-08</v>
+        <v>0.02216985579071796</v>
       </c>
       <c r="D41">
         <v>0.5760759910212296</v>
@@ -21994,7 +21994,7 @@
         <v>560</v>
       </c>
       <c r="C42">
-        <v>2.067538311442173E-08</v>
+        <v>0.02000635959406993</v>
       </c>
       <c r="D42">
         <v>0.5662987339782127</v>
@@ -22008,7 +22008,7 @@
         <v>564</v>
       </c>
       <c r="C43">
-        <v>1.247182655267614E-08</v>
+        <v>0.01797531854677314</v>
       </c>
       <c r="D43">
         <v>0.555911815363148</v>
@@ -22022,7 +22022,7 @@
         <v>568</v>
       </c>
       <c r="C44">
-        <v>7.361248776842962E-09</v>
+        <v>0.01607589781230606</v>
       </c>
       <c r="D44">
         <v>0.5448818816559624</v>
@@ -22036,7 +22036,7 @@
         <v>572</v>
       </c>
       <c r="C45">
-        <v>4.245834364617886E-09</v>
+        <v>0.01430690071028971</v>
       </c>
       <c r="D45">
         <v>0.5331750353552107</v>
@@ -22050,7 +22050,7 @@
         <v>576</v>
       </c>
       <c r="C46">
-        <v>2.389860196555476E-09</v>
+        <v>0.01266673818707973</v>
       </c>
       <c r="D46">
         <v>0.5207572503599702</v>
@@ -22064,7 +22064,7 @@
         <v>580</v>
       </c>
       <c r="C47">
-        <v>1.310836274986569E-09</v>
+        <v>0.01115339904612445</v>
       </c>
       <c r="D47">
         <v>0.5075949348992859</v>
@@ -22078,7 +22078,7 @@
         <v>584</v>
       </c>
       <c r="C48">
-        <v>6.995504163014473E-10</v>
+        <v>0.009764422119058881</v>
       </c>
       <c r="D48">
         <v>0.4936556846176872</v>
@@ -22092,7 +22092,7 @@
         <v>588</v>
       </c>
       <c r="C49">
-        <v>3.626362071618632E-10</v>
+        <v>0.008496871830259069</v>
       </c>
       <c r="D49">
         <v>0.478909281273374</v>
@@ -22106,7 +22106,7 @@
         <v>592</v>
       </c>
       <c r="C50">
-        <v>1.822851076467076E-10</v>
+        <v>0.007347318876141327</v>
       </c>
       <c r="D50">
         <v>0.4633290100035538</v>
@@ -22120,7 +22120,7 @@
         <v>596</v>
       </c>
       <c r="C51">
-        <v>8.868842985721824E-11</v>
+        <v>0.006311827967184305</v>
       </c>
       <c r="D51">
         <v>0.4468933925043434</v>
@@ -22134,7 +22134,7 @@
         <v>600</v>
       </c>
       <c r="C52">
-        <v>4.1686245772733E-11</v>
+        <v>0.005385954691622068</v>
       </c>
       <c r="D52">
         <v>0.4295884684625092</v>
@@ -22148,7 +22148,7 @@
         <v>604</v>
       </c>
       <c r="C53">
-        <v>1.889200589277987E-11</v>
+        <v>0.004564753404990753</v>
       </c>
       <c r="D53">
         <v>0.4114108094959661</v>
@@ -22162,7 +22162,7 @@
         <v>608</v>
       </c>
       <c r="C54">
-        <v>8.238755122655596E-12</v>
+        <v>0.003842797297499752</v>
       </c>
       <c r="D54">
         <v>0.3923715299466409</v>
@@ -22176,7 +22176,7 @@
         <v>612</v>
       </c>
       <c r="C55">
-        <v>3.450586037778086E-12</v>
+        <v>0.003214209641288342</v>
       </c>
       <c r="D55">
         <v>0.3725016877719089</v>
@@ -22190,7 +22190,7 @@
         <v>616</v>
       </c>
       <c r="C56">
-        <v>1.385355777975928E-12</v>
+        <v>0.002672699586293958</v>
       </c>
       <c r="D56">
         <v>0.3518596856877507</v>
@@ -22204,7 +22204,7 @@
         <v>620</v>
       </c>
       <c r="C57">
-        <v>5.322653686270612E-13</v>
+        <v>0.002211580954874917</v>
       </c>
       <c r="D57">
         <v>0.3305416640311004</v>
@@ -22218,7 +22218,7 @@
         <v>624</v>
       </c>
       <c r="C58">
-        <v>1.954045072347565E-13</v>
+        <v>0.001823711261166921</v>
       </c>
       <c r="D58">
         <v>0.3086965737112918</v>
@@ -22232,7 +22232,7 @@
         <v>628</v>
       </c>
       <c r="C59">
-        <v>6.84360658013361E-14</v>
+        <v>0.001501169015565987</v>
       </c>
       <c r="D59">
         <v>0.2865489240916442</v>
@@ -22246,7 +22246,7 @@
         <v>632</v>
       </c>
       <c r="C60">
-        <v>2.279572200403154E-14</v>
+        <v>0.001234137318690894</v>
       </c>
       <c r="D60">
         <v>0.2644346199806926</v>
@@ -22260,7 +22260,7 @@
         <v>636</v>
       </c>
       <c r="C61">
-        <v>7.151625182394921E-15</v>
+        <v>0.001007535370200417</v>
       </c>
       <c r="D61">
         <v>0.2428591520816102</v>
@@ -22274,7 +22274,7 @@
         <v>640</v>
       </c>
       <c r="C62">
-        <v>2.042541584337358E-15</v>
+        <v>0.0007929819369060412</v>
       </c>
       <c r="D62">
         <v>0.2225880628735287</v>
@@ -22288,7 +22288,7 @@
         <v>644</v>
       </c>
       <c r="C63">
-        <v>4.796732935851815E-16</v>
+        <v>0.0005459783367008311</v>
       </c>
       <c r="D63">
         <v>0.2047253995048084</v>
@@ -22302,7 +22302,7 @@
         <v>648</v>
       </c>
       <c r="C64">
-        <v>7.671463630698638E-17</v>
+        <v>0.0002736354202567572</v>
       </c>
       <c r="D64">
         <v>0.1901368502007814</v>
@@ -22316,7 +22316,7 @@
         <v>652</v>
       </c>
       <c r="C65">
-        <v>7.663036134993937E-18</v>
+        <v>9.210223921594839E-05</v>
       </c>
       <c r="D65">
         <v>0.1718494902326808</v>
@@ -22330,7 +22330,7 @@
         <v>656</v>
       </c>
       <c r="C66">
-        <v>5.060525005633887E-19</v>
+        <v>2.220819247105465E-05</v>
       </c>
       <c r="D66">
         <v>0.09785393057489303</v>
@@ -22344,7 +22344,7 @@
         <v>660</v>
       </c>
       <c r="C67">
-        <v>6.059250963303948E-21</v>
+        <v>1.060525989646606E-06</v>
       </c>
       <c r="D67">
         <v>0.01104871548622139</v>
@@ -22358,7 +22358,7 @@
         <v>664</v>
       </c>
       <c r="C68">
-        <v>1.050432189368801E-24</v>
+        <v>8.073846251773028E-10</v>
       </c>
       <c r="D68">
         <v>0.000162978525893272</v>
@@ -22372,7 +22372,7 @@
         <v>668</v>
       </c>
       <c r="C69">
-        <v>3.246661052633751E-25</v>
+        <v>1.218477372771618E-09</v>
       </c>
       <c r="D69">
         <v>0.0003581756733486277</v>
@@ -22386,7 +22386,7 @@
         <v>672</v>
       </c>
       <c r="C70">
-        <v>5.656706319557583E-25</v>
+        <v>1.165290654808675E-08</v>
       </c>
       <c r="D70">
         <v>0.002389762740322986</v>
@@ -22400,7 +22400,7 @@
         <v>676</v>
       </c>
       <c r="C71">
-        <v>3.42871057304611E-25</v>
+        <v>4.412661611538068E-08</v>
       </c>
       <c r="D71">
         <v>0.008639259468768822</v>
@@ -22414,7 +22414,7 @@
         <v>680</v>
       </c>
       <c r="C72">
-        <v>1.00605200938778E-25</v>
+        <v>9.338375590822364E-08</v>
       </c>
       <c r="D72">
         <v>0.02148958200906264</v>
@@ -22428,7 +22428,7 @@
         <v>684</v>
       </c>
       <c r="C73">
-        <v>1.768334441545235E-26</v>
+        <v>1.389224487911497E-07</v>
       </c>
       <c r="D73">
         <v>0.04296685798470348</v>
@@ -22442,7 +22442,7 @@
         <v>688</v>
       </c>
       <c r="C74">
-        <v>2.05061228272775E-27</v>
+        <v>1.630457943841523E-07</v>
       </c>
       <c r="D74">
         <v>0.0747447501101226</v>
@@ -22456,7 +22456,7 @@
         <v>692</v>
       </c>
       <c r="C75">
-        <v>1.630936662370631E-28</v>
+        <v>1.604097414294959E-07</v>
       </c>
       <c r="D75">
         <v>0.1180838223847724</v>
@@ -22470,7 +22470,7 @@
         <v>696</v>
       </c>
       <c r="C76">
-        <v>8.965492167707131E-30</v>
+        <v>1.367552245398734E-07</v>
       </c>
       <c r="D76">
         <v>0.1736781119019771</v>
@@ -22484,7 +22484,7 @@
         <v>700</v>
       </c>
       <c r="C77">
-        <v>3.36618070276454E-31</v>
+        <v>1.028623556113987E-07</v>
       </c>
       <c r="D77">
         <v>0.2414315131878295</v>
@@ -22498,7 +22498,7 @@
         <v>704</v>
       </c>
       <c r="C78">
-        <v>8.406123521087971E-33</v>
+        <v>6.885450374045401E-08</v>
       </c>
       <c r="D78">
         <v>0.3201980074507169</v>
@@ -22512,7 +22512,7 @@
         <v>708</v>
       </c>
       <c r="C79">
-        <v>1.34207596010077E-34</v>
+        <v>4.111206949378725E-08</v>
       </c>
       <c r="D79">
         <v>0.4075366795445634</v>
@@ -22526,7 +22526,7 @@
         <v>712</v>
       </c>
       <c r="C80">
-        <v>1.299556310020766E-36</v>
+        <v>2.183880612278739E-08</v>
       </c>
       <c r="D80">
         <v>0.4995555378186304</v>
@@ -22540,7 +22540,7 @@
         <v>716</v>
       </c>
       <c r="C81">
-        <v>7.134989400275299E-39</v>
+        <v>1.024944082419462E-08</v>
       </c>
       <c r="D81">
         <v>0.5909379848600508</v>
@@ -22554,7 +22554,7 @@
         <v>720</v>
       </c>
       <c r="C82">
-        <v>2.040566794105622E-41</v>
+        <v>4.202655858525086E-09</v>
       </c>
       <c r="D82">
         <v>0.6752460118825774</v>
@@ -22568,7 +22568,7 @@
         <v>724</v>
       </c>
       <c r="C83">
-        <v>2.733246622650814E-44</v>
+        <v>1.481919001113868E-09</v>
       </c>
       <c r="D83">
         <v>0.7455551395822747</v>
@@ -22582,7 +22582,7 @@
         <v>728</v>
       </c>
       <c r="C84">
-        <v>1.499804543265713E-47</v>
+        <v>4.399005789234701E-10</v>
       </c>
       <c r="D84">
         <v>0.7953864649849139</v>
@@ -22596,7 +22596,7 @@
         <v>732</v>
       </c>
       <c r="C85">
-        <v>2.844792145995798E-51</v>
+        <v>1.068847059026565E-10</v>
       </c>
       <c r="D85">
         <v>0.8197758815207664</v>
@@ -22610,7 +22610,7 @@
         <v>736</v>
       </c>
       <c r="C86">
-        <v>1.499985390924326E-55</v>
+        <v>2.048716616509114E-11</v>
       </c>
       <c r="D86">
         <v>0.8162115414178852</v>
@@ -22624,7 +22624,7 @@
         <v>740</v>
       </c>
       <c r="C87">
-        <v>1.655838618060847E-60</v>
+        <v>2.950490673914383E-12</v>
       </c>
       <c r="D87">
         <v>0.7851493922684336</v>
@@ -22638,7 +22638,7 @@
         <v>744</v>
       </c>
       <c r="C88">
-        <v>2.629901316947875E-66</v>
+        <v>2.991561880327803E-13</v>
       </c>
       <c r="D88">
         <v>0.7299249671808035</v>
@@ -22652,7 +22652,7 @@
         <v>748</v>
       </c>
       <c r="C89">
-        <v>3.622295875668856E-73</v>
+        <v>1.954965053844861E-14</v>
       </c>
       <c r="D89">
         <v>0.656083495639733</v>
@@ -22666,7 +22666,7 @@
         <v>752</v>
       </c>
       <c r="C90">
-        <v>2.149504101979931E-81</v>
+        <v>7.285071505307849E-16</v>
       </c>
       <c r="D90">
         <v>0.5703479775868966</v>
@@ -22680,7 +22680,7 @@
         <v>756</v>
       </c>
       <c r="C91">
-        <v>2.033745356920614E-91</v>
+        <v>1.300339656617803E-17</v>
       </c>
       <c r="D91">
         <v>0.479535549352308</v>
@@ -22694,7 +22694,7 @@
         <v>760</v>
       </c>
       <c r="C92">
-        <v>7.120182273499058E-104</v>
+        <v>8.602265885409021E-20</v>
       </c>
       <c r="D92">
         <v>0.3896873096535708</v>
@@ -22708,7 +22708,7 @@
         <v>764</v>
       </c>
       <c r="C93">
-        <v>9.858920938703437E-120</v>
+        <v>1.423967712308413E-22</v>
       </c>
       <c r="D93">
         <v>0.3055466671048028</v>
@@ -22722,7 +22722,7 @@
         <v>768</v>
       </c>
       <c r="C94">
-        <v>1.472791462501944E-140</v>
+        <v>3.13265160042155E-26</v>
       </c>
       <c r="D94">
         <v>0.2303861541436508</v>
@@ -22736,7 +22736,7 @@
         <v>772</v>
       </c>
       <c r="C95">
-        <v>4.861488541364168E-169</v>
+        <v>3.087362275828688E-31</v>
       </c>
       <c r="D95">
         <v>0.1660967879001805</v>
@@ -22750,7 +22750,7 @@
         <v>776</v>
       </c>
       <c r="C96">
-        <v>3.263403684224474E-210</v>
+        <v>1.779509366620581E-38</v>
       </c>
       <c r="D96">
         <v>0.1134279615359688</v>
@@ -22764,7 +22764,7 @@
         <v>780</v>
       </c>
       <c r="C97">
-        <v>1.061130838720164E-274</v>
+        <v>8.200067452980511E-50</v>
       </c>
       <c r="D97">
         <v>0.07228043229969393</v>
@@ -22778,7 +22778,7 @@
         <v>784</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>6.276975002785446E-70</v>
       </c>
       <c r="D98">
         <v>0.04197546079335804</v>
@@ -22792,7 +22792,7 @@
         <v>788</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>2.124397093067476E-114</v>
       </c>
       <c r="D99">
         <v>0.02124437541029865</v>
@@ -22806,7 +22806,7 @@
         <v>792</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>6.216186843525876E-263</v>
       </c>
       <c r="D100">
         <v>0.004519059140241435</v>
@@ -23436,7 +23436,7 @@
         <v>972</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>2.965443325454903E-281</v>
       </c>
       <c r="D145">
         <v>0.662764591827732</v>
@@ -23450,7 +23450,7 @@
         <v>976</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>6.685578756237804E-119</v>
       </c>
       <c r="D146">
         <v>0.6768569949617033</v>
@@ -23464,7 +23464,7 @@
         <v>980</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>4.407545011128314E-71</v>
       </c>
       <c r="D147">
         <v>0.6858047170669568</v>
@@ -23478,7 +23478,7 @@
         <v>984</v>
       </c>
       <c r="C148">
-        <v>2.710602514271845E-281</v>
+        <v>7.311227098038429E-50</v>
       </c>
       <c r="D148">
         <v>0.6938543266395545</v>
@@ -23492,7 +23492,7 @@
         <v>988</v>
       </c>
       <c r="C149">
-        <v>7.203807809604739E-214</v>
+        <v>4.725430262777973E-38</v>
       </c>
       <c r="D149">
         <v>0.7015544916508081</v>
@@ -23506,7 +23506,7 @@
         <v>992</v>
       </c>
       <c r="C150">
-        <v>3.697312412738727E-171</v>
+        <v>1.428316659247985E-30</v>
       </c>
       <c r="D150">
         <v>0.7090177299682221</v>
@@ -23520,7 +23520,7 @@
         <v>996</v>
       </c>
       <c r="C151">
-        <v>8.916395803568723E-142</v>
+        <v>1.994788624688837E-25</v>
       </c>
       <c r="D151">
         <v>0.7162782576861448</v>
@@ -23534,7 +23534,7 @@
         <v>1000</v>
       </c>
       <c r="C152">
-        <v>2.234486610820952E-120</v>
+        <v>1.112065721352093E-21</v>
       </c>
       <c r="D152">
         <v>0.7233510466018562</v>
@@ -23548,7 +23548,7 @@
         <v>1004</v>
       </c>
       <c r="C153">
-        <v>3.953014850978525E-104</v>
+        <v>7.758762593957585E-19</v>
       </c>
       <c r="D153">
         <v>0.7302452479351649</v>
@@ -23562,7 +23562,7 @@
         <v>1008</v>
       </c>
       <c r="C154">
-        <v>2.144961885969878E-91</v>
+        <v>1.311968388716632E-16</v>
       </c>
       <c r="D154">
         <v>0.7369679394801746</v>
@@ -23576,7 +23576,7 @@
         <v>1012</v>
       </c>
       <c r="C155">
-        <v>3.671514839699024E-81</v>
+        <v>8.089199220273382E-15</v>
       </c>
       <c r="D155">
         <v>0.7435253226037554</v>
@@ -23590,7 +23590,7 @@
         <v>1016</v>
       </c>
       <c r="C156">
-        <v>9.035777857404055E-73</v>
+        <v>2.372377114683362E-13</v>
       </c>
       <c r="D156">
         <v>0.7499231400322056</v>
@@ -23604,7 +23604,7 @@
         <v>1020</v>
       </c>
       <c r="C157">
-        <v>8.948751961445208E-66</v>
+        <v>3.963582948549827E-12</v>
       </c>
       <c r="D157">
         <v>0.7561668302175414</v>
@@ -23618,7 +23618,7 @@
         <v>1024</v>
       </c>
       <c r="C158">
-        <v>7.346622561538905E-60</v>
+        <v>4.281697114045486E-11</v>
       </c>
       <c r="D158">
         <v>0.7622615866781627</v>
@@ -23632,7 +23632,7 @@
         <v>1028</v>
       </c>
       <c r="C159">
-        <v>8.427834666137359E-55</v>
+        <v>3.277209660619273E-10</v>
       </c>
       <c r="D159">
         <v>0.768212381971461</v>
@@ -23646,7 +23646,7 @@
         <v>1032</v>
       </c>
       <c r="C160">
-        <v>1.98854080612868E-50</v>
+        <v>1.901816671689124E-09</v>
       </c>
       <c r="D160">
         <v>0.7740239786251208</v>
@@ -23660,7 +23660,7 @@
         <v>1036</v>
       </c>
       <c r="C161">
-        <v>1.292577549958662E-46</v>
+        <v>8.807325408345548E-09</v>
       </c>
       <c r="D161">
         <v>0.7797009356240688</v>
@@ -23674,7 +23674,7 @@
         <v>1040</v>
       </c>
       <c r="C162">
-        <v>2.898524182499696E-43</v>
+        <v>3.385669197051527E-08</v>
       </c>
       <c r="D162">
         <v>0.7852476137484129</v>
@@ -23688,7 +23688,7 @@
         <v>1044</v>
       </c>
       <c r="C163">
-        <v>2.673638436686802E-40</v>
+        <v>1.114175580602202E-07</v>
       </c>
       <c r="D163">
         <v>0.7906681809508547</v>
@@ -23702,7 +23702,7 @@
         <v>1048</v>
       </c>
       <c r="C164">
-        <v>1.166371685714065E-37</v>
+        <v>3.216513852427805E-07</v>
       </c>
       <c r="D164">
         <v>0.7959666181207731</v>
@@ -23716,7 +23716,7 @@
         <v>1052</v>
       </c>
       <c r="C165">
-        <v>2.691857199320715E-35</v>
+        <v>8.307364890771326E-07</v>
       </c>
       <c r="D165">
         <v>0.801146725256869</v>
@@ -23730,7 +23730,7 @@
         <v>1056</v>
       </c>
       <c r="C166">
-        <v>3.599794915228948E-33</v>
+        <v>1.950332768623418E-06</v>
       </c>
       <c r="D166">
         <v>0.8062121279577167</v>
@@ -23744,7 +23744,7 @@
         <v>1060</v>
       </c>
       <c r="C167">
-        <v>3.005690325809722E-31</v>
+        <v>4.216958051315979E-06</v>
       </c>
       <c r="D167">
         <v>0.8111662841135536</v>
@@ -23758,7 +23758,7 @@
         <v>1064</v>
       </c>
       <c r="C168">
-        <v>1.666865693310506E-29</v>
+        <v>8.488575676500777E-06</v>
       </c>
       <c r="D168">
         <v>0.816012490689864</v>
@@ -23772,7 +23772,7 @@
         <v>1068</v>
       </c>
       <c r="C169">
-        <v>6.464885020648783E-28</v>
+        <v>1.605233671375038E-05</v>
       </c>
       <c r="D169">
         <v>0.8207538905112647</v>
@@ -23786,7 +23786,7 @@
         <v>1072</v>
       </c>
       <c r="C170">
-        <v>1.831380236206072E-26</v>
+        <v>2.87348484385322E-05</v>
       </c>
       <c r="D170">
         <v>0.8253934789737361</v>
@@ -23800,7 +23800,7 @@
         <v>1076</v>
       </c>
       <c r="C171">
-        <v>3.931183789516742E-25</v>
+        <v>4.900506726590407E-05</v>
       </c>
       <c r="D171">
         <v>0.8299341106308611</v>
@@ -23814,7 +23814,7 @@
         <v>1080</v>
       </c>
       <c r="C172">
-        <v>6.597945762653436E-24</v>
+        <v>8.006009985502018E-05</v>
       </c>
       <c r="D172">
         <v>0.8343785056144669</v>
@@ -23828,7 +23828,7 @@
         <v>1084</v>
       </c>
       <c r="C173">
-        <v>8.894230678237959E-23</v>
+        <v>0.0001258856780834578</v>
       </c>
       <c r="D173">
         <v>0.8387292558618882</v>
@@ -23842,7 +23842,7 @@
         <v>1088</v>
       </c>
       <c r="C174">
-        <v>9.855700556949537E-22</v>
+        <v>0.0001912854744753951</v>
       </c>
       <c r="D174">
         <v>0.8429888311313426</v>
@@ -23856,7 +23856,7 @@
         <v>1092</v>
       </c>
       <c r="C175">
-        <v>9.159433679762099E-21</v>
+        <v>0.0002818762809428929</v>
       </c>
       <c r="D175">
         <v>0.8471595847940698</v>
@@ -23870,7 +23870,7 @@
         <v>1096</v>
       </c>
       <c r="C176">
-        <v>7.265183489820765E-20</v>
+        <v>0.0004040489453954031</v>
       </c>
       <c r="D176">
         <v>0.8512437593973433</v>
@@ -23884,7 +23884,7 @@
         <v>1100</v>
       </c>
       <c r="C177">
-        <v>4.994172849379501E-19</v>
+        <v>0.0005648975019589898</v>
       </c>
       <c r="D177">
         <v>0.8552434919965959</v>
@@ -23898,7 +23898,7 @@
         <v>1104</v>
       </c>
       <c r="C178">
-        <v>3.015453449612607E-18</v>
+        <v>0.0007721209193523716</v>
       </c>
       <c r="D178">
         <v>0.859160819257977</v>
@@ -23912,7 +23912,7 @@
         <v>1108</v>
       </c>
       <c r="C179">
-        <v>1.61828925984145E-17</v>
+        <v>0.001033903228843606</v>
       </c>
       <c r="D179">
         <v>0.8629976823349337</v>
@@ -23926,7 +23926,7 @@
         <v>1112</v>
       </c>
       <c r="C180">
-        <v>7.80053087860899E-17</v>
+        <v>0.00135877847959309</v>
       </c>
       <c r="D180">
         <v>0.8667559315240522</v>
@@ -23940,7 +23940,7 @@
         <v>1116</v>
       </c>
       <c r="C181">
-        <v>3.40875948953791E-16</v>
+        <v>0.001755487077716732</v>
       </c>
       <c r="D181">
         <v>0.870437330706563</v>
@@ -23954,7 +23954,7 @@
         <v>1120</v>
       </c>
       <c r="C182">
-        <v>1.361667214881364E-15</v>
+        <v>0.002232829709881496</v>
       </c>
       <c r="D182">
         <v>0.8740435615827002</v>
@@ -23968,7 +23968,7 @@
         <v>1124</v>
       </c>
       <c r="C183">
-        <v>5.009135951617377E-15</v>
+        <v>0.002799524362161208</v>
       </c>
       <c r="D183">
         <v>0.8775762277066226</v>
@@ -23982,7 +23982,7 @@
         <v>1128</v>
       </c>
       <c r="C184">
-        <v>1.708253809644623E-14</v>
+        <v>0.00346407104654756</v>
       </c>
       <c r="D184">
         <v>0.8810368583298831</v>
@@ -23996,7 +23996,7 @@
         <v>1132</v>
       </c>
       <c r="C185">
-        <v>5.432851050770193E-14</v>
+        <v>0.00423462785198496</v>
       </c>
       <c r="D185">
         <v>0.8844269120615773</v>
@@ -24010,7 +24010,7 @@
         <v>1136</v>
       </c>
       <c r="C186">
-        <v>1.620020056209723E-13</v>
+        <v>0.005118900933627268</v>
       </c>
       <c r="D186">
         <v>0.8877477803532811</v>
@@ -24024,7 +24024,7 @@
         <v>1140</v>
       </c>
       <c r="C187">
-        <v>4.551300255722393E-13</v>
+        <v>0.006124050109437324</v>
       </c>
       <c r="D187">
         <v>0.8910007908168174</v>
@@ -24038,7 +24038,7 @@
         <v>1144</v>
       </c>
       <c r="C188">
-        <v>1.209981486446603E-12</v>
+        <v>0.007256610891397061</v>
       </c>
       <c r="D188">
         <v>0.8941872103827148</v>
@@ -24052,7 +24052,7 @@
         <v>1148</v>
       </c>
       <c r="C189">
-        <v>3.056179574497467E-12</v>
+        <v>0.008522433064470441</v>
       </c>
       <c r="D189">
         <v>0.8973082483070202</v>
@@ -24066,7 +24066,7 @@
         <v>1152</v>
       </c>
       <c r="C190">
-        <v>7.360504330347048E-12</v>
+        <v>0.009926635349698534</v>
       </c>
       <c r="D190">
         <v>0.9003650590338742</v>
@@ -24080,7 +24080,7 @@
         <v>1156</v>
       </c>
       <c r="C191">
-        <v>1.695885676641041E-11</v>
+        <v>0.01147357524658209</v>
       </c>
       <c r="D191">
         <v>0.9033587449209959</v>
@@ -24094,7 +24094,7 @@
         <v>1160</v>
       </c>
       <c r="C192">
-        <v>3.749321501035403E-11</v>
+        <v>0.01316683283449659</v>
       </c>
       <c r="D192">
         <v>0.9062903588349304</v>
@@ -24108,7 +24108,7 @@
         <v>1164</v>
       </c>
       <c r="C193">
-        <v>7.975738751805678E-11</v>
+        <v>0.01500920710874334</v>
       </c>
       <c r="D193">
         <v>0.9091609066226263</v>
@@ -24122,7 +24122,7 @@
         <v>1168</v>
       </c>
       <c r="C194">
-        <v>1.6366130877224E-10</v>
+        <v>0.01700272331700296</v>
       </c>
       <c r="D194">
         <v>0.9119713494656105</v>
@@ -24136,7 +24136,7 @@
         <v>1172</v>
       </c>
       <c r="C195">
-        <v>3.247002076030802E-10</v>
+        <v>0.01914864972887509</v>
       </c>
       <c r="D195">
         <v>0.914722606122734</v>
@@ -24150,7 +24150,7 @@
         <v>1176</v>
       </c>
       <c r="C196">
-        <v>6.241714962734906E-10</v>
+        <v>0.02144752229799801</v>
       </c>
       <c r="D196">
         <v>0.9174155550671733</v>
@@ -24164,7 +24164,7 @@
         <v>1180</v>
       </c>
       <c r="C197">
-        <v>1.164823656156133E-09</v>
+        <v>0.02389917574756502</v>
       </c>
       <c r="D197">
         <v>0.9200510365230828</v>
@@ -24178,7 +24178,7 @@
         <v>1184</v>
       </c>
       <c r="C198">
-        <v>2.11414650807094E-09</v>
+        <v>0.02650277971246499</v>
       </c>
       <c r="D198">
         <v>0.9226298544070279</v>
@@ -24192,7 +24192,7 @@
         <v>1188</v>
       </c>
       <c r="C199">
-        <v>3.738112045106507E-09</v>
+        <v>0.02925687869346048</v>
       </c>
       <c r="D199">
         <v>0.9251527781790445</v>
@@ -24206,7 +24206,7 @@
         <v>1192</v>
       </c>
       <c r="C200">
-        <v>6.448831678107466E-09</v>
+        <v>0.0321594347115854</v>
       </c>
       <c r="D200">
         <v>0.9276205446079339</v>
@@ -24220,7 +24220,7 @@
         <v>1196</v>
       </c>
       <c r="C201">
-        <v>1.087028249741276E-08</v>
+        <v>0.03520787168706963</v>
       </c>
       <c r="D201">
         <v>0.9300338594551389</v>
@@ -24234,7 +24234,7 @@
         <v>1200</v>
       </c>
       <c r="C202">
-        <v>1.792693687198895E-08</v>
+        <v>0.03839912070112533</v>
       </c>
       <c r="D202">
         <v>0.9323933990813192</v>
@@ -24272,7 +24272,7 @@
         <v>400</v>
       </c>
       <c r="C2">
-        <v>0.0007937349180515139</v>
+        <v>0.1957256441696066</v>
       </c>
       <c r="D2">
         <v>0.707280645833733</v>
@@ -24286,7 +24286,7 @@
         <v>404</v>
       </c>
       <c r="C3">
-        <v>0.000690697311366691</v>
+        <v>0.1895480674838242</v>
       </c>
       <c r="D3">
         <v>0.7066080872757279</v>
@@ -24300,7 +24300,7 @@
         <v>408</v>
       </c>
       <c r="C4">
-        <v>0.0005989152681188723</v>
+        <v>0.1834287282768408</v>
       </c>
       <c r="D4">
         <v>0.7058720039649493</v>
@@ -24314,7 +24314,7 @@
         <v>412</v>
       </c>
       <c r="C5">
-        <v>0.0005174294579977693</v>
+        <v>0.1773706877731595</v>
       </c>
       <c r="D5">
         <v>0.7050687118496217</v>
@@ -24328,7 +24328,7 @@
         <v>416</v>
       </c>
       <c r="C6">
-        <v>0.0004453333056591056</v>
+        <v>0.1713769621096215</v>
       </c>
       <c r="D6">
         <v>0.7041943140334072</v>
@@ -24342,7 +24342,7 @@
         <v>420</v>
       </c>
       <c r="C7">
-        <v>0.0003817725781019858</v>
+        <v>0.165450521351646</v>
       </c>
       <c r="D7">
         <v>0.7032446869256125</v>
@@ -24356,7 +24356,7 @@
         <v>424</v>
       </c>
       <c r="C8">
-        <v>0.0003259448066063154</v>
+        <v>0.1595942886472779</v>
       </c>
       <c r="D8">
         <v>0.7022154654152114</v>
@@ -24370,7 +24370,7 @@
         <v>428</v>
       </c>
       <c r="C9">
-        <v>0.0002770985424221407</v>
+        <v>0.1538111395081373</v>
       </c>
       <c r="D9">
         <v>0.7011020269993622</v>
@@ -24384,7 +24384,7 @@
         <v>432</v>
       </c>
       <c r="C10">
-        <v>0.0002345324471580324</v>
+        <v>0.1481039012045485</v>
       </c>
       <c r="D10">
         <v>0.6998994747929788</v>
@@ -24398,7 +24398,7 @@
         <v>436</v>
       </c>
       <c r="C11">
-        <v>0.0001975942206210733</v>
+        <v>0.1424753522601877</v>
       </c>
       <c r="D11">
         <v>0.6986026193418285</v>
@@ -24412,7 +24412,7 @@
         <v>440</v>
       </c>
       <c r="C12">
-        <v>0.0001656793706961867</v>
+        <v>0.1369282220295002</v>
       </c>
       <c r="D12">
         <v>0.6972059591576192</v>
@@ -24426,7 +24426,7 @@
         <v>444</v>
       </c>
       <c r="C13">
-        <v>0.0001382298316942572</v>
+        <v>0.1314651903388462</v>
       </c>
       <c r="D13">
         <v>0.6957036598897353</v>
@@ -24440,7 +24440,7 @@
         <v>448</v>
       </c>
       <c r="C14">
-        <v>0.0001147324394211098</v>
+        <v>0.1260888871698561</v>
       </c>
       <c r="D14">
         <v>0.6940895320448187</v>
@@ -24454,7 +24454,7 @@
         <v>452</v>
       </c>
       <c r="C15">
-        <v>9.471727299407992E-05</v>
+        <v>0.1208018923607481</v>
       </c>
       <c r="D15">
         <v>0.6923570071624426</v>
@@ -24468,7 +24468,7 @@
         <v>456</v>
       </c>
       <c r="C16">
-        <v>7.775587512906733E-05</v>
+        <v>0.1156067352983706</v>
       </c>
       <c r="D16">
         <v>0.690499112352927</v>
@@ -24482,7 +24482,7 @@
         <v>460</v>
       </c>
       <c r="C17">
-        <v>6.34593642059756E-05</v>
+        <v>0.1105058945704346</v>
       </c>
       <c r="D17">
         <v>0.6885084431021821</v>
@@ -24496,7 +24496,7 @@
         <v>464</v>
       </c>
       <c r="C18">
-        <v>5.147645286087446E-05</v>
+        <v>0.1055017975437685</v>
       </c>
       <c r="D18">
         <v>0.6863771342487213</v>
@@ -24510,7 +24510,7 @@
         <v>468</v>
       </c>
       <c r="C19">
-        <v>4.149138911525753E-05</v>
+        <v>0.1005968198304298</v>
       </c>
       <c r="D19">
         <v>0.6840968290401015</v>
@@ -24524,7 +24524,7 @@
         <v>472</v>
       </c>
       <c r="C20">
-        <v>3.322183710334438E-05</v>
+        <v>0.09579328459907405</v>
       </c>
       <c r="D20">
         <v>0.6816586461806341</v>
@@ -24538,7 +24538,7 @@
         <v>476</v>
       </c>
       <c r="C21">
-        <v>2.641671526640577E-05</v>
+        <v>0.09109346168413525</v>
       </c>
       <c r="D21">
         <v>0.679053144790004</v>
@@ -24552,7 +24552,7 @@
         <v>480</v>
       </c>
       <c r="C22">
-        <v>2.085401042027142E-05</v>
+        <v>0.08649956644001904</v>
       </c>
       <c r="D22">
         <v>0.676270287204322</v>
@@ -24566,7 +24566,7 @@
         <v>484</v>
       </c>
       <c r="C23">
-        <v>1.633858634472578E-05</v>
+        <v>0.082013758281673</v>
       </c>
       <c r="D23">
         <v>0.6732993995683388</v>
@@ -24580,7 +24580,7 @@
         <v>488</v>
       </c>
       <c r="C24">
-        <v>1.270000547306641E-05</v>
+        <v>0.07763813884653695</v>
       </c>
       <c r="D24">
         <v>0.6701291301914492</v>
@@ -24594,7 +24594,7 @@
         <v>492</v>
       </c>
       <c r="C25">
-        <v>9.790381865228872E-06</v>
+        <v>0.07337474970600355</v>
       </c>
       <c r="D25">
         <v>0.6667474056725629</v>
@@ -24608,7 +24608,7 @@
         <v>496</v>
       </c>
       <c r="C26">
-        <v>7.482282925061721E-06</v>
+        <v>0.06922556954715359</v>
       </c>
       <c r="D26">
         <v>0.6631413848421522</v>
@@ -24622,7 +24622,7 @@
         <v>500</v>
       </c>
       <c r="C27">
-        <v>5.666696276991326E-06</v>
+        <v>0.06519251073773379</v>
       </c>
       <c r="D27">
         <v>0.6592974106266297</v>
@@ -24636,7 +24636,7 @@
         <v>504</v>
       </c>
       <c r="C28">
-        <v>4.251076864494015E-06</v>
+        <v>0.06127741517920865</v>
       </c>
       <c r="D28">
         <v>0.6552009600141858</v>
@@ -24650,7 +24650,7 @@
         <v>508</v>
       </c>
       <c r="C29">
-        <v>3.157487697554607E-06</v>
+        <v>0.05748204934440109</v>
       </c>
       <c r="D29">
         <v>0.6508365923967163</v>
@@ -24664,7 +24664,7 @@
         <v>512</v>
       </c>
       <c r="C30">
-        <v>2.320845793651031E-06</v>
+        <v>0.05380809838797657</v>
       </c>
       <c r="D30">
         <v>0.6461878966849919</v>
@@ -24678,7 +24678,7 @@
         <v>516</v>
       </c>
       <c r="C31">
-        <v>1.687282771234601E-06</v>
+        <v>0.0502571592101308</v>
       </c>
       <c r="D31">
         <v>0.6412374377506286</v>
@@ -24692,7 +24692,7 @@
         <v>520</v>
       </c>
       <c r="C32">
-        <v>1.212627319117688E-06</v>
+        <v>0.04683073234678845</v>
       </c>
       <c r="D32">
         <v>0.6359667029473185</v>
@@ -24706,7 +24706,7 @@
         <v>524</v>
       </c>
       <c r="C33">
-        <v>8.610144394904898E-07</v>
+        <v>0.04353021255398882</v>
       </c>
       <c r="D33">
         <v>0.6303560497159122</v>
@@ -24720,7 +24720,7 @@
         <v>528</v>
       </c>
       <c r="C34">
-        <v>6.036240112551743E-07</v>
+        <v>0.04035687795074679</v>
       </c>
       <c r="D34">
         <v>0.6243846555968486</v>
@@ -24734,7 +24734,7 @@
         <v>532</v>
       </c>
       <c r="C35">
-        <v>4.175489112239165E-07</v>
+        <v>0.03731187758453453</v>
       </c>
       <c r="D35">
         <v>0.618030472376052</v>
@@ -24748,7 +24748,7 @@
         <v>536</v>
       </c>
       <c r="C36">
-        <v>2.847907303784528E-07</v>
+        <v>0.03439621728796784</v>
       </c>
       <c r="D36">
         <v>0.6112701865981365</v>
@@ -24762,7 +24762,7 @@
         <v>540</v>
       </c>
       <c r="C37">
-        <v>1.913790943696951E-07</v>
+        <v>0.03161074370590859</v>
       </c>
       <c r="D37">
         <v>0.6040791893205929</v>
@@ -24776,7 +24776,7 @@
         <v>544</v>
       </c>
       <c r="C38">
-        <v>1.266087988804395E-07</v>
+        <v>0.02895612639101004</v>
       </c>
       <c r="D38">
         <v>0.5964315587887293</v>
@@ -24790,7 +24790,7 @@
         <v>548</v>
       </c>
       <c r="C39">
-        <v>8.238744920726329E-08</v>
+        <v>0.02643283789513987</v>
       </c>
       <c r="D39">
         <v>0.5883000607270699</v>
@@ -24804,7 +24804,7 @@
         <v>552</v>
       </c>
       <c r="C40">
-        <v>5.268508542280634E-08</v>
+        <v>0.02404113182689774</v>
       </c>
       <c r="D40">
         <v>0.5796561722242349</v>
@@ -24818,7 +24818,7 @@
         <v>556</v>
       </c>
       <c r="C41">
-        <v>3.307640193793356E-08</v>
+        <v>0.02178101890480625</v>
       </c>
       <c r="D41">
         <v>0.5704701368067234</v>
@@ -24832,7 +24832,7 @@
         <v>560</v>
       </c>
       <c r="C42">
-        <v>2.036564036355305E-08</v>
+        <v>0.01965224111518262</v>
       </c>
       <c r="D42">
         <v>0.5607110603453248</v>
@@ -24846,7 +24846,7 @@
         <v>564</v>
       </c>
       <c r="C43">
-        <v>1.2284039122202E-08</v>
+        <v>0.01765424418684155</v>
       </c>
       <c r="D43">
         <v>0.5503470600379143</v>
@@ -24860,7 +24860,7 @@
         <v>568</v>
       </c>
       <c r="C44">
-        <v>7.249839473558475E-09</v>
+        <v>0.01578614872515384</v>
       </c>
       <c r="D44">
         <v>0.5393454820257717</v>
@@ -24874,7 +24874,7 @@
         <v>572</v>
       </c>
       <c r="C45">
-        <v>4.181239679605093E-09</v>
+        <v>0.01404672050852734</v>
       </c>
       <c r="D45">
         <v>0.5276732074452216</v>
@@ -24888,7 +24888,7 @@
         <v>576</v>
       </c>
       <c r="C46">
-        <v>2.353310652122836E-09</v>
+        <v>0.01243434064277799</v>
       </c>
       <c r="D46">
         <v>0.5152970721917915</v>
@@ -24902,7 +24902,7 @@
         <v>580</v>
       </c>
       <c r="C47">
-        <v>1.290684075397725E-09</v>
+        <v>0.01094697649256763</v>
       </c>
       <c r="D47">
         <v>0.5021844328011894</v>
@@ -24916,7 +24916,7 @@
         <v>584</v>
       </c>
       <c r="C48">
-        <v>6.887406290598661E-10</v>
+        <v>0.009582154559811493</v>
       </c>
       <c r="D48">
         <v>0.4883039202378761</v>
@@ -24930,7 +24930,7 @@
         <v>588</v>
       </c>
       <c r="C49">
-        <v>3.570048097260939E-10</v>
+        <v>0.008336936746361259</v>
       </c>
       <c r="D49">
         <v>0.4736264359318165</v>
@@ -24944,7 +24944,7 @@
         <v>592</v>
       </c>
       <c r="C50">
-        <v>1.794411751414452E-10</v>
+        <v>0.0072079017019947</v>
       </c>
       <c r="D50">
         <v>0.4581264615073671</v>
@@ -24958,7 +24958,7 @@
         <v>596</v>
       </c>
       <c r="C51">
-        <v>8.729887710477906E-11</v>
+        <v>0.00619113318077493</v>
       </c>
       <c r="D51">
         <v>0.4417837775198107</v>
@@ -24972,7 +24972,7 @@
         <v>600</v>
       </c>
       <c r="C52">
-        <v>4.103073258310525E-11</v>
+        <v>0.005282217436866802</v>
       </c>
       <c r="D52">
         <v>0.4245857208141011</v>
@@ -24986,7 +24986,7 @@
         <v>604</v>
       </c>
       <c r="C53">
-        <v>1.8594093694823E-11</v>
+        <v>0.004476251538252272</v>
       </c>
       <c r="D53">
         <v>0.4065301611193446</v>
@@ -25000,7 +25000,7 @@
         <v>608</v>
       </c>
       <c r="C54">
-        <v>8.108617825500308E-12</v>
+        <v>0.003767863739082482</v>
       </c>
       <c r="D54">
         <v>0.387629456338198</v>
@@ -25014,7 +25014,7 @@
         <v>612</v>
       </c>
       <c r="C55">
-        <v>3.396074206220673E-12</v>
+        <v>0.003151244944903864</v>
       </c>
       <c r="D55">
         <v>0.3679157731914503</v>
@@ -25028,7 +25028,7 @@
         <v>616</v>
       </c>
       <c r="C56">
-        <v>1.36351381512135E-12</v>
+        <v>0.002620184782857309</v>
       </c>
       <c r="D56">
         <v>0.3474483744006509</v>
@@ -25042,7 +25042,7 @@
         <v>620</v>
       </c>
       <c r="C57">
-        <v>5.239150945548118E-13</v>
+        <v>0.002168091144982091</v>
       </c>
       <c r="D57">
         <v>0.326323851500274</v>
@@ -25056,7 +25056,7 @@
         <v>624</v>
       </c>
       <c r="C58">
-        <v>1.923669874280453E-13</v>
+        <v>0.001787931527943811</v>
       </c>
       <c r="D58">
         <v>0.3046909744434664</v>
@@ -25070,7 +25070,7 @@
         <v>628</v>
       </c>
       <c r="C59">
-        <v>6.73883391928601E-14</v>
+        <v>0.001471917005608928</v>
       </c>
       <c r="D59">
         <v>0.2827731295499837</v>
@@ -25084,7 +25084,7 @@
         <v>632</v>
       </c>
       <c r="C60">
-        <v>2.24549679449452E-14</v>
+        <v>0.001210403497746083</v>
       </c>
       <c r="D60">
         <v>0.2609037338539464</v>
@@ -25098,7 +25098,7 @@
         <v>636</v>
       </c>
       <c r="C61">
-        <v>7.048386190093163E-15</v>
+        <v>0.0009885647842640215</v>
       </c>
       <c r="D61">
         <v>0.2395838938562938</v>
@@ -25112,7 +25112,7 @@
         <v>640</v>
       </c>
       <c r="C62">
-        <v>2.014242831546599E-15</v>
+        <v>0.0007784225805400995</v>
       </c>
       <c r="D62">
         <v>0.2195724662057135</v>
@@ -25126,7 +25126,7 @@
         <v>644</v>
       </c>
       <c r="C63">
-        <v>4.731072504105344E-16</v>
+        <v>0.0005359811364219604</v>
       </c>
       <c r="D63">
         <v>0.2019659242081821</v>
@@ -25140,7 +25140,7 @@
         <v>648</v>
       </c>
       <c r="C64">
-        <v>7.558539188046878E-17</v>
+        <v>0.0002683073349599191</v>
       </c>
       <c r="D64">
         <v>0.1876358159804474</v>
@@ -25154,7 +25154,7 @@
         <v>652</v>
       </c>
       <c r="C65">
-        <v>7.538260137578335E-18</v>
+        <v>9.015157907105041E-05</v>
       </c>
       <c r="D65">
         <v>0.1697229652669296</v>
@@ -25168,7 +25168,7 @@
         <v>656</v>
       </c>
       <c r="C66">
-        <v>4.974842577311616E-19</v>
+        <v>2.172001098405463E-05</v>
       </c>
       <c r="D66">
         <v>0.0966714308884298</v>
@@ -25182,7 +25182,7 @@
         <v>660</v>
       </c>
       <c r="C67">
-        <v>5.95582643976129E-21</v>
+        <v>1.036899392570811E-06</v>
       </c>
       <c r="D67">
         <v>0.010894930699963</v>
@@ -25196,7 +25196,7 @@
         <v>664</v>
       </c>
       <c r="C68">
-        <v>1.031828573090305E-24</v>
+        <v>7.887470703812174E-10</v>
       </c>
       <c r="D68">
         <v>0.0001605613865939544</v>
@@ -25210,7 +25210,7 @@
         <v>668</v>
       </c>
       <c r="C69">
-        <v>3.18846734051886E-25</v>
+        <v>1.189877563705608E-09</v>
       </c>
       <c r="D69">
         <v>0.0003527761941870354</v>
@@ -25224,7 +25224,7 @@
         <v>672</v>
       </c>
       <c r="C70">
-        <v>5.555887141876724E-25</v>
+        <v>1.137842641329233E-08</v>
       </c>
       <c r="D70">
         <v>0.002354160476112369</v>
@@ -25238,7 +25238,7 @@
         <v>676</v>
       </c>
       <c r="C71">
-        <v>3.368323859696248E-25</v>
+        <v>4.308797390616568E-08</v>
       </c>
       <c r="D71">
         <v>0.008513808349289349</v>
@@ -25252,7 +25252,7 @@
         <v>680</v>
       </c>
       <c r="C72">
-        <v>9.886022269330577E-26</v>
+        <v>9.119157900572238E-08</v>
       </c>
       <c r="D72">
         <v>0.02118913753160018</v>
@@ -25266,7 +25266,7 @@
         <v>684</v>
       </c>
       <c r="C73">
-        <v>1.738206973662595E-26</v>
+        <v>1.356740446428535E-07</v>
       </c>
       <c r="D73">
         <v>0.04239652038422285</v>
@@ -25280,7 +25280,7 @@
         <v>688</v>
       </c>
       <c r="C74">
-        <v>2.016376947625591E-27</v>
+        <v>1.592520003139443E-07</v>
       </c>
       <c r="D74">
         <v>0.07381866565231619</v>
@@ -25294,7 +25294,7 @@
         <v>692</v>
       </c>
       <c r="C75">
-        <v>1.604317574256823E-28</v>
+        <v>1.566987224538271E-07</v>
       </c>
       <c r="D75">
         <v>0.1167468066908238</v>
@@ -25308,7 +25308,7 @@
         <v>696</v>
       </c>
       <c r="C76">
-        <v>8.822787149324677E-30</v>
+        <v>1.33612005289923E-07</v>
       </c>
       <c r="D76">
         <v>0.1719284656205884</v>
@@ -25322,7 +25322,7 @@
         <v>700</v>
       </c>
       <c r="C77">
-        <v>3.314060260604133E-31</v>
+        <v>1.005151132164921E-07</v>
       </c>
       <c r="D77">
         <v>0.2393407241860556</v>
@@ -25336,7 +25336,7 @@
         <v>704</v>
       </c>
       <c r="C78">
-        <v>8.279851547615708E-33</v>
+        <v>6.729552963042739E-08</v>
       </c>
       <c r="D78">
         <v>0.3179203246409504</v>
@@ -25350,7 +25350,7 @@
         <v>708</v>
       </c>
       <c r="C79">
-        <v>1.322573560609086E-34</v>
+        <v>4.018896973086592E-08</v>
       </c>
       <c r="D79">
         <v>0.4053000567513252</v>
@@ -25364,7 +25364,7 @@
         <v>712</v>
       </c>
       <c r="C80">
-        <v>1.281343704442355E-36</v>
+        <v>2.13527530941843E-08</v>
       </c>
       <c r="D80">
         <v>0.4976270501016056</v>
@@ -25378,7 +25378,7 @@
         <v>716</v>
       </c>
       <c r="C81">
-        <v>7.038875195388625E-39</v>
+        <v>1.002340903146244E-08</v>
       </c>
       <c r="D81">
         <v>0.5895633476313412</v>
@@ -25392,7 +25392,7 @@
         <v>720</v>
       </c>
       <c r="C82">
-        <v>2.014241720774428E-41</v>
+        <v>4.110847083385474E-09</v>
       </c>
       <c r="D82">
         <v>0.6745744065815449</v>
@@ -25406,7 +25406,7 @@
         <v>724</v>
       </c>
       <c r="C83">
-        <v>2.699615033184465E-44</v>
+        <v>1.449857059984618E-09</v>
       </c>
       <c r="D83">
         <v>0.7455734879495505</v>
@@ -25420,7 +25420,7 @@
         <v>728</v>
       </c>
       <c r="C84">
-        <v>1.482284058693787E-47</v>
+        <v>4.30475690518798E-10</v>
       </c>
       <c r="D84">
         <v>0.7958936376885862</v>
@@ -25434,7 +25434,7 @@
         <v>732</v>
       </c>
       <c r="C85">
-        <v>2.813408825184055E-51</v>
+        <v>1.046170255360222E-10</v>
       </c>
       <c r="D85">
         <v>0.8204186090199993</v>
@@ -25448,7 +25448,7 @@
         <v>736</v>
       </c>
       <c r="C86">
-        <v>1.484455193350462E-55</v>
+        <v>2.0056721514347E-11</v>
       </c>
       <c r="D86">
         <v>0.8165788331428289</v>
@@ -25462,7 +25462,7 @@
         <v>740</v>
       </c>
       <c r="C87">
-        <v>1.639867308911883E-60</v>
+        <v>2.889091963122882E-12</v>
       </c>
       <c r="D87">
         <v>0.7848926722054296</v>
@@ -25476,7 +25476,7 @@
         <v>744</v>
       </c>
       <c r="C88">
-        <v>2.606480825526574E-66</v>
+        <v>2.929889759696903E-13</v>
       </c>
       <c r="D88">
         <v>0.728856050126552</v>
@@ -25490,7 +25490,7 @@
         <v>748</v>
       </c>
       <c r="C89">
-        <v>3.592842835908005E-73</v>
+        <v>1.915026824960996E-14</v>
       </c>
       <c r="D89">
         <v>0.6542134638073727</v>
@@ -25504,7 +25504,7 @@
         <v>752</v>
       </c>
       <c r="C90">
-        <v>2.133771713244138E-81</v>
+        <v>7.137529904020687E-16</v>
       </c>
       <c r="D90">
         <v>0.5678598764429955</v>
@@ -25518,7 +25518,7 @@
         <v>756</v>
       </c>
       <c r="C91">
-        <v>2.020595298497783E-91</v>
+        <v>1.274219029575561E-17</v>
       </c>
       <c r="D91">
         <v>0.4767127273909247</v>
@@ -25532,7 +25532,7 @@
         <v>760</v>
       </c>
       <c r="C92">
-        <v>7.080540827654843E-104</v>
+        <v>8.430770667238308E-20</v>
       </c>
       <c r="D92">
         <v>0.3868312839412172</v>
@@ -25546,7 +25546,7 @@
         <v>764</v>
       </c>
       <c r="C93">
-        <v>9.813380150237762E-120</v>
+        <v>1.395772069139198E-22</v>
       </c>
       <c r="D93">
         <v>0.3029121231969721</v>
@@ -25560,7 +25560,7 @@
         <v>768</v>
       </c>
       <c r="C94">
-        <v>1.467464682636556E-140</v>
+        <v>3.070984537838483E-26</v>
       </c>
       <c r="D94">
         <v>0.2281454782143844</v>
@@ -25574,7 +25574,7 @@
         <v>772</v>
       </c>
       <c r="C95">
-        <v>4.849060038266414E-169</v>
+        <v>3.026865932194563E-31</v>
       </c>
       <c r="D95">
         <v>0.1643327098151536</v>
@@ -25588,7 +25588,7 @@
         <v>776</v>
       </c>
       <c r="C96">
-        <v>3.258711343831189E-210</v>
+        <v>1.744741567089867E-38</v>
       </c>
       <c r="D96">
         <v>0.1121454893513176</v>
@@ -25602,7 +25602,7 @@
         <v>780</v>
       </c>
       <c r="C97">
-        <v>1.060844857047298E-274</v>
+        <v>8.039928502328433E-50</v>
       </c>
       <c r="D97">
         <v>0.0714280196926637</v>
@@ -25616,7 +25616,7 @@
         <v>784</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>6.153960716617156E-70</v>
       </c>
       <c r="D98">
         <v>0.04146777942251659</v>
@@ -25630,7 +25630,7 @@
         <v>788</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>2.082286474865045E-114</v>
       </c>
       <c r="D99">
         <v>0.02098522994108023</v>
@@ -25644,7 +25644,7 @@
         <v>792</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>6.088020289799009E-263</v>
       </c>
       <c r="D100">
         <v>0.004465500328856461</v>
@@ -26274,7 +26274,7 @@
         <v>972</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>6.858345569580081E-290</v>
       </c>
       <c r="D145">
         <v>0.6640790931860824</v>
@@ -26288,7 +26288,7 @@
         <v>976</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>5.687429097055151E-120</v>
       </c>
       <c r="D146">
         <v>0.6725435342933316</v>
@@ -26302,7 +26302,7 @@
         <v>980</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>2.892731163774209E-71</v>
       </c>
       <c r="D147">
         <v>0.6807745122175481</v>
@@ -26316,7 +26316,7 @@
         <v>984</v>
       </c>
       <c r="C148">
-        <v>1.796642397573343E-281</v>
+        <v>6.770994290671306E-50</v>
       </c>
       <c r="D148">
         <v>0.6887813444831219</v>
@@ -26330,7 +26330,7 @@
         <v>988</v>
       </c>
       <c r="C149">
-        <v>7.501703618363579E-214</v>
+        <v>4.746666362294582E-38</v>
       </c>
       <c r="D149">
         <v>0.6965729028935764</v>
@@ -26344,7 +26344,7 @@
         <v>992</v>
       </c>
       <c r="C150">
-        <v>4.319648386301086E-171</v>
+        <v>1.4653907318148E-30</v>
       </c>
       <c r="D150">
         <v>0.7041576310311601</v>
@@ -26358,7 +26358,7 @@
         <v>996</v>
       </c>
       <c r="C151">
-        <v>1.064001952146489E-141</v>
+        <v>2.055073618956408E-25</v>
       </c>
       <c r="D151">
         <v>0.7115435619377452</v>
@@ -26372,7 +26372,7 @@
         <v>1000</v>
       </c>
       <c r="C152">
-        <v>2.647061419436791E-120</v>
+        <v>1.144390617476546E-21</v>
       </c>
       <c r="D152">
         <v>0.7187383357676289</v>
@@ -26386,7 +26386,7 @@
         <v>1004</v>
       </c>
       <c r="C153">
-        <v>4.611555934685128E-104</v>
+        <v>7.962868756356159E-19</v>
       </c>
       <c r="D153">
         <v>0.725749217248693</v>
@@ -26400,7 +26400,7 @@
         <v>1008</v>
       </c>
       <c r="C154">
-        <v>2.46116964574628E-91</v>
+        <v>1.342468054351604E-16</v>
       </c>
       <c r="D154">
         <v>0.7325831128258505</v>
@@ -26414,7 +26414,7 @@
         <v>1012</v>
       </c>
       <c r="C155">
-        <v>4.147934297870273E-81</v>
+        <v>8.253728383643459E-15</v>
       </c>
       <c r="D155">
         <v>0.739246587391266</v>
@@ -26428,7 +26428,7 @@
         <v>1016</v>
       </c>
       <c r="C156">
-        <v>1.006839721510913E-72</v>
+        <v>2.414415171453839E-13</v>
       </c>
       <c r="D156">
         <v>0.7457458805306887</v>
@@ -26442,7 +26442,7 @@
         <v>1020</v>
       </c>
       <c r="C157">
-        <v>9.852176946265231E-66</v>
+        <v>4.024658242852337E-12</v>
       </c>
       <c r="D157">
         <v>0.7520869222353787</v>
@@ -26456,7 +26456,7 @@
         <v>1024</v>
       </c>
       <c r="C158">
-        <v>8.004476033311258E-60</v>
+        <v>4.339012272693473E-11</v>
       </c>
       <c r="D158">
         <v>0.7582753480453751</v>
@@ -26470,7 +26470,7 @@
         <v>1028</v>
       </c>
       <c r="C159">
-        <v>9.100117278590074E-55</v>
+        <v>3.315281032530568E-10</v>
       </c>
       <c r="D159">
         <v>0.7643165136029286</v>
@@ -26484,7 +26484,7 @@
         <v>1032</v>
       </c>
       <c r="C160">
-        <v>2.130455026433259E-50</v>
+        <v>1.920962348298903E-09</v>
       </c>
       <c r="D160">
         <v>0.7702155086053627</v>
@@ -26498,7 +26498,7 @@
         <v>1036</v>
       </c>
       <c r="C161">
-        <v>1.375443012911234E-46</v>
+        <v>8.883987678609122E-09</v>
       </c>
       <c r="D161">
         <v>0.7759771701549132</v>
@@ -26512,7 +26512,7 @@
         <v>1040</v>
       </c>
       <c r="C162">
-        <v>3.066083195554417E-43</v>
+        <v>3.411066347484571E-08</v>
       </c>
       <c r="D162">
         <v>0.781606095509608</v>
@@ -26526,7 +26526,7 @@
         <v>1044</v>
       </c>
       <c r="C163">
-        <v>2.813495248272316E-40</v>
+        <v>1.121344838488661E-07</v>
       </c>
       <c r="D163">
         <v>0.7871066542443022</v>
@@ -26540,7 +26540,7 @@
         <v>1048</v>
       </c>
       <c r="C164">
-        <v>1.221756612623555E-37</v>
+        <v>3.23415434419793E-07</v>
       </c>
       <c r="D164">
         <v>0.7924829998348564</v>
@@ -26554,7 +26554,7 @@
         <v>1052</v>
       </c>
       <c r="C165">
-        <v>2.808225839737641E-35</v>
+        <v>8.345862944519105E-07</v>
       </c>
       <c r="D165">
         <v>0.7977390806813455</v>
@@ -26568,7 +26568,7 @@
         <v>1056</v>
       </c>
       <c r="C166">
-        <v>3.741839811014373E-33</v>
+        <v>1.957881316850981E-06</v>
       </c>
       <c r="D166">
         <v>0.8028786505882926</v>
@@ -26582,7 +26582,7 @@
         <v>1060</v>
       </c>
       <c r="C167">
-        <v>3.114202193909865E-31</v>
+        <v>4.230373726181705E-06</v>
       </c>
       <c r="D167">
         <v>0.8079052787214004</v>
@@ -26596,7 +26596,7 @@
         <v>1064</v>
       </c>
       <c r="C168">
-        <v>1.722039652546907E-29</v>
+        <v>8.510284618152553E-06</v>
       </c>
       <c r="D168">
         <v>0.8128223590612043</v>
@@ -26610,7 +26610,7 @@
         <v>1068</v>
       </c>
       <c r="C169">
-        <v>6.661452478523805E-28</v>
+        <v>1.60842874288082E-05</v>
       </c>
       <c r="D169">
         <v>0.8176331193746169</v>
@@ -26624,7 +26624,7 @@
         <v>1072</v>
       </c>
       <c r="C170">
-        <v>1.882615758395655E-26</v>
+        <v>2.877718536938396E-05</v>
       </c>
       <c r="D170">
         <v>0.8223406297255467</v>
@@ -26638,7 +26638,7 @@
         <v>1076</v>
       </c>
       <c r="C171">
-        <v>4.032527292231471E-25</v>
+        <v>4.905409193900301E-05</v>
       </c>
       <c r="D171">
         <v>0.8269478105457271</v>
@@ -26652,7 +26652,7 @@
         <v>1080</v>
       </c>
       <c r="C172">
-        <v>6.754880034329746E-24</v>
+        <v>8.010545167284781E-05</v>
       </c>
       <c r="D172">
         <v>0.8314574402866398</v>
@@ -26666,7 +26666,7 @@
         <v>1084</v>
       </c>
       <c r="C173">
-        <v>9.089634552309165E-23</v>
+        <v>0.0001259067333070402</v>
       </c>
       <c r="D173">
         <v>0.8358721626730069</v>
@@ -26680,7 +26680,7 @@
         <v>1088</v>
       </c>
       <c r="C174">
-        <v>1.005588638213797E-21</v>
+        <v>0.0001912470315024835</v>
       </c>
       <c r="D174">
         <v>0.8401944935778056</v>
@@ -26694,7 +26694,7 @@
         <v>1092</v>
       </c>
       <c r="C175">
-        <v>9.331568836864988E-21</v>
+        <v>0.0002817236633768637</v>
       </c>
       <c r="D175">
         <v>0.8444268275381345</v>
@@ -26708,7 +26708,7 @@
         <v>1096</v>
       </c>
       <c r="C176">
-        <v>7.391589444492935E-20</v>
+        <v>0.0004037027045716967</v>
       </c>
       <c r="D176">
         <v>0.8485714439305883</v>
@@ -26722,7 +26722,7 @@
         <v>1100</v>
       </c>
       <c r="C177">
-        <v>5.07465533737963E-19</v>
+        <v>0.0005642479333572942</v>
       </c>
       <c r="D177">
         <v>0.8526305128240775</v>
@@ -26736,7 +26736,7 @@
         <v>1104</v>
       </c>
       <c r="C178">
-        <v>3.060476698819557E-18</v>
+        <v>0.0007710226213161001</v>
       </c>
       <c r="D178">
         <v>0.8566061005272776</v>
@@ -26750,7 +26750,7 @@
         <v>1108</v>
       </c>
       <c r="C179">
-        <v>1.640678981963853E-17</v>
+        <v>0.001032169928254075</v>
       </c>
       <c r="D179">
         <v>0.8605001748471404</v>
@@ -26764,7 +26764,7 @@
         <v>1112</v>
       </c>
       <c r="C180">
-        <v>7.900535158086603E-17</v>
+        <v>0.001356178330272365</v>
       </c>
       <c r="D180">
         <v>0.8643146100741326</v>
@@ -26778,7 +26778,7 @@
         <v>1116</v>
       </c>
       <c r="C181">
-        <v>3.449246530297985E-16</v>
+        <v>0.001751738606975644</v>
       </c>
       <c r="D181">
         <v>0.868051191709115</v>
@@ -26792,7 +26792,7 @@
         <v>1120</v>
       </c>
       <c r="C182">
-        <v>1.376645653377525E-15</v>
+        <v>0.002227598550724213</v>
       </c>
       <c r="D182">
         <v>0.8717116209460306</v>
@@ -26806,7 +26806,7 @@
         <v>1124</v>
       </c>
       <c r="C183">
-        <v>5.060140460721102E-15</v>
+        <v>0.002792420866982968</v>
       </c>
       <c r="D183">
         <v>0.8752975189238461</v>
@@ -26820,7 +26820,7 @@
         <v>1128</v>
       </c>
       <c r="C184">
-        <v>1.724343275061979E-14</v>
+        <v>0.003454648836020252</v>
       </c>
       <c r="D184">
         <v>0.8788104307604859</v>
@@ -26834,7 +26834,7 @@
         <v>1132</v>
       </c>
       <c r="C185">
-        <v>5.4801407635461E-14</v>
+        <v>0.004222383312871949</v>
       </c>
       <c r="D185">
         <v>0.8822518293808154</v>
@@ -26848,7 +26848,7 @@
         <v>1136</v>
       </c>
       <c r="C186">
-        <v>1.6330373424247E-13</v>
+        <v>0.005103273643454832</v>
       </c>
       <c r="D186">
         <v>0.8856231191500765</v>
@@ -26862,7 +26862,7 @@
         <v>1140</v>
       </c>
       <c r="C187">
-        <v>4.585013774783126E-13</v>
+        <v>0.00610442413554573</v>
       </c>
       <c r="D187">
         <v>0.8889256393235524</v>
@@ -26876,7 +26876,7 @@
         <v>1144</v>
       </c>
       <c r="C188">
-        <v>1.218230598699386E-12</v>
+        <v>0.007232316887568938</v>
       </c>
       <c r="D188">
         <v>0.8921606673226297</v>
@@ -26890,7 +26890,7 @@
         <v>1148</v>
       </c>
       <c r="C189">
-        <v>3.075318954044284E-12</v>
+        <v>0.008492751070255067</v>
       </c>
       <c r="D189">
         <v>0.8953294218468602</v>
@@ -26904,7 +26904,7 @@
         <v>1152</v>
       </c>
       <c r="C190">
-        <v>7.402750611559585E-12</v>
+        <v>0.009890798185504044</v>
       </c>
       <c r="D190">
         <v>0.8984330658310761</v>
@@ -26918,7 +26918,7 @@
         <v>1156</v>
       </c>
       <c r="C191">
-        <v>1.704782776265846E-11</v>
+        <v>0.01143077239109645</v>
       </c>
       <c r="D191">
         <v>0.901472709256089</v>
@@ -26932,7 +26932,7 @@
         <v>1160</v>
       </c>
       <c r="C192">
-        <v>3.767244584216366E-11</v>
+        <v>0.01311621466935218</v>
       </c>
       <c r="D192">
         <v>0.9044494118210206</v>
@@ -26946,7 +26946,7 @@
         <v>1164</v>
       </c>
       <c r="C193">
-        <v>8.010351543032652E-11</v>
+        <v>0.01494988941778837</v>
       </c>
       <c r="D193">
         <v>0.9073641854848341</v>
@@ -26960,7 +26960,7 @@
         <v>1168</v>
       </c>
       <c r="C194">
-        <v>1.643032954178435E-10</v>
+        <v>0.016933791933283</v>
       </c>
       <c r="D194">
         <v>0.9102179968842061</v>
@@ -26974,7 +26974,7 @@
         <v>1172</v>
       </c>
       <c r="C195">
-        <v>3.258455396737509E-10</v>
+        <v>0.01906916523068145</v>
       </c>
       <c r="D195">
         <v>0.9130117696344532</v>
@@ -26988,7 +26988,7 @@
         <v>1176</v>
       </c>
       <c r="C196">
-        <v>6.261390858723497E-10</v>
+        <v>0.02135652466537175</v>
       </c>
       <c r="D196">
         <v>0.9157463865198366</v>
@@ -27002,7 +27002,7 @@
         <v>1180</v>
       </c>
       <c r="C197">
-        <v>1.168080691889707E-09</v>
+        <v>0.02379568890180711</v>
       </c>
       <c r="D197">
         <v>0.9184226915791982</v>
@@ -27016,7 +27016,7 @@
         <v>1184</v>
       </c>
       <c r="C198">
-        <v>2.119342216097008E-09</v>
+        <v>0.02638581587292916</v>
       </c>
       <c r="D198">
         <v>0.9210414920925267</v>
@@ -27030,7 +27030,7 @@
         <v>1188</v>
       </c>
       <c r="C199">
-        <v>3.746094544091187E-09</v>
+        <v>0.02912544249772132</v>
       </c>
       <c r="D199">
         <v>0.9236035604737254</v>
@@ -27044,7 +27044,7 @@
         <v>1192</v>
       </c>
       <c r="C200">
-        <v>6.46062413517816E-09</v>
+        <v>0.0320125270566058</v>
       </c>
       <c r="D200">
         <v>0.9261096360745446</v>
@@ -27058,7 +27058,7 @@
         <v>1196</v>
       </c>
       <c r="C201">
-        <v>1.088698089167563E-08</v>
+        <v>0.03504449325993832</v>
       </c>
       <c r="D201">
         <v>0.928560426904337</v>
@@ -27072,7 +27072,7 @@
         <v>1200</v>
       </c>
       <c r="C202">
-        <v>1.794947318627506E-08</v>
+        <v>0.03821827517808795</v>
       </c>
       <c r="D202">
         <v>0.9309566112700397</v>
@@ -27110,10 +27110,10 @@
         <v>400</v>
       </c>
       <c r="C2">
-        <v>0.7125685564444818</v>
+        <v>0.6338027460568973</v>
       </c>
       <c r="D2">
-        <v>0.001889063823987475</v>
+        <v>0.001889063823987476</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -27124,7 +27124,7 @@
         <v>404</v>
       </c>
       <c r="C3">
-        <v>0.711575812600636</v>
+        <v>0.6351405257627053</v>
       </c>
       <c r="D3">
         <v>0.001967107637338622</v>
@@ -27138,7 +27138,7 @@
         <v>408</v>
       </c>
       <c r="C4">
-        <v>0.710500101557181</v>
+        <v>0.6363196859962423</v>
       </c>
       <c r="D4">
         <v>0.002048691531767103</v>
@@ -27152,10 +27152,10 @@
         <v>412</v>
       </c>
       <c r="C5">
-        <v>0.7093395790309653</v>
+        <v>0.6373392117611831</v>
       </c>
       <c r="D5">
-        <v>0.002134010722490565</v>
+        <v>0.002134010722490564</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -27166,7 +27166,7 @@
         <v>416</v>
       </c>
       <c r="C6">
-        <v>0.7080921415543099</v>
+        <v>0.6381980288921435</v>
       </c>
       <c r="D6">
         <v>0.002223273453559787</v>
@@ -27180,7 +27180,7 @@
         <v>420</v>
       </c>
       <c r="C7">
-        <v>0.7067554134865789</v>
+        <v>0.6388949909550122</v>
       </c>
       <c r="D7">
         <v>0.002316702023686272</v>
@@ -27194,7 +27194,7 @@
         <v>424</v>
       </c>
       <c r="C8">
-        <v>0.7053267337250493</v>
+        <v>0.6394288652669974</v>
       </c>
       <c r="D8">
         <v>0.002414533905728513</v>
@@ -27208,7 +27208,7 @@
         <v>428</v>
       </c>
       <c r="C9">
-        <v>0.7038031421213655</v>
+        <v>0.6397983179935327</v>
       </c>
       <c r="D9">
         <v>0.002517022969605803</v>
@@ -27222,7 +27222,7 @@
         <v>432</v>
       </c>
       <c r="C10">
-        <v>0.7021813656129861</v>
+        <v>0.640001898279581</v>
       </c>
       <c r="D10">
         <v>0.002624440819562401</v>
@@ -27236,10 +27236,10 @@
         <v>436</v>
       </c>
       <c r="C11">
-        <v>0.700457804083937</v>
+        <v>0.6400380213745306</v>
       </c>
       <c r="D11">
-        <v>0.002737078258011885</v>
+        <v>0.002737078258011886</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -27250,7 +27250,7 @@
         <v>440</v>
       </c>
       <c r="C12">
-        <v>0.698628515976321</v>
+        <v>0.6399049507132194</v>
       </c>
       <c r="D12">
         <v>0.00285524688967569</v>
@@ -27264,7 +27264,7 @@
         <v>444</v>
       </c>
       <c r="C13">
-        <v>0.6966892036840295</v>
+        <v>0.6396007789211531</v>
       </c>
       <c r="D13">
         <v>0.002979280881417722</v>
@@ -27278,7 +27278,7 @@
         <v>448</v>
       </c>
       <c r="C14">
-        <v>0.6946351987736615</v>
+        <v>0.6391234077203124</v>
       </c>
       <c r="D14">
         <v>0.00310953889510039</v>
@@ -27292,7 +27292,7 @@
         <v>452</v>
       </c>
       <c r="C15">
-        <v>0.6924614470956848</v>
+        <v>0.6384705267239049</v>
       </c>
       <c r="D15">
         <v>0.003246406212984112</v>
@@ -27306,7 +27306,7 @@
         <v>456</v>
       </c>
       <c r="C16">
-        <v>0.6901624938723796</v>
+        <v>0.6376395911249025</v>
       </c>
       <c r="D16">
         <v>0.003390297077706642</v>
@@ -27320,7 +27320,7 @@
         <v>460</v>
       </c>
       <c r="C17">
-        <v>0.6877324688793903</v>
+        <v>0.6366277983054793</v>
       </c>
       <c r="D17">
         <v>0.00354165727176304</v>
@@ -27334,7 +27334,7 @@
         <v>464</v>
       </c>
       <c r="C18">
-        <v>0.6851650718762859</v>
+        <v>0.6354320634239885</v>
       </c>
       <c r="D18">
         <v>0.003700966964724721</v>
@@ -27348,7 +27348,7 @@
         <v>468</v>
       </c>
       <c r="C19">
-        <v>0.6824535584901839</v>
+        <v>0.6340489940746695</v>
       </c>
       <c r="D19">
         <v>0.003868743860262324</v>
@@ -27362,7 +27362,7 @@
         <v>472</v>
       </c>
       <c r="C20">
-        <v>0.6795907268174488</v>
+        <v>0.6324748641651865</v>
       </c>
       <c r="D20">
         <v>0.004045546679462535</v>
@@ -27376,7 +27376,7 @@
         <v>476</v>
       </c>
       <c r="C21">
-        <v>0.6765689050843502</v>
+        <v>0.6307055872210663</v>
       </c>
       <c r="D21">
         <v>0.004231979022063691</v>
@@ -27390,7 +27390,7 @@
         <v>480</v>
       </c>
       <c r="C22">
-        <v>0.6733799408014598</v>
+        <v>0.6287366894075465</v>
       </c>
       <c r="D22">
         <v>0.00442869365321239</v>
@@ -27404,10 +27404,10 @@
         <v>484</v>
       </c>
       <c r="C23">
-        <v>0.670015191962364</v>
+        <v>0.6265632826624816</v>
       </c>
       <c r="D23">
-        <v>0.004636397270327546</v>
+        <v>0.004636397270327547</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -27418,7 +27418,7 @@
         <v>488</v>
       </c>
       <c r="C24">
-        <v>0.6664655209794493</v>
+        <v>0.6241800384638697</v>
       </c>
       <c r="D24">
         <v>0.004855855812850742</v>
@@ -27432,7 +27432,7 @@
         <v>492</v>
       </c>
       <c r="C25">
-        <v>0.6627212922236806</v>
+        <v>0.6215811629186214</v>
       </c>
       <c r="D25">
         <v>0.005087900387313458</v>
@@ -27446,7 +27446,7 @@
         <v>496</v>
       </c>
       <c r="C26">
-        <v>0.6587723742481072</v>
+        <v>0.6187603740631364</v>
       </c>
       <c r="D26">
         <v>0.005333433891575201</v>
@@ -27460,7 +27460,7 @@
         <v>500</v>
       </c>
       <c r="C27">
-        <v>0.6546081480344855</v>
+        <v>0.6157108825206319</v>
       </c>
       <c r="D27">
         <v>0.005593438435677334</v>
@@ -27474,7 +27474,7 @@
         <v>504</v>
       </c>
       <c r="C28">
-        <v>0.6502175229188881</v>
+        <v>0.6124253769767769</v>
       </c>
       <c r="D28">
         <v>0.005868983673015944</v>
@@ -27488,7 +27488,7 @@
         <v>508</v>
       </c>
       <c r="C29">
-        <v>0.6455889622377703</v>
+        <v>0.6088960163285166</v>
       </c>
       <c r="D29">
         <v>0.006161236175107169</v>
@@ -27502,7 +27502,7 @@
         <v>512</v>
       </c>
       <c r="C30">
-        <v>0.6407105212059372</v>
+        <v>0.6051144308490414</v>
       </c>
       <c r="D30">
         <v>0.006471470006930961</v>
@@ -27516,7 +27516,7 @@
         <v>516</v>
       </c>
       <c r="C31">
-        <v>0.6355699001112151</v>
+        <v>0.6010717353170174</v>
       </c>
       <c r="D31">
         <v>0.006801078688781373</v>
@@ -27530,7 +27530,7 @@
         <v>520</v>
       </c>
       <c r="C32">
-        <v>0.6301545166114453</v>
+        <v>0.5967585578084648</v>
       </c>
       <c r="D32">
         <v>0.00715158876615671</v>
@@ -27544,7 +27544,7 @@
         <v>524</v>
       </c>
       <c r="C33">
-        <v>0.6244516017783063</v>
+        <v>0.5921650887802823</v>
       </c>
       <c r="D33">
         <v>0.007524675253405264</v>
@@ -27558,7 +27558,7 @@
         <v>528</v>
       </c>
       <c r="C34">
-        <v>0.6184483255891903</v>
+        <v>0.587281156230355</v>
       </c>
       <c r="D34">
         <v>0.007922179272180616</v>
@@ -27572,7 +27572,7 @@
         <v>532</v>
       </c>
       <c r="C35">
-        <v>0.6121319588749808</v>
+        <v>0.5820963341582865</v>
       </c>
       <c r="D35">
         <v>0.008346128275777444</v>
@@ -27586,7 +27586,7 @@
         <v>536</v>
       </c>
       <c r="C36">
-        <v>0.6054900803578208</v>
+        <v>0.5766000933488652</v>
       </c>
       <c r="D36">
         <v>0.00879875933997247</v>
@@ -27600,7 +27600,7 @@
         <v>540</v>
       </c>
       <c r="C37">
-        <v>0.598510839453551</v>
+        <v>0.5707820057582538</v>
       </c>
       <c r="D37">
         <v>0.009282546116882081</v>
@@ -27614,7 +27614,7 @@
         <v>544</v>
       </c>
       <c r="C38">
-        <v>0.591183288099799</v>
+        <v>0.5646320166375171</v>
       </c>
       <c r="D38">
         <v>0.009800230200184333</v>
@@ -27628,7 +27628,7 @@
         <v>548</v>
       </c>
       <c r="C39">
-        <v>0.5834977981885123</v>
+        <v>0.5581408021695691</v>
       </c>
       <c r="D39">
         <v>0.010354857851635</v>
@@ -27642,7 +27642,7 @@
         <v>552</v>
       </c>
       <c r="C40">
-        <v>0.5754465854986954</v>
+        <v>0.5513002350935714</v>
       </c>
       <c r="D40">
         <v>0.01094982331019345</v>
@@ -27656,7 +27656,7 @@
         <v>556</v>
       </c>
       <c r="C41">
-        <v>0.5670243667346681</v>
+        <v>0.5441039869368854</v>
       </c>
       <c r="D41">
         <v>0.01158892027585076</v>
@@ -27670,7 +27670,7 @@
         <v>560</v>
       </c>
       <c r="C42">
-        <v>0.5582291839658778</v>
+        <v>0.5365483036502824</v>
       </c>
       <c r="D42">
         <v>0.01227640367470024</v>
@@ -27684,7 +27684,7 @@
         <v>564</v>
       </c>
       <c r="C43">
-        <v>0.549063441332579</v>
+        <v>0.5286330025289773</v>
       </c>
       <c r="D43">
         <v>0.0130170645372288</v>
@@ -27698,7 +27698,7 @@
         <v>568</v>
       </c>
       <c r="C44">
-        <v>0.5395352137160631</v>
+        <v>0.5203627536646169</v>
       </c>
       <c r="D44">
         <v>0.01381632186225743</v>
@@ -27712,7 +27712,7 @@
         <v>572</v>
       </c>
       <c r="C45">
-        <v>0.5296599083582142</v>
+        <v>0.5117487309619795</v>
       </c>
       <c r="D45">
         <v>0.0146803368579513</v>
@@ -27726,7 +27726,7 @@
         <v>576</v>
       </c>
       <c r="C46">
-        <v>0.5194623916491917</v>
+        <v>0.5028107494184368</v>
       </c>
       <c r="D46">
         <v>0.01561615721072252</v>
@@ -27740,7 +27740,7 @@
         <v>580</v>
       </c>
       <c r="C47">
-        <v>0.5089797401650547</v>
+        <v>0.4935800525297973</v>
       </c>
       <c r="D47">
         <v>0.01663190246032005</v>
@@ -27754,7 +27754,7 @@
         <v>584</v>
       </c>
       <c r="C48">
-        <v>0.4982648469078527</v>
+        <v>0.4841029856763989</v>
       </c>
       <c r="D48">
         <v>0.01773700686834336</v>
@@ -27768,7 +27768,7 @@
         <v>588</v>
       </c>
       <c r="C49">
-        <v>0.4873912263095352</v>
+        <v>0.4744459038543697</v>
       </c>
       <c r="D49">
         <v>0.01894254457553883</v>
@@ -27782,7 +27782,7 @@
         <v>592</v>
       </c>
       <c r="C50">
-        <v>0.4764595417075987</v>
+        <v>0.4647018419802921</v>
       </c>
       <c r="D50">
         <v>0.02026167548181218</v>
@@ -27796,7 +27796,7 @@
         <v>596</v>
       </c>
       <c r="C51">
-        <v>0.4656066730136073</v>
+        <v>0.4549997697346923</v>
       </c>
       <c r="D51">
         <v>0.02171027298597061</v>
@@ -27810,7 +27810,7 @@
         <v>600</v>
       </c>
       <c r="C52">
-        <v>0.4550186312123865</v>
+        <v>0.4455177421133245</v>
       </c>
       <c r="D52">
         <v>0.02330783359925721</v>
@@ -27824,7 +27824,7 @@
         <v>604</v>
       </c>
       <c r="C53">
-        <v>0.4449494526048693</v>
+        <v>0.4365020853465452</v>
       </c>
       <c r="D53">
         <v>0.02507883713142046</v>
@@ -27838,7 +27838,7 @@
         <v>608</v>
       </c>
       <c r="C54">
-        <v>0.4357496170635686</v>
+        <v>0.4282961765664512</v>
       </c>
       <c r="D54">
         <v>0.02705485178504646</v>
@@ -27852,7 +27852,7 @@
         <v>612</v>
       </c>
       <c r="C55">
-        <v>0.4279099403605651</v>
+        <v>0.4213848015148486</v>
       </c>
       <c r="D55">
         <v>0.02927791745535321</v>
@@ -27866,7 +27866,7 @@
         <v>616</v>
       </c>
       <c r="C56">
-        <v>0.4221308548027355</v>
+        <v>0.4164640901229391</v>
       </c>
       <c r="D56">
         <v>0.0318062156053121</v>
@@ -27880,7 +27880,7 @@
         <v>620</v>
       </c>
       <c r="C57">
-        <v>0.4194327162515925</v>
+        <v>0.4145528824635644</v>
       </c>
       <c r="D57">
         <v>0.03472402764132712</v>
@@ -27894,7 +27894,7 @@
         <v>624</v>
       </c>
       <c r="C58">
-        <v>0.421326811428573</v>
+        <v>0.417165736425377</v>
       </c>
       <c r="D58">
         <v>0.03816018685386811</v>
@@ -27908,7 +27908,7 @@
         <v>628</v>
       </c>
       <c r="C59">
-        <v>0.4300448751335465</v>
+        <v>0.4265467162572833</v>
       </c>
       <c r="D59">
         <v>0.0423244592984488</v>
@@ -27922,7 +27922,7 @@
         <v>632</v>
       </c>
       <c r="C60">
-        <v>0.4486479571710573</v>
+        <v>0.4457877894367691</v>
       </c>
       <c r="D60">
         <v>0.04758474233712136</v>
@@ -27936,7 +27936,7 @@
         <v>636</v>
       </c>
       <c r="C61">
-        <v>0.4798877504854024</v>
+        <v>0.4777085190616022</v>
       </c>
       <c r="D61">
         <v>0.05464599982116482</v>
@@ -27950,7 +27950,7 @@
         <v>640</v>
       </c>
       <c r="C62">
-        <v>0.5187618636057071</v>
+        <v>0.5174156165748081</v>
       </c>
       <c r="D62">
         <v>0.06501178078420371</v>
@@ -27964,7 +27964,7 @@
         <v>644</v>
       </c>
       <c r="C63">
-        <v>0.5280720769075902</v>
+        <v>0.5276693755650073</v>
       </c>
       <c r="D63">
         <v>0.08233359046010785</v>
@@ -27978,7 +27978,7 @@
         <v>648</v>
       </c>
       <c r="C64">
-        <v>0.4407738575149623</v>
+        <v>0.4408574105380564</v>
       </c>
       <c r="D64">
         <v>0.116837218526937</v>
@@ -27992,7 +27992,7 @@
         <v>652</v>
       </c>
       <c r="C65">
-        <v>0.3018184742299886</v>
+        <v>0.3018529627502139</v>
       </c>
       <c r="D65">
         <v>0.1974713872505132</v>
@@ -28006,7 +28006,7 @@
         <v>656</v>
       </c>
       <c r="C66">
-        <v>0.2320360398046017</v>
+        <v>0.2320134723155366</v>
       </c>
       <c r="D66">
         <v>0.3155222177173599</v>
@@ -28020,7 +28020,7 @@
         <v>660</v>
       </c>
       <c r="C67">
-        <v>0.2053643325298473</v>
+        <v>0.2053616193506116</v>
       </c>
       <c r="D67">
         <v>0.2534171121877423</v>
@@ -28034,7 +28034,7 @@
         <v>664</v>
       </c>
       <c r="C68">
-        <v>0.1272581844110354</v>
+        <v>0.1272581842475079</v>
       </c>
       <c r="D68">
         <v>0.1681120503260808</v>
@@ -28048,7 +28048,7 @@
         <v>668</v>
       </c>
       <c r="C69">
-        <v>0.08183302429992607</v>
+        <v>0.08183302500440898</v>
       </c>
       <c r="D69">
         <v>0.1206271813511366</v>
@@ -28062,7 +28062,7 @@
         <v>672</v>
       </c>
       <c r="C70">
-        <v>0.06381885438096355</v>
+        <v>0.06381884407783811</v>
       </c>
       <c r="D70">
         <v>0.106534703047538</v>
@@ -28076,7 +28076,7 @@
         <v>676</v>
       </c>
       <c r="C71">
-        <v>0.05492214377202192</v>
+        <v>0.05492204973790229</v>
       </c>
       <c r="D71">
         <v>0.1038983134715694</v>
@@ -28090,7 +28090,7 @@
         <v>680</v>
       </c>
       <c r="C72">
-        <v>0.05008954019464566</v>
+        <v>0.05008930387552599</v>
       </c>
       <c r="D72">
         <v>0.1060680640307205</v>
@@ -28104,7 +28104,7 @@
         <v>684</v>
       </c>
       <c r="C73">
-        <v>0.04771729852726591</v>
+        <v>0.04771692600676875</v>
       </c>
       <c r="D73">
         <v>0.1107497934660013</v>
@@ -28118,7 +28118,7 @@
         <v>688</v>
       </c>
       <c r="C74">
-        <v>0.04716998597834662</v>
+        <v>0.04716953810868654</v>
       </c>
       <c r="D74">
         <v>0.1169542091055922</v>
@@ -28132,7 +28132,7 @@
         <v>692</v>
       </c>
       <c r="C75">
-        <v>0.04814113377357172</v>
+        <v>0.0481406886318478</v>
       </c>
       <c r="D75">
         <v>0.1241572599795635</v>
@@ -28146,7 +28146,7 @@
         <v>696</v>
       </c>
       <c r="C76">
-        <v>0.05044462705619562</v>
+        <v>0.05044424650000371</v>
       </c>
       <c r="D76">
         <v>0.1320094418778207</v>
@@ -28160,7 +28160,7 @@
         <v>700</v>
       </c>
       <c r="C77">
-        <v>0.0539360316562091</v>
+        <v>0.05393574599666155</v>
       </c>
       <c r="D77">
         <v>0.1402150436039694</v>
@@ -28174,7 +28174,7 @@
         <v>704</v>
       </c>
       <c r="C78">
-        <v>0.05848103311359249</v>
+        <v>0.05848084295947039</v>
       </c>
       <c r="D78">
         <v>0.1484746803533218</v>
@@ -28188,7 +28188,7 @@
         <v>708</v>
       </c>
       <c r="C79">
-        <v>0.06394316015731186</v>
+        <v>0.06394304755961858</v>
       </c>
       <c r="D79">
         <v>0.1564571074873651</v>
@@ -28202,7 +28202,7 @@
         <v>712</v>
       </c>
       <c r="C80">
-        <v>0.07017998329978729</v>
+        <v>0.07017992410970232</v>
       </c>
       <c r="D80">
         <v>0.1637898987791433</v>
@@ -28216,7 +28216,7 @@
         <v>716</v>
       </c>
       <c r="C81">
-        <v>0.0770430969023482</v>
+        <v>0.07704306945453318</v>
       </c>
       <c r="D81">
         <v>0.1700672413532846</v>
@@ -28230,7 +28230,7 @@
         <v>720</v>
       </c>
       <c r="C82">
-        <v>0.08437966009529249</v>
+        <v>0.08437964898505741</v>
       </c>
       <c r="D82">
         <v>0.1748755586854448</v>
@@ -28244,7 +28244,7 @@
         <v>724</v>
       </c>
       <c r="C83">
-        <v>0.09203436600272101</v>
+        <v>0.09203436213596312</v>
       </c>
       <c r="D83">
         <v>0.1778360430474042</v>
@@ -28258,7 +28258,7 @@
         <v>728</v>
       </c>
       <c r="C84">
-        <v>0.09985123523907757</v>
+        <v>0.09985123410527112</v>
       </c>
       <c r="D84">
         <v>0.1786583148557732</v>
@@ -28272,7 +28272,7 @@
         <v>732</v>
       </c>
       <c r="C85">
-        <v>0.1076748993101906</v>
+        <v>0.1076748990375273</v>
       </c>
       <c r="D85">
         <v>0.1771932150885254</v>
@@ -28286,7 +28286,7 @@
         <v>736</v>
       </c>
       <c r="C86">
-        <v>0.1153511798504545</v>
+        <v>0.1153511797985411</v>
       </c>
       <c r="D86">
         <v>0.1734687712497738</v>
@@ -28300,7 +28300,7 @@
         <v>740</v>
       </c>
       <c r="C87">
-        <v>0.1227268344430904</v>
+        <v>0.1227268344356213</v>
       </c>
       <c r="D87">
         <v>0.1676954956143022</v>
@@ -28314,7 +28314,7 @@
         <v>744</v>
       </c>
       <c r="C88">
-        <v>0.1296483504105047</v>
+        <v>0.1296483504097415</v>
       </c>
       <c r="D88">
         <v>0.160236378945713</v>
@@ -28328,7 +28328,7 @@
         <v>748</v>
       </c>
       <c r="C89">
-        <v>0.1359596281091681</v>
+        <v>0.1359596281091172</v>
       </c>
       <c r="D89">
         <v>0.1515494483532797</v>
@@ -28342,7 +28342,7 @@
         <v>752</v>
       </c>
       <c r="C90">
-        <v>0.1414982939889489</v>
+        <v>0.141498293988947</v>
       </c>
       <c r="D90">
         <v>0.1421199439192883</v>
@@ -28538,7 +28538,7 @@
         <v>808</v>
       </c>
       <c r="C104">
-        <v>0.03412367889779496</v>
+        <v>0.03412367889779497</v>
       </c>
       <c r="D104">
         <v>0.05133036682963118</v>
@@ -28681,7 +28681,7 @@
         <v>0.03992211995444186</v>
       </c>
       <c r="D114">
-        <v>0.02945422703767316</v>
+        <v>0.02945422703767315</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -29199,7 +29199,7 @@
         <v>0.9731982546055933</v>
       </c>
       <c r="D151">
-        <v>0.009881397337529237</v>
+        <v>0.009881397337529236</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -29238,7 +29238,7 @@
         <v>1008</v>
       </c>
       <c r="C154">
-        <v>0.9769556654402449</v>
+        <v>0.9769556654402448</v>
       </c>
       <c r="D154">
         <v>0.00931334506939722</v>
@@ -29252,10 +29252,10 @@
         <v>1012</v>
       </c>
       <c r="C155">
-        <v>0.9764951434105872</v>
+        <v>0.9764951434105792</v>
       </c>
       <c r="D155">
-        <v>0.009136725266329417</v>
+        <v>0.009136725266329419</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -29266,7 +29266,7 @@
         <v>1016</v>
       </c>
       <c r="C156">
-        <v>0.9756577898605868</v>
+        <v>0.9756577898603517</v>
       </c>
       <c r="D156">
         <v>0.008965970597300464</v>
@@ -29280,7 +29280,7 @@
         <v>1020</v>
       </c>
       <c r="C157">
-        <v>0.9745871677905307</v>
+        <v>0.9745871677866347</v>
       </c>
       <c r="D157">
         <v>0.008800807415526536</v>
@@ -29294,7 +29294,7 @@
         <v>1024</v>
       </c>
       <c r="C158">
-        <v>0.9733793416397436</v>
+        <v>0.973379341597976</v>
       </c>
       <c r="D158">
         <v>0.008640978026342734</v>
@@ -29308,7 +29308,7 @@
         <v>1028</v>
       </c>
       <c r="C159">
-        <v>0.972099366333919</v>
+        <v>0.9720993660165348</v>
       </c>
       <c r="D159">
         <v>0.008486239572399216</v>
@@ -29322,7 +29322,7 @@
         <v>1032</v>
       </c>
       <c r="C160">
-        <v>0.9707915912889328</v>
+        <v>0.9707915894597279</v>
       </c>
       <c r="D160">
         <v>0.008336363009691882</v>
@@ -29336,7 +29336,7 @@
         <v>1036</v>
       </c>
       <c r="C161">
-        <v>0.9694862840200389</v>
+        <v>0.969486275604115</v>
       </c>
       <c r="D161">
         <v>0.008191132165981579</v>
@@ -29350,7 +29350,7 @@
         <v>1040</v>
       </c>
       <c r="C162">
-        <v>0.9682039910704655</v>
+        <v>0.9682039589179702</v>
       </c>
       <c r="D162">
         <v>0.008050342874026464</v>
@@ -29364,7 +29364,7 @@
         <v>1044</v>
       </c>
       <c r="C163">
-        <v>0.966958468400498</v>
+        <v>0.9669583632088542</v>
       </c>
       <c r="D163">
         <v>0.007913802172848901</v>
@@ -29378,7 +29378,7 @@
         <v>1048</v>
       </c>
       <c r="C164">
-        <v>0.9657586852028879</v>
+        <v>0.96575838319926</v>
       </c>
       <c r="D164">
         <v>0.007781327570938153</v>
@@ -29392,7 +29392,7 @@
         <v>1052</v>
       </c>
       <c r="C165">
-        <v>0.964610214791588</v>
+        <v>0.9646094388528944</v>
       </c>
       <c r="D165">
         <v>0.007652746365912149</v>
@@ -29406,7 +29406,7 @@
         <v>1056</v>
       </c>
       <c r="C166">
-        <v>0.9635162124891999</v>
+        <v>0.9635143997094867</v>
       </c>
       <c r="D166">
         <v>0.007527895015699827</v>
@@ -29420,7 +29420,7 @@
         <v>1060</v>
       </c>
       <c r="C167">
-        <v>0.9624781106713782</v>
+        <v>0.9624742091038555</v>
       </c>
       <c r="D167">
         <v>0.007406618556795773</v>
@@ -29434,7 +29434,7 @@
         <v>1064</v>
       </c>
       <c r="C168">
-        <v>0.9614961173117262</v>
+        <v>0.9614882973234656</v>
       </c>
       <c r="D168">
         <v>0.007288770065569604</v>
@@ -29448,7 +29448,7 @@
         <v>1068</v>
       </c>
       <c r="C169">
-        <v>0.9605695762734434</v>
+        <v>0.9605548475377046</v>
       </c>
       <c r="D169">
         <v>0.007174210158992172</v>
@@ -29462,7 +29462,7 @@
         <v>1072</v>
       </c>
       <c r="C170">
-        <v>0.9596972292346986</v>
+        <v>0.9596709620679503</v>
       </c>
       <c r="D170">
         <v>0.007062806531495617</v>
@@ -29476,7 +29476,7 @@
         <v>1076</v>
       </c>
       <c r="C171">
-        <v>0.9588774069337053</v>
+        <v>0.9588327652709895</v>
       </c>
       <c r="D171">
         <v>0.006954433524980888</v>
@@ -29490,7 +29490,7 @@
         <v>1080</v>
       </c>
       <c r="C172">
-        <v>0.9581081691858959</v>
+        <v>0.958035470701069</v>
       </c>
       <c r="D172">
         <v>0.006848971729272534</v>
@@ -29504,7 +29504,7 @@
         <v>1084</v>
       </c>
       <c r="C173">
-        <v>0.9573874074914824</v>
+        <v>0.9572734331197812</v>
       </c>
       <c r="D173">
         <v>0.00674630761056184</v>
@@ -29518,7 +29518,7 @@
         <v>1088</v>
       </c>
       <c r="C174">
-        <v>0.9567129201471792</v>
+        <v>0.9565401998292669</v>
       </c>
       <c r="D174">
         <v>0.006646333165601565</v>
@@ -29532,7 +29532,7 @@
         <v>1092</v>
       </c>
       <c r="C175">
-        <v>0.9560824670384532</v>
+        <v>0.9558285705657212</v>
       </c>
       <c r="D175">
         <v>0.006548945599622611</v>
@@ -29546,7 +29546,7 @@
         <v>1096</v>
       </c>
       <c r="C176">
-        <v>0.9554938093491084</v>
+        <v>0.9551306708141767</v>
       </c>
       <c r="D176">
         <v>0.006454047026115382</v>
@@ -29560,7 +29560,7 @@
         <v>1100</v>
       </c>
       <c r="C177">
-        <v>0.9549447380373437</v>
+        <v>0.9544380399282624</v>
       </c>
       <c r="D177">
         <v>0.006361544186784082</v>
@@ -29574,7 +29574,7 @@
         <v>1104</v>
       </c>
       <c r="C178">
-        <v>0.9544330939257544</v>
+        <v>0.953741732862821</v>
       </c>
       <c r="D178">
         <v>0.006271348190131948</v>
@@ -29588,7 +29588,7 @@
         <v>1108</v>
       </c>
       <c r="C179">
-        <v>0.9539567815238063</v>
+        <v>0.953032432601828</v>
       </c>
       <c r="D179">
         <v>0.006183374267261194</v>
@@ -29602,7 +29602,7 @@
         <v>1112</v>
       </c>
       <c r="C180">
-        <v>0.9535137781668493</v>
+        <v>0.9523005693890433</v>
       </c>
       <c r="D180">
         <v>0.006097541543601379</v>
@@ -29616,7 +29616,7 @@
         <v>1116</v>
       </c>
       <c r="C181">
-        <v>0.9531021396612089</v>
+        <v>0.9515364425118075</v>
       </c>
       <c r="D181">
         <v>0.006013772825376085</v>
@@ -29630,7 +29630,7 @@
         <v>1120</v>
       </c>
       <c r="C182">
-        <v>0.9527200033318166</v>
+        <v>0.9507303405033533</v>
       </c>
       <c r="D182">
         <v>0.005931994399728742</v>
@@ -29644,7 +29644,7 @@
         <v>1124</v>
       </c>
       <c r="C183">
-        <v>0.9523655891499215</v>
+        <v>0.9498726560728868</v>
       </c>
       <c r="D183">
         <v>0.005852135847509083</v>
@@ -29658,7 +29658,7 @@
         <v>1128</v>
       </c>
       <c r="C184">
-        <v>0.9520371994540319</v>
+        <v>0.9489539927171191</v>
       </c>
       <c r="D184">
         <v>0.005774129867807628</v>
@@ -29672,10 +29672,10 @@
         <v>1132</v>
       </c>
       <c r="C185">
-        <v>0.9517332176532376</v>
+        <v>0.9479652607051376</v>
       </c>
       <c r="D185">
-        <v>0.00569791211339683</v>
+        <v>0.005697912113396829</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -29686,7 +29686,7 @@
         <v>1136</v>
       </c>
       <c r="C186">
-        <v>0.9514521062081446</v>
+        <v>0.946897760877969</v>
       </c>
       <c r="D186">
         <v>0.005623421036308873</v>
@@ -29700,7 +29700,7 @@
         <v>1140</v>
       </c>
       <c r="C187">
-        <v>0.9511924041132632</v>
+        <v>0.945743255406024</v>
       </c>
       <c r="D187">
         <v>0.005550597742834143</v>
@@ -29714,10 +29714,10 @@
         <v>1144</v>
       </c>
       <c r="C188">
-        <v>0.9509527240502387</v>
+        <v>0.9444940252641277</v>
       </c>
       <c r="D188">
-        <v>0.00547938585728976</v>
+        <v>0.005479385857289761</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -29728,7 +29728,7 @@
         <v>1148</v>
       </c>
       <c r="C189">
-        <v>0.9507317493396994</v>
+        <v>0.9431429146948658</v>
       </c>
       <c r="D189">
         <v>0.005409731393949891</v>
@@ -29742,7 +29742,7 @@
         <v>1152</v>
       </c>
       <c r="C190">
-        <v>0.950528230787575</v>
+        <v>0.9416833633298705</v>
       </c>
       <c r="D190">
         <v>0.005341582636583522</v>
@@ -29756,7 +29756,7 @@
         <v>1156</v>
       </c>
       <c r="C191">
-        <v>0.9503409834972414</v>
+        <v>0.9401094269287076</v>
       </c>
       <c r="D191">
         <v>0.005274890025080506</v>
@@ -29770,7 +29770,7 @@
         <v>1160</v>
       </c>
       <c r="C192">
-        <v>0.9501688836999678</v>
+        <v>0.9384157878858322</v>
       </c>
       <c r="D192">
         <v>0.005209606048694166</v>
@@ -29784,7 +29784,7 @@
         <v>1164</v>
       </c>
       <c r="C193">
-        <v>0.950010865641586</v>
+        <v>0.936597756761132</v>
       </c>
       <c r="D193">
         <v>0.005145685145458171</v>
@@ -29798,7 +29798,7 @@
         <v>1168</v>
       </c>
       <c r="C194">
-        <v>0.9498659185520227</v>
+        <v>0.934651266123915</v>
       </c>
       <c r="D194">
         <v>0.005083083607368867</v>
@@ -29812,7 +29812,7 @@
         <v>1172</v>
       </c>
       <c r="C195">
-        <v>0.9497330837155703</v>
+        <v>0.9325728579789793</v>
       </c>
       <c r="D195">
         <v>0.005021759490958477</v>
@@ -29826,7 +29826,7 @@
         <v>1176</v>
       </c>
       <c r="C196">
-        <v>0.9496114516529041</v>
+        <v>0.9303596659808294</v>
       </c>
       <c r="D196">
         <v>0.004961672532908181</v>
@@ -29840,7 +29840,7 @@
         <v>1180</v>
       </c>
       <c r="C197">
-        <v>0.9495001594204581</v>
+        <v>0.9280093935508367</v>
       </c>
       <c r="D197">
         <v>0.004902784070376707</v>
@@ -29854,7 +29854,7 @@
         <v>1184</v>
       </c>
       <c r="C198">
-        <v>0.9493983880284588</v>
+        <v>0.9255202889029088</v>
       </c>
       <c r="D198">
         <v>0.0048450569657433</v>
@@ -29868,7 +29868,7 @@
         <v>1188</v>
       </c>
       <c r="C199">
-        <v>0.9493053599754706</v>
+        <v>0.9228911178648667</v>
       </c>
       <c r="D199">
         <v>0.004788455535487954</v>
@@ -29882,7 +29882,7 @@
         <v>1192</v>
       </c>
       <c r="C200">
-        <v>0.9492203368945199</v>
+        <v>0.9201211352620962</v>
       </c>
       <c r="D200">
         <v>0.004732945482942753</v>
@@ -29896,7 +29896,7 @@
         <v>1196</v>
       </c>
       <c r="C201">
-        <v>0.9491426173035969</v>
+        <v>0.9172100555123437</v>
       </c>
       <c r="D201">
         <v>0.004678493834684223</v>
@@ -29910,7 +29910,7 @@
         <v>1200</v>
       </c>
       <c r="C202">
-        <v>0.9490715344515486</v>
+        <v>0.9141580229694551</v>
       </c>
       <c r="D202">
         <v>0.004625068880329457</v>

--- a/Examples/Experiment/AlN/results.ref.xlsx
+++ b/Examples/Experiment/AlN/results.ref.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
   <si>
     <t>Directory</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Single crystal</t>
+  </si>
+  <si>
+    <t>Slice thickness</t>
+  </si>
+  <si>
+    <t>Slice thickness unit</t>
   </si>
   <si>
     <t>Substrate</t>
@@ -817,13 +823,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3655,25 +3661,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8917,25 +8923,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -15020,7 +15026,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H58"/>
+  <dimension ref="A2:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15258,8 +15264,8 @@
       <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="C20" t="s">
-        <v>64</v>
+      <c r="C20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -15267,10 +15273,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21">
-        <v>99999</v>
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -15278,13 +15284,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
         <v>66</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -15294,8 +15297,8 @@
       <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
-        <v>64</v>
+      <c r="C23">
+        <v>99999</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -15305,8 +15308,11 @@
       <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
-        <v>69</v>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -15314,10 +15320,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25">
-        <v>99999</v>
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -15325,40 +15331,34 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
         <v>71</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
         <v>1</v>
       </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
       <c r="C27">
-        <v>2.668224269059857</v>
-      </c>
-      <c r="D27">
-        <v>-1.5405</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>3.081</v>
-      </c>
-      <c r="E28">
         <v>0</v>
       </c>
     </row>
@@ -15367,32 +15367,41 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2.668224269059857</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>-1.5405</v>
       </c>
       <c r="E29">
-        <v>5.030999999999999</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>3.081</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32">
-        <v>7.2</v>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>5.030999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15400,10 +15409,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15411,10 +15417,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15422,10 +15428,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15433,10 +15439,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15444,13 +15450,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15458,13 +15461,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15472,25 +15472,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15498,13 +15486,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15512,13 +15500,25 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15526,13 +15526,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42">
-        <v>0.24</v>
-      </c>
-      <c r="D42">
-        <v>0.5600000000000001</v>
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15540,10 +15540,13 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15551,10 +15554,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>0.24</v>
+      </c>
+      <c r="D44">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15562,10 +15568,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15573,10 +15579,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15584,10 +15590,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15595,10 +15601,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -15606,10 +15612,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -15617,10 +15623,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50">
-        <v>99999</v>
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -15628,12 +15634,9 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C51">
-        <v>11.6964</v>
-      </c>
-      <c r="D51">
         <v>0</v>
       </c>
     </row>
@@ -15642,10 +15645,10 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -15653,10 +15656,10 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -15664,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C54">
         <v>99999</v>
@@ -15675,10 +15678,10 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>11.6964</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -15688,41 +15691,88 @@
       <c r="A56">
         <v>1</v>
       </c>
-      <c r="C56">
-        <v>2.668224269059857</v>
-      </c>
-      <c r="D56">
-        <v>-1.5405</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>3.081</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
         <v>1</v>
       </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
       <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>2.668224269059857</v>
+      </c>
+      <c r="D60">
+        <v>-1.5405</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>3.081</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
         <v>5.030999999999999</v>
       </c>
     </row>
@@ -15741,13 +15791,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -18579,13 +18629,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -21417,13 +21467,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -24255,13 +24305,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -27093,13 +27143,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
